--- a/main/main/utils/test/data_1.xlsx
+++ b/main/main/utils/test/data_1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7945E4AE-6755-42BF-8C2A-7C246AC1CD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71E3399-FE6C-44EA-B2DB-0D84E8C7BF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO" sheetId="14" r:id="rId1"/>
@@ -3565,48 +3565,6 @@
     <xf numFmtId="43" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="22" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3656,6 +3614,48 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3667,547 +3667,7 @@
     <cellStyle name="Normal 4" xfId="3" xr:uid="{2FEF97A9-0DF0-432E-B456-D6BA996991AC}"/>
     <cellStyle name="Normal 5" xfId="6" xr:uid="{71A3FCB0-6F2F-498A-B42D-EC7CACF506E7}"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4656,9 +4116,9 @@
   </sheetPr>
   <dimension ref="A1:T259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6018,71 +5478,71 @@
     </row>
     <row r="3" spans="1:20" ht="17.25" customHeight="1"/>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A4" s="322" t="s">
+      <c r="A4" s="339" t="s">
         <v>550</v>
       </c>
-      <c r="B4" s="333" t="s">
+      <c r="B4" s="341" t="s">
         <v>551</v>
       </c>
-      <c r="C4" s="333" t="s">
+      <c r="C4" s="341" t="s">
         <v>552</v>
       </c>
-      <c r="D4" s="333" t="s">
+      <c r="D4" s="341" t="s">
         <v>553</v>
       </c>
-      <c r="E4" s="333" t="s">
+      <c r="E4" s="341" t="s">
         <v>554</v>
       </c>
-      <c r="F4" s="322" t="s">
+      <c r="F4" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="324" t="s">
+      <c r="G4" s="343" t="s">
         <v>555</v>
       </c>
-      <c r="H4" s="326" t="s">
+      <c r="H4" s="345" t="s">
         <v>556</v>
       </c>
-      <c r="I4" s="327"/>
-      <c r="J4" s="328"/>
-      <c r="K4" s="329" t="s">
+      <c r="I4" s="346"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="348" t="s">
         <v>557</v>
       </c>
-      <c r="L4" s="331" t="s">
+      <c r="L4" s="350" t="s">
         <v>303</v>
       </c>
-      <c r="M4" s="322" t="s">
+      <c r="M4" s="339" t="s">
         <v>304</v>
       </c>
       <c r="N4" s="153" t="s">
         <v>689</v>
       </c>
-      <c r="O4" s="322" t="s">
+      <c r="O4" s="339" t="s">
         <v>691</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="339" t="s">
         <v>558</v>
       </c>
-      <c r="Q4" s="322" t="s">
+      <c r="Q4" s="339" t="s">
         <v>559</v>
       </c>
-      <c r="R4" s="322" t="s">
+      <c r="R4" s="339" t="s">
         <v>368</v>
       </c>
-      <c r="S4" s="322" t="s">
+      <c r="S4" s="339" t="s">
         <v>369</v>
       </c>
-      <c r="T4" s="322" t="s">
+      <c r="T4" s="339" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="323"/>
-      <c r="B5" s="334"/>
-      <c r="C5" s="334"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="323"/>
-      <c r="G5" s="325"/>
+      <c r="A5" s="340"/>
+      <c r="B5" s="342"/>
+      <c r="C5" s="342"/>
+      <c r="D5" s="342"/>
+      <c r="E5" s="342"/>
+      <c r="F5" s="340"/>
+      <c r="G5" s="344"/>
       <c r="H5" s="57" t="s">
         <v>5</v>
       </c>
@@ -6092,18 +5552,18 @@
       <c r="J5" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="K5" s="330"/>
-      <c r="L5" s="332"/>
-      <c r="M5" s="323"/>
+      <c r="K5" s="349"/>
+      <c r="L5" s="351"/>
+      <c r="M5" s="340"/>
       <c r="N5" s="82" t="s">
         <v>690</v>
       </c>
-      <c r="O5" s="323"/>
-      <c r="P5" s="323"/>
-      <c r="Q5" s="323"/>
-      <c r="R5" s="323"/>
-      <c r="S5" s="323"/>
-      <c r="T5" s="323"/>
+      <c r="O5" s="340"/>
+      <c r="P5" s="340"/>
+      <c r="Q5" s="340"/>
+      <c r="R5" s="340"/>
+      <c r="S5" s="340"/>
+      <c r="T5" s="340"/>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1">
       <c r="A6" s="152"/>
@@ -17712,46 +17172,46 @@
       <c r="T202" s="58"/>
     </row>
     <row r="203" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A203" s="340" t="s">
+      <c r="A203" s="326" t="s">
         <v>514</v>
       </c>
-      <c r="B203" s="341" t="s">
+      <c r="B203" s="327" t="s">
         <v>122</v>
       </c>
-      <c r="C203" s="342" t="str">
+      <c r="C203" s="328" t="str">
         <f t="shared" si="13"/>
         <v>F00VC01359</v>
       </c>
-      <c r="D203" s="342" t="str">
+      <c r="D203" s="328" t="str">
         <f>LEFT(C203,10)</f>
         <v>F00VC01359</v>
       </c>
-      <c r="E203" s="343"/>
-      <c r="F203" s="344"/>
-      <c r="G203" s="345" t="str">
+      <c r="E203" s="329"/>
+      <c r="F203" s="330"/>
+      <c r="G203" s="331" t="str">
         <f t="shared" si="14"/>
         <v>770</v>
       </c>
-      <c r="H203" s="346" t="s">
+      <c r="H203" s="332" t="s">
         <v>114</v>
       </c>
-      <c r="I203" s="347" t="s">
+      <c r="I203" s="333" t="s">
         <v>338</v>
       </c>
-      <c r="J203" s="347" t="s">
+      <c r="J203" s="333" t="s">
         <v>112</v>
       </c>
-      <c r="K203" s="348">
+      <c r="K203" s="334">
         <v>240</v>
       </c>
-      <c r="L203" s="343">
+      <c r="L203" s="329">
         <v>17.920000000000002</v>
       </c>
       <c r="M203" s="321">
         <f t="shared" si="15"/>
         <v>4300.8</v>
       </c>
-      <c r="N203" s="349">
+      <c r="N203" s="335">
         <v>1.1000000000000001</v>
       </c>
       <c r="O203" s="203">
@@ -17761,14 +17221,14 @@
       <c r="P203" s="204">
         <v>680000</v>
       </c>
-      <c r="Q203" s="350"/>
-      <c r="R203" s="350" t="s">
+      <c r="Q203" s="336"/>
+      <c r="R203" s="336" t="s">
         <v>503</v>
       </c>
-      <c r="S203" s="351" t="s">
+      <c r="S203" s="337" t="s">
         <v>365</v>
       </c>
-      <c r="T203" s="352"/>
+      <c r="T203" s="338"/>
     </row>
     <row r="204" spans="1:20" ht="14.1" customHeight="1">
       <c r="A204" s="89" t="s">
@@ -21130,12 +20590,6 @@
   </sheetData>
   <autoFilter ref="A6:T239" xr:uid="{2F793BA1-D7F0-40D2-8D3B-CED77BBED12F}"/>
   <mergeCells count="17">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:J4"/>
@@ -21147,6 +20601,12 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="E115:E119">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
@@ -21188,8 +20648,8 @@
   <dimension ref="A1:U140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30631,9 +30091,9 @@
   </sheetPr>
   <dimension ref="A1:J189"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -30652,35 +30112,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="352" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
       <c r="I1" s="182"/>
       <c r="J1" s="183"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="352" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
+      <c r="B2" s="352"/>
+      <c r="C2" s="352"/>
+      <c r="D2" s="352"/>
+      <c r="E2" s="352"/>
+      <c r="F2" s="352"/>
+      <c r="G2" s="352"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="352" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
       <c r="D3" s="197"/>
       <c r="E3" s="197"/>
     </row>
@@ -31823,17 +31283,17 @@
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="2:9" ht="28.5">
-      <c r="B72" s="336">
+      <c r="B72" s="322">
         <v>44307</v>
       </c>
-      <c r="C72" s="337" t="s">
+      <c r="C72" s="323" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="257" t="s">
         <v>39</v>
       </c>
       <c r="E72" s="235"/>
-      <c r="F72" s="338">
+      <c r="F72" s="324">
         <v>12</v>
       </c>
       <c r="G72" s="258"/>
@@ -32129,30 +31589,30 @@
       <c r="H89" s="8"/>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="336">
+      <c r="B90" s="322">
         <v>44325</v>
       </c>
-      <c r="C90" s="339" t="s">
+      <c r="C90" s="325" t="s">
         <v>44</v>
       </c>
       <c r="D90" s="250"/>
       <c r="E90" s="235"/>
-      <c r="F90" s="338">
+      <c r="F90" s="324">
         <v>10</v>
       </c>
       <c r="G90" s="258"/>
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="336">
+      <c r="B91" s="322">
         <v>44336</v>
       </c>
-      <c r="C91" s="339" t="s">
+      <c r="C91" s="325" t="s">
         <v>44</v>
       </c>
       <c r="D91" s="252"/>
       <c r="E91" s="235"/>
-      <c r="F91" s="338">
+      <c r="F91" s="324">
         <v>1</v>
       </c>
       <c r="G91" s="258"/>

--- a/main/main/utils/test/data_1.xlsx
+++ b/main/main/utils/test/data_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB85E33-D856-4C4D-8F62-4C081E29DB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5622BA-28AF-4F4E-AAEB-C78C9399090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3666,37 +3666,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3713,115 +3713,7 @@
     <cellStyle name="Normal 4" xfId="3" xr:uid="{2FEF97A9-0DF0-432E-B456-D6BA996991AC}"/>
     <cellStyle name="Normal 5" xfId="6" xr:uid="{71A3FCB0-6F2F-498A-B42D-EC7CACF506E7}"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4378,9 +4270,9 @@
   </sheetPr>
   <dimension ref="A1:T259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B228" sqref="B228"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:T259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5743,33 +5635,33 @@
       <c r="A4" s="354" t="s">
         <v>550</v>
       </c>
-      <c r="B4" s="356" t="s">
+      <c r="B4" s="365" t="s">
         <v>551</v>
       </c>
-      <c r="C4" s="356" t="s">
+      <c r="C4" s="365" t="s">
         <v>552</v>
       </c>
-      <c r="D4" s="356" t="s">
+      <c r="D4" s="365" t="s">
         <v>553</v>
       </c>
-      <c r="E4" s="356" t="s">
+      <c r="E4" s="365" t="s">
         <v>554</v>
       </c>
       <c r="F4" s="354" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="358" t="s">
+      <c r="G4" s="356" t="s">
         <v>555</v>
       </c>
-      <c r="H4" s="360" t="s">
+      <c r="H4" s="358" t="s">
         <v>556</v>
       </c>
-      <c r="I4" s="361"/>
-      <c r="J4" s="362"/>
-      <c r="K4" s="363" t="s">
+      <c r="I4" s="359"/>
+      <c r="J4" s="360"/>
+      <c r="K4" s="361" t="s">
         <v>557</v>
       </c>
-      <c r="L4" s="365" t="s">
+      <c r="L4" s="363" t="s">
         <v>303</v>
       </c>
       <c r="M4" s="354" t="s">
@@ -5799,12 +5691,12 @@
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="355"/>
-      <c r="B5" s="357"/>
-      <c r="C5" s="357"/>
-      <c r="D5" s="357"/>
-      <c r="E5" s="357"/>
+      <c r="B5" s="366"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
       <c r="F5" s="355"/>
-      <c r="G5" s="359"/>
+      <c r="G5" s="357"/>
       <c r="H5" s="31" t="s">
         <v>5</v>
       </c>
@@ -5814,8 +5706,8 @@
       <c r="J5" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="K5" s="364"/>
-      <c r="L5" s="366"/>
+      <c r="K5" s="362"/>
+      <c r="L5" s="364"/>
       <c r="M5" s="355"/>
       <c r="N5" s="56" t="s">
         <v>690</v>
@@ -5889,7 +5781,7 @@
         <v>6.34</v>
       </c>
       <c r="M7" s="280">
-        <f>L7*K7</f>
+        <f t="shared" ref="M7:M17" si="0">L7*K7</f>
         <v>1902</v>
       </c>
       <c r="N7" s="67">
@@ -5917,7 +5809,7 @@
         <v>253</v>
       </c>
       <c r="C8" s="64" t="str">
-        <f t="shared" ref="C8:C71" si="0">LEFT(B8,10)</f>
+        <f t="shared" ref="C8:C71" si="1">LEFT(B8,10)</f>
         <v>H105025407</v>
       </c>
       <c r="D8" s="64">
@@ -5930,7 +5822,7 @@
         <v>254</v>
       </c>
       <c r="G8" s="65" t="str">
-        <f t="shared" ref="G8:G71" si="1">RIGHT(B8,3)</f>
+        <f t="shared" ref="G8:G71" si="2">RIGHT(B8,3)</f>
         <v>KMH</v>
       </c>
       <c r="H8" s="40" t="s">
@@ -5949,7 +5841,7 @@
         <v>15.38</v>
       </c>
       <c r="M8" s="280">
-        <f t="shared" ref="M8:M71" si="2">L8*K8</f>
+        <f t="shared" si="0"/>
         <v>738.24</v>
       </c>
       <c r="N8" s="67">
@@ -5977,7 +5869,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9413610013</v>
       </c>
       <c r="D9" s="64" t="str">
@@ -5991,7 +5883,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3YL</v>
       </c>
       <c r="H9" s="40" t="s">
@@ -6010,7 +5902,7 @@
         <v>15.42</v>
       </c>
       <c r="M9" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>555.12</v>
       </c>
       <c r="N9" s="67">
@@ -6038,7 +5930,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9443610210</v>
       </c>
       <c r="D10" s="64" t="str">
@@ -6052,7 +5944,7 @@
         <v>62</v>
       </c>
       <c r="G10" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3YL</v>
       </c>
       <c r="H10" s="40" t="s">
@@ -6071,7 +5963,7 @@
         <v>15.07</v>
       </c>
       <c r="M10" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>542.52</v>
       </c>
       <c r="N10" s="67">
@@ -6099,7 +5991,7 @@
         <v>139</v>
       </c>
       <c r="C11" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105015393</v>
       </c>
       <c r="D11" s="64">
@@ -6112,7 +6004,7 @@
         <v>140</v>
       </c>
       <c r="G11" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H11" s="40" t="s">
@@ -6131,7 +6023,7 @@
         <v>15.97</v>
       </c>
       <c r="M11" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>574.92000000000007</v>
       </c>
       <c r="N11" s="67">
@@ -6159,7 +6051,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105015413</v>
       </c>
       <c r="D12" s="64">
@@ -6172,7 +6064,7 @@
         <v>143</v>
       </c>
       <c r="G12" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H12" s="40" t="s">
@@ -6191,7 +6083,7 @@
         <v>13.06</v>
       </c>
       <c r="M12" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>470.16</v>
       </c>
       <c r="N12" s="67">
@@ -6219,7 +6111,7 @@
         <v>145</v>
       </c>
       <c r="C13" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105015419</v>
       </c>
       <c r="D13" s="64">
@@ -6232,7 +6124,7 @@
         <v>146</v>
       </c>
       <c r="G13" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H13" s="40" t="s">
@@ -6251,7 +6143,7 @@
         <v>13.44</v>
       </c>
       <c r="M13" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>483.84</v>
       </c>
       <c r="N13" s="67">
@@ -6279,7 +6171,7 @@
         <v>183</v>
       </c>
       <c r="C14" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105017010</v>
       </c>
       <c r="D14" s="64">
@@ -6292,7 +6184,7 @@
         <v>184</v>
       </c>
       <c r="G14" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H14" s="40" t="s">
@@ -6311,7 +6203,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="M14" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>600.12000000000012</v>
       </c>
       <c r="N14" s="67">
@@ -6339,7 +6231,7 @@
         <v>248</v>
       </c>
       <c r="C15" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9443610074</v>
       </c>
       <c r="D15" s="64">
@@ -6352,7 +6244,7 @@
         <v>249</v>
       </c>
       <c r="G15" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3YL</v>
       </c>
       <c r="H15" s="40" t="s">
@@ -6371,7 +6263,7 @@
         <v>14.88</v>
       </c>
       <c r="M15" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>535.68000000000006</v>
       </c>
       <c r="N15" s="67">
@@ -6399,7 +6291,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9413614194</v>
       </c>
       <c r="D16" s="64" t="str">
@@ -6413,7 +6305,7 @@
         <v>58</v>
       </c>
       <c r="G16" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3YL</v>
       </c>
       <c r="H16" s="40" t="s">
@@ -6432,7 +6324,7 @@
         <v>14.24</v>
       </c>
       <c r="M16" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>341.76</v>
       </c>
       <c r="N16" s="67">
@@ -6460,7 +6352,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9443610218</v>
       </c>
       <c r="D17" s="64" t="str">
@@ -6474,7 +6366,7 @@
         <v>66</v>
       </c>
       <c r="G17" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3YL</v>
       </c>
       <c r="H17" s="40" t="s">
@@ -6493,7 +6385,7 @@
         <v>13.66</v>
       </c>
       <c r="M17" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>327.84000000000003</v>
       </c>
       <c r="N17" s="67">
@@ -6521,7 +6413,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9443610468</v>
       </c>
       <c r="D18" s="64" t="str">
@@ -6535,7 +6427,7 @@
         <v>74</v>
       </c>
       <c r="G18" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3YL</v>
       </c>
       <c r="H18" s="40" t="s">
@@ -6554,7 +6446,7 @@
         <v>15.1</v>
       </c>
       <c r="M18" s="280">
-        <f t="shared" si="2"/>
+        <f>L18*K18</f>
         <v>362.4</v>
       </c>
       <c r="N18" s="67">
@@ -6582,7 +6474,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9443610791</v>
       </c>
       <c r="D19" s="64" t="str">
@@ -6596,7 +6488,7 @@
         <v>78</v>
       </c>
       <c r="G19" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3YL</v>
       </c>
       <c r="H19" s="40" t="s">
@@ -6615,7 +6507,7 @@
         <v>16.03</v>
       </c>
       <c r="M19" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M19:M82" si="4">L19*K19</f>
         <v>384.72</v>
       </c>
       <c r="N19" s="67">
@@ -6643,7 +6535,7 @@
         <v>174</v>
       </c>
       <c r="C20" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105015869</v>
       </c>
       <c r="D20" s="64">
@@ -6656,7 +6548,7 @@
         <v>175</v>
       </c>
       <c r="G20" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H20" s="40" t="s">
@@ -6675,7 +6567,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="M20" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>400.08000000000004</v>
       </c>
       <c r="N20" s="67">
@@ -6703,7 +6595,7 @@
         <v>373</v>
       </c>
       <c r="C21" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105017005</v>
       </c>
       <c r="D21" s="64">
@@ -6716,7 +6608,7 @@
         <v>561</v>
       </c>
       <c r="G21" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H21" s="40" t="s">
@@ -6735,7 +6627,7 @@
         <v>18.21</v>
       </c>
       <c r="M21" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>437.04</v>
       </c>
       <c r="N21" s="67">
@@ -6763,7 +6655,7 @@
         <v>374</v>
       </c>
       <c r="C22" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105017009</v>
       </c>
       <c r="D22" s="64">
@@ -6776,7 +6668,7 @@
         <v>563</v>
       </c>
       <c r="G22" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H22" s="40" t="s">
@@ -6795,7 +6687,7 @@
         <v>16.93</v>
       </c>
       <c r="M22" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>406.32</v>
       </c>
       <c r="N22" s="67">
@@ -6823,7 +6715,7 @@
         <v>207</v>
       </c>
       <c r="C23" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105025029</v>
       </c>
       <c r="D23" s="64">
@@ -6836,7 +6728,7 @@
         <v>208</v>
       </c>
       <c r="G23" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H23" s="40" t="s">
@@ -6855,7 +6747,7 @@
         <v>17.73</v>
       </c>
       <c r="M23" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>425.52</v>
       </c>
       <c r="N23" s="67">
@@ -6883,7 +6775,7 @@
         <v>213</v>
       </c>
       <c r="C24" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105025145</v>
       </c>
       <c r="D24" s="64">
@@ -6896,7 +6788,7 @@
         <v>214</v>
       </c>
       <c r="G24" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H24" s="40" t="s">
@@ -6915,7 +6807,7 @@
         <v>21.12</v>
       </c>
       <c r="M24" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>506.88</v>
       </c>
       <c r="N24" s="67">
@@ -6943,7 +6835,7 @@
         <v>225</v>
       </c>
       <c r="C25" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105025304</v>
       </c>
       <c r="D25" s="64">
@@ -6956,7 +6848,7 @@
         <v>226</v>
       </c>
       <c r="G25" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H25" s="40" t="s">
@@ -6975,7 +6867,7 @@
         <v>15.39</v>
       </c>
       <c r="M25" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>369.36</v>
       </c>
       <c r="N25" s="67">
@@ -7003,7 +6895,7 @@
         <v>375</v>
       </c>
       <c r="C26" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433171454</v>
       </c>
       <c r="D26" s="64" t="s">
@@ -7014,7 +6906,7 @@
         <v>565</v>
       </c>
       <c r="G26" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75Y</v>
       </c>
       <c r="H26" s="40" t="s">
@@ -7033,7 +6925,7 @@
         <v>12.45</v>
       </c>
       <c r="M26" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>149.39999999999998</v>
       </c>
       <c r="N26" s="67">
@@ -7061,7 +6953,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9413610135</v>
       </c>
       <c r="D27" s="64" t="str">
@@ -7075,7 +6967,7 @@
         <v>54</v>
       </c>
       <c r="G27" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3YL</v>
       </c>
       <c r="H27" s="40" t="s">
@@ -7094,7 +6986,7 @@
         <v>14.82</v>
       </c>
       <c r="M27" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>177.84</v>
       </c>
       <c r="N27" s="67">
@@ -7122,7 +7014,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9443610373</v>
       </c>
       <c r="D28" s="64" t="str">
@@ -7136,7 +7028,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3YL</v>
       </c>
       <c r="H28" s="40" t="s">
@@ -7155,7 +7047,7 @@
         <v>13.47</v>
       </c>
       <c r="M28" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>161.64000000000001</v>
       </c>
       <c r="N28" s="67">
@@ -7183,7 +7075,7 @@
         <v>156</v>
       </c>
       <c r="C29" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105015569</v>
       </c>
       <c r="D29" s="64">
@@ -7196,7 +7088,7 @@
         <v>157</v>
       </c>
       <c r="G29" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H29" s="40" t="s">
@@ -7215,7 +7107,7 @@
         <v>13.74</v>
       </c>
       <c r="M29" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>164.88</v>
       </c>
       <c r="N29" s="67">
@@ -7243,7 +7135,7 @@
         <v>165</v>
       </c>
       <c r="C30" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105015783</v>
       </c>
       <c r="D30" s="64">
@@ -7256,7 +7148,7 @@
         <v>166</v>
       </c>
       <c r="G30" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H30" s="40" t="s">
@@ -7275,7 +7167,7 @@
         <v>15.18</v>
       </c>
       <c r="M30" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>182.16</v>
       </c>
       <c r="N30" s="67">
@@ -7303,7 +7195,7 @@
         <v>171</v>
       </c>
       <c r="C31" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105015852</v>
       </c>
       <c r="D31" s="64">
@@ -7316,7 +7208,7 @@
         <v>172</v>
       </c>
       <c r="G31" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H31" s="40" t="s">
@@ -7335,7 +7227,7 @@
         <v>15.78</v>
       </c>
       <c r="M31" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>189.35999999999999</v>
       </c>
       <c r="N31" s="67">
@@ -7363,7 +7255,7 @@
         <v>189</v>
       </c>
       <c r="C32" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105017053</v>
       </c>
       <c r="D32" s="64">
@@ -7376,7 +7268,7 @@
         <v>190</v>
       </c>
       <c r="G32" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H32" s="40" t="s">
@@ -7395,7 +7287,7 @@
         <v>15.39</v>
       </c>
       <c r="M32" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>184.68</v>
       </c>
       <c r="N32" s="67">
@@ -7423,7 +7315,7 @@
         <v>377</v>
       </c>
       <c r="C33" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105017063</v>
       </c>
       <c r="D33" s="64">
@@ -7436,7 +7328,7 @@
         <v>567</v>
       </c>
       <c r="G33" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H33" s="40" t="s">
@@ -7455,7 +7347,7 @@
         <v>18.559999999999999</v>
       </c>
       <c r="M33" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>222.71999999999997</v>
       </c>
       <c r="N33" s="67">
@@ -7483,7 +7375,7 @@
         <v>259</v>
       </c>
       <c r="C34" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105017267</v>
       </c>
       <c r="D34" s="64">
@@ -7496,7 +7388,7 @@
         <v>260</v>
       </c>
       <c r="G34" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H34" s="40" t="s">
@@ -7515,7 +7407,7 @@
         <v>17.02</v>
       </c>
       <c r="M34" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>204.24</v>
       </c>
       <c r="N34" s="67">
@@ -7543,7 +7435,7 @@
         <v>251</v>
       </c>
       <c r="C35" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105017354</v>
       </c>
       <c r="D35" s="64">
@@ -7556,7 +7448,7 @@
         <v>252</v>
       </c>
       <c r="G35" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H35" s="40" t="s">
@@ -7575,7 +7467,7 @@
         <v>9.86</v>
       </c>
       <c r="M35" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>118.32</v>
       </c>
       <c r="N35" s="67">
@@ -7603,7 +7495,7 @@
         <v>201</v>
       </c>
       <c r="C36" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105025012</v>
       </c>
       <c r="D36" s="64">
@@ -7616,7 +7508,7 @@
         <v>202</v>
       </c>
       <c r="G36" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H36" s="40" t="s">
@@ -7635,7 +7527,7 @@
         <v>19.14</v>
       </c>
       <c r="M36" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>229.68</v>
       </c>
       <c r="N36" s="67">
@@ -7663,7 +7555,7 @@
         <v>222</v>
       </c>
       <c r="C37" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105025303</v>
       </c>
       <c r="D37" s="64">
@@ -7676,7 +7568,7 @@
         <v>223</v>
       </c>
       <c r="G37" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H37" s="40" t="s">
@@ -7695,7 +7587,7 @@
         <v>18.78</v>
       </c>
       <c r="M37" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>225.36</v>
       </c>
       <c r="N37" s="67">
@@ -7723,7 +7615,7 @@
         <v>229</v>
       </c>
       <c r="C38" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105025325</v>
       </c>
       <c r="D38" s="64">
@@ -7736,7 +7628,7 @@
         <v>230</v>
       </c>
       <c r="G38" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H38" s="40" t="s">
@@ -7755,7 +7647,7 @@
         <v>15.23</v>
       </c>
       <c r="M38" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>182.76</v>
       </c>
       <c r="N38" s="67">
@@ -7783,7 +7675,7 @@
         <v>232</v>
       </c>
       <c r="C39" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105025327</v>
       </c>
       <c r="D39" s="64">
@@ -7796,7 +7688,7 @@
         <v>233</v>
       </c>
       <c r="G39" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H39" s="40" t="s">
@@ -7815,7 +7707,7 @@
         <v>18.98</v>
       </c>
       <c r="M39" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>227.76</v>
       </c>
       <c r="N39" s="67">
@@ -7843,7 +7735,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433175414</v>
       </c>
       <c r="D40" s="64" t="str">
@@ -7855,7 +7747,7 @@
         <v>42</v>
       </c>
       <c r="G40" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8GA</v>
       </c>
       <c r="H40" s="33" t="s">
@@ -7874,7 +7766,7 @@
         <v>23.24</v>
       </c>
       <c r="M40" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6971.9999999999991</v>
       </c>
       <c r="N40" s="67">
@@ -7902,7 +7794,7 @@
         <v>239</v>
       </c>
       <c r="C41" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H105025343</v>
       </c>
       <c r="D41" s="64">
@@ -7915,7 +7807,7 @@
         <v>240</v>
       </c>
       <c r="G41" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>KMH</v>
       </c>
       <c r="H41" s="33" t="s">
@@ -7934,7 +7826,7 @@
         <v>15.4</v>
       </c>
       <c r="M41" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4620</v>
       </c>
       <c r="N41" s="67">
@@ -7962,7 +7854,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433175413</v>
       </c>
       <c r="D42" s="64" t="str">
@@ -7974,7 +7866,7 @@
         <v>39</v>
       </c>
       <c r="G42" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8GA</v>
       </c>
       <c r="H42" s="33" t="s">
@@ -7993,7 +7885,7 @@
         <v>23.24</v>
       </c>
       <c r="M42" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2788.7999999999997</v>
       </c>
       <c r="N42" s="67">
@@ -8021,7 +7913,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F002C40030</v>
       </c>
       <c r="D43" s="64" t="str">
@@ -8033,7 +7925,7 @@
         <v>88</v>
       </c>
       <c r="G43" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41N</v>
       </c>
       <c r="H43" s="33" t="s">
@@ -8052,7 +7944,7 @@
         <v>7.46</v>
       </c>
       <c r="M43" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>895.2</v>
       </c>
       <c r="N43" s="67">
@@ -8080,7 +7972,7 @@
         <v>90</v>
       </c>
       <c r="C44" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F002C40031</v>
       </c>
       <c r="D44" s="64" t="str">
@@ -8092,7 +7984,7 @@
         <v>91</v>
       </c>
       <c r="G44" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41N</v>
       </c>
       <c r="H44" s="33" t="s">
@@ -8111,7 +8003,7 @@
         <v>7.81</v>
       </c>
       <c r="M44" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>937.19999999999993</v>
       </c>
       <c r="N44" s="67">
@@ -8139,7 +8031,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433171806</v>
       </c>
       <c r="D45" s="64" t="s">
@@ -8150,7 +8042,7 @@
         <v>27</v>
       </c>
       <c r="G45" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8GA</v>
       </c>
       <c r="H45" s="33" t="s">
@@ -8169,7 +8061,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="M45" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>829.80000000000007</v>
       </c>
       <c r="N45" s="67">
@@ -8197,7 +8089,7 @@
         <v>379</v>
       </c>
       <c r="C46" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0440050007</v>
       </c>
       <c r="D46" s="64" t="str">
@@ -8207,7 +8099,7 @@
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
       <c r="G46" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>810</v>
       </c>
       <c r="H46" s="40" t="s">
@@ -8224,7 +8116,7 @@
         <v>60</v>
       </c>
       <c r="M46" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
       <c r="N46" s="67">
@@ -8252,7 +8144,7 @@
         <v>383</v>
       </c>
       <c r="C47" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433175484</v>
       </c>
       <c r="D47" s="64" t="s">
@@ -8263,7 +8155,7 @@
         <v>569</v>
       </c>
       <c r="G47" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8GA</v>
       </c>
       <c r="H47" s="33" t="s">
@@ -8282,7 +8174,7 @@
         <v>11.42</v>
       </c>
       <c r="M47" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>411.12</v>
       </c>
       <c r="N47" s="67">
@@ -8310,7 +8202,7 @@
         <v>278</v>
       </c>
       <c r="C48" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2434614020</v>
       </c>
       <c r="D48" s="64" t="s">
@@ -8319,7 +8211,7 @@
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
       <c r="G48" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>770</v>
       </c>
       <c r="H48" s="40" t="s">
@@ -8336,7 +8228,7 @@
         <v>0.32</v>
       </c>
       <c r="M48" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.6</v>
       </c>
       <c r="N48" s="67">
@@ -8364,7 +8256,7 @@
         <v>97</v>
       </c>
       <c r="C49" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F00H4S0008</v>
       </c>
       <c r="D49" s="64" t="s">
@@ -8373,7 +8265,7 @@
       <c r="E49" s="42"/>
       <c r="F49" s="42"/>
       <c r="G49" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>741</v>
       </c>
       <c r="H49" s="40" t="s">
@@ -8392,7 +8284,7 @@
         <v>7.33</v>
       </c>
       <c r="M49" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>219.9</v>
       </c>
       <c r="N49" s="67">
@@ -8420,7 +8312,7 @@
         <v>387</v>
       </c>
       <c r="C50" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F00ZB20001</v>
       </c>
       <c r="D50" s="64" t="s">
@@ -8429,7 +8321,7 @@
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
       <c r="G50" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>741</v>
       </c>
       <c r="H50" s="40" t="s">
@@ -8446,7 +8338,7 @@
         <v>0.74</v>
       </c>
       <c r="M50" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22.2</v>
       </c>
       <c r="N50" s="67">
@@ -8474,7 +8366,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433172080</v>
       </c>
       <c r="D51" s="64" t="str">
@@ -8486,7 +8378,7 @@
         <v>36</v>
       </c>
       <c r="G51" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75N</v>
       </c>
       <c r="H51" s="33" t="s">
@@ -8505,7 +8397,7 @@
         <v>32</v>
       </c>
       <c r="M51" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>768</v>
       </c>
       <c r="N51" s="67">
@@ -8533,7 +8425,7 @@
         <v>263</v>
       </c>
       <c r="C52" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433172221</v>
       </c>
       <c r="D52" s="64" t="s">
@@ -8544,7 +8436,7 @@
         <v>264</v>
       </c>
       <c r="G52" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8GA</v>
       </c>
       <c r="H52" s="33" t="s">
@@ -8563,7 +8455,7 @@
         <v>18.05</v>
       </c>
       <c r="M52" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>433.20000000000005</v>
       </c>
       <c r="N52" s="67">
@@ -8591,7 +8483,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0281006117</v>
       </c>
       <c r="D53" s="64" t="str">
@@ -8601,7 +8493,7 @@
       <c r="E53" s="42"/>
       <c r="F53" s="42"/>
       <c r="G53" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>000</v>
       </c>
       <c r="H53" s="66" t="s">
@@ -8620,7 +8512,7 @@
         <v>21</v>
       </c>
       <c r="M53" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="N53" s="67">
@@ -8648,7 +8540,7 @@
         <v>390</v>
       </c>
       <c r="C54" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F00N210223</v>
       </c>
       <c r="D54" s="64" t="s">
@@ -8657,7 +8549,7 @@
       <c r="E54" s="42"/>
       <c r="F54" s="42"/>
       <c r="G54" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>391</v>
       </c>
       <c r="H54" s="66" t="s">
@@ -8676,7 +8568,7 @@
         <v>67.260000000000005</v>
       </c>
       <c r="M54" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1345.2</v>
       </c>
       <c r="N54" s="67">
@@ -8704,7 +8596,7 @@
         <v>276</v>
       </c>
       <c r="C55" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433171843</v>
       </c>
       <c r="D55" s="64" t="s">
@@ -8715,7 +8607,7 @@
         <v>277</v>
       </c>
       <c r="G55" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8GA</v>
       </c>
       <c r="H55" s="73" t="s">
@@ -8734,7 +8626,7 @@
         <v>28.5</v>
       </c>
       <c r="M55" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>342</v>
       </c>
       <c r="N55" s="67">
@@ -8762,7 +8654,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433171871</v>
       </c>
       <c r="D56" s="64" t="str">
@@ -8774,7 +8666,7 @@
         <v>30</v>
       </c>
       <c r="G56" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75N</v>
       </c>
       <c r="H56" s="73" t="s">
@@ -8793,7 +8685,7 @@
         <v>27.62</v>
       </c>
       <c r="M56" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>331.44</v>
       </c>
       <c r="N56" s="67">
@@ -8821,7 +8713,7 @@
         <v>392</v>
       </c>
       <c r="C57" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433171875</v>
       </c>
       <c r="D57" s="64" t="s">
@@ -8832,7 +8724,7 @@
         <v>574</v>
       </c>
       <c r="G57" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8GA</v>
       </c>
       <c r="H57" s="73" t="s">
@@ -8851,7 +8743,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="M57" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>110.64000000000001</v>
       </c>
       <c r="N57" s="67">
@@ -8879,7 +8771,7 @@
         <v>32</v>
       </c>
       <c r="C58" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433171982</v>
       </c>
       <c r="D58" s="64" t="str">
@@ -8891,7 +8783,7 @@
         <v>575</v>
       </c>
       <c r="G58" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4N6</v>
       </c>
       <c r="H58" s="73" t="s">
@@ -8910,7 +8802,7 @@
         <v>27.5</v>
       </c>
       <c r="M58" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="N58" s="67">
@@ -8938,7 +8830,7 @@
         <v>393</v>
       </c>
       <c r="C59" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433171984</v>
       </c>
       <c r="D59" s="64" t="s">
@@ -8949,7 +8841,7 @@
         <v>577</v>
       </c>
       <c r="G59" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75N</v>
       </c>
       <c r="H59" s="73" t="s">
@@ -8968,7 +8860,7 @@
         <v>30.72</v>
       </c>
       <c r="M59" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>368.64</v>
       </c>
       <c r="N59" s="67">
@@ -8996,7 +8888,7 @@
         <v>85</v>
       </c>
       <c r="C60" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F002B70044</v>
       </c>
       <c r="D60" s="64" t="s">
@@ -9005,7 +8897,7 @@
       <c r="E60" s="42"/>
       <c r="F60" s="165"/>
       <c r="G60" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41N</v>
       </c>
       <c r="H60" s="80" t="s">
@@ -9024,7 +8916,7 @@
         <v>2.5</v>
       </c>
       <c r="M60" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="N60" s="67">
@@ -9052,7 +8944,7 @@
         <v>109</v>
       </c>
       <c r="C61" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F00RJ01727</v>
       </c>
       <c r="D61" s="64" t="str">
@@ -9062,7 +8954,7 @@
       <c r="E61" s="42"/>
       <c r="F61" s="42"/>
       <c r="G61" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>879</v>
       </c>
       <c r="H61" s="81" t="s">
@@ -9081,7 +8973,7 @@
         <v>23.74</v>
       </c>
       <c r="M61" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>284.88</v>
       </c>
       <c r="N61" s="67">
@@ -9109,7 +9001,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F00RJ02213</v>
       </c>
       <c r="D62" s="64" t="str">
@@ -9119,7 +9011,7 @@
       <c r="E62" s="42"/>
       <c r="F62" s="42"/>
       <c r="G62" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>751</v>
       </c>
       <c r="H62" s="81" t="s">
@@ -9138,7 +9030,7 @@
         <v>39</v>
       </c>
       <c r="M62" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>468</v>
       </c>
       <c r="N62" s="67">
@@ -9166,7 +9058,7 @@
         <v>120</v>
       </c>
       <c r="C63" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F00VC01352</v>
       </c>
       <c r="D63" s="64" t="str">
@@ -9176,7 +9068,7 @@
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
       <c r="G63" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>770</v>
       </c>
       <c r="H63" s="81" t="s">
@@ -9195,7 +9087,7 @@
         <v>27</v>
       </c>
       <c r="M63" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
       <c r="N63" s="67">
@@ -9223,7 +9115,7 @@
         <v>125</v>
       </c>
       <c r="C64" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F018B06804</v>
       </c>
       <c r="D64" s="64" t="s">
@@ -9232,7 +9124,7 @@
       <c r="E64" s="42"/>
       <c r="F64" s="42"/>
       <c r="G64" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>741</v>
       </c>
       <c r="H64" s="66" t="s">
@@ -9251,7 +9143,7 @@
         <v>8.93</v>
       </c>
       <c r="M64" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>107.16</v>
       </c>
       <c r="N64" s="67">
@@ -9279,7 +9171,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0281002942</v>
       </c>
       <c r="D65" s="64" t="str">
@@ -9289,7 +9181,7 @@
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
       <c r="G65" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>001</v>
       </c>
       <c r="H65" s="66" t="s">
@@ -9308,7 +9200,7 @@
         <v>22.11</v>
       </c>
       <c r="M65" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>221.1</v>
       </c>
       <c r="N65" s="67">
@@ -9336,7 +9228,7 @@
         <v>93</v>
       </c>
       <c r="C66" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F002H23520</v>
       </c>
       <c r="D66" s="64" t="s">
@@ -9345,7 +9237,7 @@
       <c r="E66" s="42"/>
       <c r="F66" s="42"/>
       <c r="G66" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>772</v>
       </c>
       <c r="H66" s="66" t="s">
@@ -9364,7 +9256,7 @@
         <v>3.36</v>
       </c>
       <c r="M66" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33.6</v>
       </c>
       <c r="N66" s="67">
@@ -9392,7 +9284,7 @@
         <v>101</v>
       </c>
       <c r="C67" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F00N010001</v>
       </c>
       <c r="D67" s="64" t="str">
@@ -9402,7 +9294,7 @@
       <c r="E67" s="42"/>
       <c r="F67" s="42"/>
       <c r="G67" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>390</v>
       </c>
       <c r="H67" s="80" t="s">
@@ -9421,7 +9313,7 @@
         <v>16.16</v>
       </c>
       <c r="M67" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>161.6</v>
       </c>
       <c r="N67" s="67">
@@ -9449,7 +9341,7 @@
         <v>274</v>
       </c>
       <c r="C68" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0433172040</v>
       </c>
       <c r="D68" s="64" t="s">
@@ -9460,7 +9352,7 @@
         <v>275</v>
       </c>
       <c r="G68" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8GA</v>
       </c>
       <c r="H68" s="73" t="s">
@@ -9479,7 +9371,7 @@
         <v>28.38</v>
       </c>
       <c r="M68" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>170.28</v>
       </c>
       <c r="N68" s="67">
@@ -9507,7 +9399,7 @@
         <v>396</v>
       </c>
       <c r="C69" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0445120265</v>
       </c>
       <c r="D69" s="64" t="s">
@@ -9516,7 +9408,7 @@
       <c r="E69" s="42"/>
       <c r="F69" s="42"/>
       <c r="G69" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>879</v>
       </c>
       <c r="H69" s="66" t="s">
@@ -9535,7 +9427,7 @@
         <v>100</v>
       </c>
       <c r="M69" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="N69" s="67">
@@ -9563,7 +9455,7 @@
         <v>113</v>
       </c>
       <c r="C70" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F00RJ01941</v>
       </c>
       <c r="D70" s="64" t="str">
@@ -9573,7 +9465,7 @@
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
       <c r="G70" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>751</v>
       </c>
       <c r="H70" s="73" t="s">
@@ -9592,7 +9484,7 @@
         <v>27</v>
       </c>
       <c r="M70" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
       <c r="N70" s="67">
@@ -9620,7 +9512,7 @@
         <v>267</v>
       </c>
       <c r="C71" s="64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F00RJ02035</v>
       </c>
       <c r="D71" s="64" t="s">
@@ -9629,7 +9521,7 @@
       <c r="E71" s="42"/>
       <c r="F71" s="42"/>
       <c r="G71" s="65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>879</v>
       </c>
       <c r="H71" s="73" t="s">
@@ -9648,7 +9540,7 @@
         <v>21.5</v>
       </c>
       <c r="M71" s="280">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="N71" s="67">
@@ -9676,7 +9568,7 @@
         <v>399</v>
       </c>
       <c r="C72" s="64" t="str">
-        <f t="shared" ref="C72:C135" si="4">LEFT(B72,10)</f>
+        <f t="shared" ref="C72:C135" si="5">LEFT(B72,10)</f>
         <v>F00RJ02130</v>
       </c>
       <c r="D72" s="64" t="s">
@@ -9685,7 +9577,7 @@
       <c r="E72" s="42"/>
       <c r="F72" s="42"/>
       <c r="G72" s="65" t="str">
-        <f t="shared" ref="G72:G135" si="5">RIGHT(B72,3)</f>
+        <f t="shared" ref="G72:G135" si="6">RIGHT(B72,3)</f>
         <v>751</v>
       </c>
       <c r="H72" s="81" t="s">
@@ -9704,7 +9596,7 @@
         <v>28.67</v>
       </c>
       <c r="M72" s="280">
-        <f t="shared" ref="M72:M135" si="6">L72*K72</f>
+        <f t="shared" si="4"/>
         <v>172.02</v>
       </c>
       <c r="N72" s="67">
@@ -9732,7 +9624,7 @@
         <v>118</v>
       </c>
       <c r="C73" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F00VC01033</v>
       </c>
       <c r="D73" s="64" t="str">
@@ -9742,7 +9634,7 @@
       <c r="E73" s="42"/>
       <c r="F73" s="42"/>
       <c r="G73" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>770</v>
       </c>
       <c r="H73" s="73" t="s">
@@ -9761,7 +9653,7 @@
         <v>25.49</v>
       </c>
       <c r="M73" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>152.94</v>
       </c>
       <c r="N73" s="67">
@@ -9789,7 +9681,7 @@
         <v>105</v>
       </c>
       <c r="C74" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F00N210061</v>
       </c>
       <c r="D74" s="64" t="s">
@@ -9798,7 +9690,7 @@
       <c r="E74" s="42"/>
       <c r="F74" s="42"/>
       <c r="G74" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>000</v>
       </c>
       <c r="H74" s="40" t="s">
@@ -9817,7 +9709,7 @@
         <v>29.86</v>
       </c>
       <c r="M74" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>149.30000000000001</v>
       </c>
       <c r="N74" s="67">
@@ -9845,7 +9737,7 @@
         <v>135</v>
       </c>
       <c r="C75" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105007121</v>
       </c>
       <c r="D75" s="64">
@@ -9858,7 +9750,7 @@
         <v>136</v>
       </c>
       <c r="G75" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H75" s="40" t="s">
@@ -9877,7 +9769,7 @@
         <v>5.15</v>
       </c>
       <c r="M75" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1297.8000000000002</v>
       </c>
       <c r="N75" s="67">
@@ -9905,7 +9797,7 @@
         <v>255</v>
       </c>
       <c r="C76" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9413610953</v>
       </c>
       <c r="D76" s="82">
@@ -9918,7 +9810,7 @@
         <v>256</v>
       </c>
       <c r="G76" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3CA</v>
       </c>
       <c r="H76" s="66" t="s">
@@ -9937,7 +9829,7 @@
         <v>15.5</v>
       </c>
       <c r="M76" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>372</v>
       </c>
       <c r="N76" s="67">
@@ -9965,7 +9857,7 @@
         <v>129</v>
       </c>
       <c r="C77" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F01G0V5000</v>
       </c>
       <c r="D77" s="64" t="str">
@@ -9977,7 +9869,7 @@
         <v>130</v>
       </c>
       <c r="G77" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H77" s="40" t="s">
@@ -9996,7 +9888,7 @@
         <v>12.384</v>
       </c>
       <c r="M77" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>297.21600000000001</v>
       </c>
       <c r="N77" s="67">
@@ -10024,7 +9916,7 @@
         <v>401</v>
       </c>
       <c r="C78" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105017014</v>
       </c>
       <c r="D78" s="64" t="s">
@@ -10037,7 +9929,7 @@
         <v>583</v>
       </c>
       <c r="G78" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H78" s="40" t="s">
@@ -10056,7 +9948,7 @@
         <v>16.758000000000003</v>
       </c>
       <c r="M78" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>402.19200000000006</v>
       </c>
       <c r="N78" s="67">
@@ -10084,7 +9976,7 @@
         <v>402</v>
       </c>
       <c r="C79" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105017104</v>
       </c>
       <c r="D79" s="83" t="s">
@@ -10097,7 +9989,7 @@
         <v>586</v>
       </c>
       <c r="G79" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H79" s="40" t="s">
@@ -10116,7 +10008,7 @@
         <v>18.95</v>
       </c>
       <c r="M79" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>454.79999999999995</v>
       </c>
       <c r="N79" s="67">
@@ -10144,7 +10036,7 @@
         <v>272</v>
       </c>
       <c r="C80" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025099</v>
       </c>
       <c r="D80" s="83" t="s">
@@ -10157,7 +10049,7 @@
         <v>273</v>
       </c>
       <c r="G80" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H80" s="40" t="s">
@@ -10176,7 +10068,7 @@
         <v>14.544</v>
       </c>
       <c r="M80" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>349.05600000000004</v>
       </c>
       <c r="N80" s="67">
@@ -10204,7 +10096,7 @@
         <v>403</v>
       </c>
       <c r="C81" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9413610102</v>
       </c>
       <c r="D81" s="83">
@@ -10217,7 +10109,7 @@
         <v>588</v>
       </c>
       <c r="G81" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3YL</v>
       </c>
       <c r="H81" s="40" t="s">
@@ -10236,7 +10128,7 @@
         <v>13.45</v>
       </c>
       <c r="M81" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>161.39999999999998</v>
       </c>
       <c r="N81" s="67">
@@ -10264,7 +10156,7 @@
         <v>14</v>
       </c>
       <c r="C82" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0433171329</v>
       </c>
       <c r="D82" s="64" t="str">
@@ -10276,7 +10168,7 @@
         <v>15</v>
       </c>
       <c r="G82" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8GA</v>
       </c>
       <c r="H82" s="40" t="s">
@@ -10295,7 +10187,7 @@
         <v>19.385999999999999</v>
       </c>
       <c r="M82" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>232.63200000000001</v>
       </c>
       <c r="N82" s="67">
@@ -10323,7 +10215,7 @@
         <v>270</v>
       </c>
       <c r="C83" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0433171478</v>
       </c>
       <c r="D83" s="83" t="s">
@@ -10334,7 +10226,7 @@
         <v>271</v>
       </c>
       <c r="G83" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8GA</v>
       </c>
       <c r="H83" s="40" t="s">
@@ -10353,7 +10245,7 @@
         <v>13.157999999999999</v>
       </c>
       <c r="M83" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M83:M146" si="8">L83*K83</f>
         <v>157.89599999999999</v>
       </c>
       <c r="N83" s="67">
@@ -10381,7 +10273,7 @@
         <v>19</v>
       </c>
       <c r="C84" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0433171529</v>
       </c>
       <c r="D84" s="83" t="s">
@@ -10392,7 +10284,7 @@
         <v>20</v>
       </c>
       <c r="G84" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8GA</v>
       </c>
       <c r="H84" s="40" t="s">
@@ -10411,7 +10303,7 @@
         <v>11.664000000000001</v>
       </c>
       <c r="M84" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>139.96800000000002</v>
       </c>
       <c r="N84" s="67">
@@ -10439,7 +10331,7 @@
         <v>148</v>
       </c>
       <c r="C85" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105015485</v>
       </c>
       <c r="D85" s="83" t="s">
@@ -10452,7 +10344,7 @@
         <v>149</v>
       </c>
       <c r="G85" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H85" s="40" t="s">
@@ -10471,7 +10363,7 @@
         <v>11.808</v>
       </c>
       <c r="M85" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>141.696</v>
       </c>
       <c r="N85" s="67">
@@ -10499,7 +10391,7 @@
         <v>152</v>
       </c>
       <c r="C86" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105015538</v>
       </c>
       <c r="D86" s="83" t="s">
@@ -10512,7 +10404,7 @@
         <v>153</v>
       </c>
       <c r="G86" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H86" s="40" t="s">
@@ -10531,7 +10423,7 @@
         <v>15.408000000000001</v>
       </c>
       <c r="M86" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>184.89600000000002</v>
       </c>
       <c r="N86" s="67">
@@ -10559,7 +10451,7 @@
         <v>159</v>
       </c>
       <c r="C87" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105015595</v>
       </c>
       <c r="D87" s="64">
@@ -10572,7 +10464,7 @@
         <v>160</v>
       </c>
       <c r="G87" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H87" s="40" t="s">
@@ -10591,7 +10483,7 @@
         <v>12.528</v>
       </c>
       <c r="M87" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>150.33600000000001</v>
       </c>
       <c r="N87" s="67">
@@ -10619,7 +10511,7 @@
         <v>168</v>
       </c>
       <c r="C88" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105015829</v>
       </c>
       <c r="D88" s="64">
@@ -10632,7 +10524,7 @@
         <v>169</v>
       </c>
       <c r="G88" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H88" s="40" t="s">
@@ -10651,7 +10543,7 @@
         <v>22.95</v>
       </c>
       <c r="M88" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>275.39999999999998</v>
       </c>
       <c r="N88" s="67">
@@ -10679,7 +10571,7 @@
         <v>177</v>
       </c>
       <c r="C89" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105015878</v>
       </c>
       <c r="D89" s="63">
@@ -10692,7 +10584,7 @@
         <v>178</v>
       </c>
       <c r="G89" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H89" s="66" t="s">
@@ -10711,7 +10603,7 @@
         <v>14.202</v>
       </c>
       <c r="M89" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>170.42400000000001</v>
       </c>
       <c r="N89" s="67">
@@ -10739,7 +10631,7 @@
         <v>180</v>
       </c>
       <c r="C90" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105015892</v>
       </c>
       <c r="D90" s="64">
@@ -10752,7 +10644,7 @@
         <v>181</v>
       </c>
       <c r="G90" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H90" s="66" t="s">
@@ -10771,7 +10663,7 @@
         <v>16.940000000000001</v>
       </c>
       <c r="M90" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>203.28000000000003</v>
       </c>
       <c r="N90" s="67">
@@ -10799,7 +10691,7 @@
         <v>186</v>
       </c>
       <c r="C91" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105017042</v>
       </c>
       <c r="D91" s="64">
@@ -10812,7 +10704,7 @@
         <v>187</v>
       </c>
       <c r="G91" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H91" s="66" t="s">
@@ -10831,7 +10723,7 @@
         <v>11.835000000000001</v>
       </c>
       <c r="M91" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>142.02000000000001</v>
       </c>
       <c r="N91" s="67">
@@ -10859,7 +10751,7 @@
         <v>404</v>
       </c>
       <c r="C92" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105017049</v>
       </c>
       <c r="D92" s="83">
@@ -10872,7 +10764,7 @@
         <v>590</v>
       </c>
       <c r="G92" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H92" s="66" t="s">
@@ -10891,7 +10783,7 @@
         <v>14.921999999999999</v>
       </c>
       <c r="M92" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>179.06399999999999</v>
       </c>
       <c r="N92" s="67">
@@ -10919,7 +10811,7 @@
         <v>405</v>
       </c>
       <c r="C93" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105017088</v>
       </c>
       <c r="D93" s="83" t="s">
@@ -10932,7 +10824,7 @@
         <v>593</v>
       </c>
       <c r="G93" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H93" s="66" t="s">
@@ -10951,7 +10843,7 @@
         <v>16.470000000000002</v>
       </c>
       <c r="M93" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>197.64000000000004</v>
       </c>
       <c r="N93" s="67">
@@ -10979,7 +10871,7 @@
         <v>192</v>
       </c>
       <c r="C94" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105017154</v>
       </c>
       <c r="D94" s="64">
@@ -10992,7 +10884,7 @@
         <v>193</v>
       </c>
       <c r="G94" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H94" s="66" t="s">
@@ -11011,7 +10903,7 @@
         <v>13.995000000000001</v>
       </c>
       <c r="M94" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>167.94</v>
       </c>
       <c r="N94" s="67">
@@ -11039,7 +10931,7 @@
         <v>406</v>
       </c>
       <c r="C95" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105017203</v>
       </c>
       <c r="D95" s="83">
@@ -11052,7 +10944,7 @@
         <v>595</v>
       </c>
       <c r="G95" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H95" s="40" t="s">
@@ -11071,7 +10963,7 @@
         <v>11.574</v>
       </c>
       <c r="M95" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>138.88800000000001</v>
       </c>
       <c r="N95" s="67">
@@ -11099,7 +10991,7 @@
         <v>195</v>
       </c>
       <c r="C96" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105017238</v>
       </c>
       <c r="D96" s="64">
@@ -11112,7 +11004,7 @@
         <v>196</v>
       </c>
       <c r="G96" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H96" s="66" t="s">
@@ -11131,7 +11023,7 @@
         <v>11.376000000000001</v>
       </c>
       <c r="M96" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>136.512</v>
       </c>
       <c r="N96" s="67">
@@ -11159,7 +11051,7 @@
         <v>210</v>
       </c>
       <c r="C97" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025080</v>
       </c>
       <c r="D97" s="64">
@@ -11172,7 +11064,7 @@
         <v>211</v>
       </c>
       <c r="G97" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H97" s="40" t="s">
@@ -11191,7 +11083,7 @@
         <v>22.841999999999999</v>
       </c>
       <c r="M97" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>274.10399999999998</v>
       </c>
       <c r="N97" s="67">
@@ -11219,7 +11111,7 @@
         <v>216</v>
       </c>
       <c r="C98" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025190</v>
       </c>
       <c r="D98" s="64">
@@ -11232,7 +11124,7 @@
         <v>217</v>
       </c>
       <c r="G98" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H98" s="66" t="s">
@@ -11251,7 +11143,7 @@
         <v>15.61</v>
       </c>
       <c r="M98" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>187.32</v>
       </c>
       <c r="N98" s="67">
@@ -11279,7 +11171,7 @@
         <v>257</v>
       </c>
       <c r="C99" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025328</v>
       </c>
       <c r="D99" s="64">
@@ -11292,7 +11184,7 @@
         <v>258</v>
       </c>
       <c r="G99" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H99" s="66" t="s">
@@ -11311,7 +11203,7 @@
         <v>17.334000000000003</v>
       </c>
       <c r="M99" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>208.00800000000004</v>
       </c>
       <c r="N99" s="67">
@@ -11339,7 +11231,7 @@
         <v>235</v>
       </c>
       <c r="C100" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025329</v>
       </c>
       <c r="D100" s="64">
@@ -11352,7 +11244,7 @@
         <v>236</v>
       </c>
       <c r="G100" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H100" s="40" t="s">
@@ -11371,7 +11263,7 @@
         <v>15.67</v>
       </c>
       <c r="M100" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>188.04</v>
       </c>
       <c r="N100" s="67">
@@ -11399,7 +11291,7 @@
         <v>122</v>
       </c>
       <c r="C101" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F00VC01359</v>
       </c>
       <c r="D101" s="64" t="str">
@@ -11409,7 +11301,7 @@
       <c r="E101" s="42"/>
       <c r="F101" s="42"/>
       <c r="G101" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>770</v>
       </c>
       <c r="H101" s="33" t="s">
@@ -11428,7 +11320,7 @@
         <v>18.5</v>
       </c>
       <c r="M101" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4440</v>
       </c>
       <c r="N101" s="67">
@@ -11456,7 +11348,7 @@
         <v>145</v>
       </c>
       <c r="C102" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105015419</v>
       </c>
       <c r="D102" s="64">
@@ -11469,7 +11361,7 @@
         <v>146</v>
       </c>
       <c r="G102" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H102" s="73" t="s">
@@ -11488,7 +11380,7 @@
         <v>13.44</v>
       </c>
       <c r="M102" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>483.84</v>
       </c>
       <c r="N102" s="67">
@@ -11516,7 +11408,7 @@
         <v>207</v>
       </c>
       <c r="C103" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025029</v>
       </c>
       <c r="D103" s="64">
@@ -11529,7 +11421,7 @@
         <v>208</v>
       </c>
       <c r="G103" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H103" s="73" t="s">
@@ -11548,7 +11440,7 @@
         <v>17.73</v>
       </c>
       <c r="M103" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>638.28</v>
       </c>
       <c r="N103" s="67">
@@ -11576,7 +11468,7 @@
         <v>403</v>
       </c>
       <c r="C104" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9413610102</v>
       </c>
       <c r="D104" s="64">
@@ -11589,7 +11481,7 @@
         <v>588</v>
       </c>
       <c r="G104" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3YL</v>
       </c>
       <c r="H104" s="66" t="s">
@@ -11608,7 +11500,7 @@
         <v>13.45</v>
       </c>
       <c r="M104" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>322.79999999999995</v>
       </c>
       <c r="N104" s="67">
@@ -11636,7 +11528,7 @@
         <v>255</v>
       </c>
       <c r="C105" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9413610953</v>
       </c>
       <c r="D105" s="87">
@@ -11649,7 +11541,7 @@
         <v>256</v>
       </c>
       <c r="G105" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3CA</v>
       </c>
       <c r="H105" s="40" t="s">
@@ -11668,7 +11560,7 @@
         <v>15.5</v>
       </c>
       <c r="M105" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>372</v>
       </c>
       <c r="N105" s="67">
@@ -11696,7 +11588,7 @@
         <v>47</v>
       </c>
       <c r="C106" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9413610013</v>
       </c>
       <c r="D106" s="87">
@@ -11709,7 +11601,7 @@
         <v>48</v>
       </c>
       <c r="G106" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3YL</v>
       </c>
       <c r="H106" s="66" t="s">
@@ -11728,7 +11620,7 @@
         <v>15.42</v>
       </c>
       <c r="M106" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>370.08</v>
       </c>
       <c r="N106" s="67">
@@ -11756,7 +11648,7 @@
         <v>61</v>
       </c>
       <c r="C107" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9443610210</v>
       </c>
       <c r="D107" s="64">
@@ -11769,7 +11661,7 @@
         <v>62</v>
       </c>
       <c r="G107" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3YL</v>
       </c>
       <c r="H107" s="66" t="s">
@@ -11788,7 +11680,7 @@
         <v>15.07</v>
       </c>
       <c r="M107" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>180.84</v>
       </c>
       <c r="N107" s="67">
@@ -11816,7 +11708,7 @@
         <v>69</v>
       </c>
       <c r="C108" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9443610373</v>
       </c>
       <c r="D108" s="64">
@@ -11829,7 +11721,7 @@
         <v>70</v>
       </c>
       <c r="G108" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3YL</v>
       </c>
       <c r="H108" s="66" t="s">
@@ -11848,7 +11740,7 @@
         <v>13.47</v>
       </c>
       <c r="M108" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>161.64000000000001</v>
       </c>
       <c r="N108" s="67">
@@ -11876,7 +11768,7 @@
         <v>409</v>
       </c>
       <c r="C109" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0432191285</v>
       </c>
       <c r="D109" s="88" t="s">
@@ -11885,7 +11777,7 @@
       <c r="E109" s="42"/>
       <c r="F109" s="42"/>
       <c r="G109" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>741</v>
       </c>
       <c r="H109" s="66" t="s">
@@ -11902,7 +11794,7 @@
         <v>43.86</v>
       </c>
       <c r="M109" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>526.31999999999994</v>
       </c>
       <c r="N109" s="67">
@@ -11930,7 +11822,7 @@
         <v>198</v>
       </c>
       <c r="C110" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105017259</v>
       </c>
       <c r="D110" s="64">
@@ -11943,7 +11835,7 @@
         <v>199</v>
       </c>
       <c r="G110" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H110" s="66" t="s">
@@ -11962,7 +11854,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="M110" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>109.44</v>
       </c>
       <c r="N110" s="67">
@@ -11990,7 +11882,7 @@
         <v>263</v>
       </c>
       <c r="C111" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0433172221</v>
       </c>
       <c r="D111" s="64" t="s">
@@ -12001,7 +11893,7 @@
         <v>264</v>
       </c>
       <c r="G111" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8GA</v>
       </c>
       <c r="H111" s="66" t="s">
@@ -12020,7 +11912,7 @@
         <v>18.05</v>
       </c>
       <c r="M111" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>866.40000000000009</v>
       </c>
       <c r="N111" s="67">
@@ -12048,7 +11940,7 @@
         <v>412</v>
       </c>
       <c r="C112" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0433175269</v>
       </c>
       <c r="D112" s="83" t="s">
@@ -12059,7 +11951,7 @@
         <v>598</v>
       </c>
       <c r="G112" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41N</v>
       </c>
       <c r="H112" s="66" t="s">
@@ -12078,7 +11970,7 @@
         <v>24.64</v>
       </c>
       <c r="M112" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>591.36</v>
       </c>
       <c r="N112" s="67">
@@ -12106,7 +11998,7 @@
         <v>41</v>
       </c>
       <c r="C113" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0433175414</v>
       </c>
       <c r="D113" s="64" t="str">
@@ -12118,7 +12010,7 @@
         <v>42</v>
       </c>
       <c r="G113" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8GA</v>
       </c>
       <c r="H113" s="66" t="s">
@@ -12137,7 +12029,7 @@
         <v>23.24</v>
       </c>
       <c r="M113" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2788.7999999999997</v>
       </c>
       <c r="N113" s="67">
@@ -12165,7 +12057,7 @@
         <v>239</v>
       </c>
       <c r="C114" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025343</v>
       </c>
       <c r="D114" s="64" t="str">
@@ -12179,7 +12071,7 @@
         <v>240</v>
       </c>
       <c r="G114" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H114" s="66" t="s">
@@ -12198,7 +12090,7 @@
         <v>15.4</v>
       </c>
       <c r="M114" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1848</v>
       </c>
       <c r="N114" s="67">
@@ -12226,7 +12118,7 @@
         <v>263</v>
       </c>
       <c r="C115" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0433172221</v>
       </c>
       <c r="D115" s="83" t="s">
@@ -12237,7 +12129,7 @@
         <v>264</v>
       </c>
       <c r="G115" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8GA</v>
       </c>
       <c r="H115" s="66" t="s">
@@ -12256,7 +12148,7 @@
         <v>18.05</v>
       </c>
       <c r="M115" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>433.20000000000005</v>
       </c>
       <c r="N115" s="67">
@@ -12284,7 +12176,7 @@
         <v>109</v>
       </c>
       <c r="C116" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F00RJ01727</v>
       </c>
       <c r="D116" s="64" t="str">
@@ -12294,7 +12186,7 @@
       <c r="E116" s="42"/>
       <c r="F116" s="85"/>
       <c r="G116" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>879</v>
       </c>
       <c r="H116" s="81" t="s">
@@ -12313,7 +12205,7 @@
         <v>23.74</v>
       </c>
       <c r="M116" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>284.88</v>
       </c>
       <c r="N116" s="67">
@@ -12341,7 +12233,7 @@
         <v>113</v>
       </c>
       <c r="C117" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F00RJ01941</v>
       </c>
       <c r="D117" s="64" t="str">
@@ -12351,7 +12243,7 @@
       <c r="E117" s="42"/>
       <c r="F117" s="85"/>
       <c r="G117" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>751</v>
       </c>
       <c r="H117" s="81" t="s">
@@ -12370,7 +12262,7 @@
         <v>27</v>
       </c>
       <c r="M117" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>324</v>
       </c>
       <c r="N117" s="67">
@@ -12398,7 +12290,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>F00RJ02213</v>
       </c>
       <c r="D118" s="64" t="str">
@@ -12408,7 +12300,7 @@
       <c r="E118" s="42"/>
       <c r="F118" s="85"/>
       <c r="G118" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>751</v>
       </c>
       <c r="H118" s="81" t="s">
@@ -12427,7 +12319,7 @@
         <v>39</v>
       </c>
       <c r="M118" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>468</v>
       </c>
       <c r="N118" s="67">
@@ -12455,7 +12347,7 @@
         <v>22</v>
       </c>
       <c r="C119" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0433171743</v>
       </c>
       <c r="D119" s="64" t="str">
@@ -12467,7 +12359,7 @@
         <v>23</v>
       </c>
       <c r="G119" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8GA</v>
       </c>
       <c r="H119" s="66" t="s">
@@ -12486,7 +12378,7 @@
         <v>17.86</v>
       </c>
       <c r="M119" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>642.96</v>
       </c>
       <c r="N119" s="67">
@@ -12514,7 +12406,7 @@
         <v>417</v>
       </c>
       <c r="C120" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025018</v>
       </c>
       <c r="D120" s="83">
@@ -12527,7 +12419,7 @@
         <v>600</v>
       </c>
       <c r="G120" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H120" s="92" t="s">
@@ -12546,7 +12438,7 @@
         <v>14.94</v>
       </c>
       <c r="M120" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>358.56</v>
       </c>
       <c r="N120" s="67">
@@ -12574,7 +12466,7 @@
         <v>418</v>
       </c>
       <c r="C121" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0433171208</v>
       </c>
       <c r="D121" s="83" t="s">
@@ -12585,7 +12477,7 @@
         <v>602</v>
       </c>
       <c r="G121" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8GA</v>
       </c>
       <c r="H121" s="92" t="s">
@@ -12604,7 +12496,7 @@
         <v>11.94</v>
       </c>
       <c r="M121" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>143.28</v>
       </c>
       <c r="N121" s="67">
@@ -12632,7 +12524,7 @@
         <v>265</v>
       </c>
       <c r="C122" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0433171444</v>
       </c>
       <c r="D122" s="83" t="s">
@@ -12643,7 +12535,7 @@
         <v>266</v>
       </c>
       <c r="G122" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8GA</v>
       </c>
       <c r="H122" s="92" t="s">
@@ -12662,7 +12554,7 @@
         <v>18.88</v>
       </c>
       <c r="M122" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>226.56</v>
       </c>
       <c r="N122" s="67">
@@ -12690,7 +12582,7 @@
         <v>81</v>
       </c>
       <c r="C123" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9443611853</v>
       </c>
       <c r="D123" s="64">
@@ -12703,7 +12595,7 @@
         <v>82</v>
       </c>
       <c r="G123" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3YL</v>
       </c>
       <c r="H123" s="66" t="s">
@@ -12722,7 +12614,7 @@
         <v>21.41</v>
       </c>
       <c r="M123" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>256.92</v>
       </c>
       <c r="N123" s="67">
@@ -12750,7 +12642,7 @@
         <v>162</v>
       </c>
       <c r="C124" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105015615</v>
       </c>
       <c r="D124" s="64">
@@ -12763,7 +12655,7 @@
         <v>163</v>
       </c>
       <c r="G124" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H124" s="92" t="s">
@@ -12782,7 +12674,7 @@
         <v>15.26</v>
       </c>
       <c r="M124" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>183.12</v>
       </c>
       <c r="N124" s="67">
@@ -12810,7 +12702,7 @@
         <v>204</v>
       </c>
       <c r="C125" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025021</v>
       </c>
       <c r="D125" s="64">
@@ -12823,7 +12715,7 @@
         <v>205</v>
       </c>
       <c r="G125" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H125" s="92" t="s">
@@ -12842,7 +12734,7 @@
         <v>20.03</v>
       </c>
       <c r="M125" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>240.36</v>
       </c>
       <c r="N125" s="67">
@@ -12870,7 +12762,7 @@
         <v>242</v>
       </c>
       <c r="C126" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025400</v>
       </c>
       <c r="D126" s="64">
@@ -12883,7 +12775,7 @@
         <v>243</v>
       </c>
       <c r="G126" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H126" s="92" t="s">
@@ -12902,7 +12794,7 @@
         <v>15.65</v>
       </c>
       <c r="M126" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>187.8</v>
       </c>
       <c r="N126" s="67">
@@ -12930,7 +12822,7 @@
         <v>245</v>
       </c>
       <c r="C127" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025420</v>
       </c>
       <c r="D127" s="64">
@@ -12943,7 +12835,7 @@
         <v>246</v>
       </c>
       <c r="G127" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H127" s="95" t="s">
@@ -12962,7 +12854,7 @@
         <v>19.39</v>
       </c>
       <c r="M127" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>232.68</v>
       </c>
       <c r="N127" s="67">
@@ -12990,7 +12882,7 @@
         <v>41</v>
       </c>
       <c r="C128" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0433175414</v>
       </c>
       <c r="D128" s="64" t="str">
@@ -13002,7 +12894,7 @@
         <v>42</v>
       </c>
       <c r="G128" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8GA</v>
       </c>
       <c r="H128" s="95" t="s">
@@ -13021,7 +12913,7 @@
         <v>23.24</v>
       </c>
       <c r="M128" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2788.7999999999997</v>
       </c>
       <c r="N128" s="67">
@@ -13049,7 +12941,7 @@
         <v>239</v>
       </c>
       <c r="C129" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105025343</v>
       </c>
       <c r="D129" s="64">
@@ -13062,7 +12954,7 @@
         <v>240</v>
       </c>
       <c r="G129" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H129" s="95" t="s">
@@ -13081,7 +12973,7 @@
         <v>15.4</v>
       </c>
       <c r="M129" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1848</v>
       </c>
       <c r="N129" s="67">
@@ -13109,7 +13001,7 @@
         <v>44</v>
       </c>
       <c r="C130" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0445020126</v>
       </c>
       <c r="D130" s="64" t="str">
@@ -13119,7 +13011,7 @@
       <c r="E130" s="42"/>
       <c r="F130" s="42"/>
       <c r="G130" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
       <c r="H130" s="40" t="s">
@@ -13138,7 +13030,7 @@
         <v>920</v>
       </c>
       <c r="M130" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16560</v>
       </c>
       <c r="N130" s="67">
@@ -13166,7 +13058,7 @@
         <v>255</v>
       </c>
       <c r="C131" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9413610953</v>
       </c>
       <c r="D131" s="83" t="s">
@@ -13179,7 +13071,7 @@
         <v>256</v>
       </c>
       <c r="G131" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3CA</v>
       </c>
       <c r="H131" s="40" t="s">
@@ -13198,7 +13090,7 @@
         <v>15.5</v>
       </c>
       <c r="M131" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>372</v>
       </c>
       <c r="N131" s="67">
@@ -13209,7 +13101,7 @@
         <v>418887.50000000006</v>
       </c>
       <c r="P131" s="93">
-        <f t="shared" ref="P131:P137" si="8">ROUND(L131*1.15*23500/0.85,-4)</f>
+        <f t="shared" ref="P131:P137" si="9">ROUND(L131*1.15*23500/0.85,-4)</f>
         <v>490000</v>
       </c>
       <c r="Q131" s="31"/>
@@ -13229,7 +13121,7 @@
         <v>195</v>
       </c>
       <c r="C132" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105017238</v>
       </c>
       <c r="D132" s="64">
@@ -13242,7 +13134,7 @@
         <v>196</v>
       </c>
       <c r="G132" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H132" s="40" t="s">
@@ -13261,7 +13153,7 @@
         <v>11.38</v>
       </c>
       <c r="M132" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>273.12</v>
       </c>
       <c r="N132" s="67">
@@ -13272,7 +13164,7 @@
         <v>307544.50000000006</v>
       </c>
       <c r="P132" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>360000</v>
       </c>
       <c r="Q132" s="31"/>
@@ -13292,7 +13184,7 @@
         <v>422</v>
       </c>
       <c r="C133" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9443610704</v>
       </c>
       <c r="D133" s="83">
@@ -13305,7 +13197,7 @@
         <v>605</v>
       </c>
       <c r="G133" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3YL</v>
       </c>
       <c r="H133" s="40" t="s">
@@ -13324,7 +13216,7 @@
         <v>14.5</v>
       </c>
       <c r="M133" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>174</v>
       </c>
       <c r="N133" s="67">
@@ -13335,7 +13227,7 @@
         <v>391862.5</v>
       </c>
       <c r="P133" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>460000</v>
       </c>
       <c r="Q133" s="31"/>
@@ -13355,7 +13247,7 @@
         <v>279</v>
       </c>
       <c r="C134" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105015718</v>
       </c>
       <c r="D134" s="64">
@@ -13368,7 +13260,7 @@
         <v>280</v>
       </c>
       <c r="G134" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H134" s="40" t="s">
@@ -13387,7 +13279,7 @@
         <v>19.420000000000002</v>
       </c>
       <c r="M134" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>233.04000000000002</v>
       </c>
       <c r="N134" s="67">
@@ -13398,7 +13290,7 @@
         <v>524825.50000000012</v>
       </c>
       <c r="P134" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>620000</v>
       </c>
       <c r="Q134" s="31"/>
@@ -13418,7 +13310,7 @@
         <v>424</v>
       </c>
       <c r="C135" s="64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>H105017185</v>
       </c>
       <c r="D135" s="64">
@@ -13431,7 +13323,7 @@
         <v>607</v>
       </c>
       <c r="G135" s="65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>KMH</v>
       </c>
       <c r="H135" s="40" t="s">
@@ -13450,7 +13342,7 @@
         <v>15.36</v>
       </c>
       <c r="M135" s="280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>184.32</v>
       </c>
       <c r="N135" s="67">
@@ -13461,7 +13353,7 @@
         <v>415104.00000000006</v>
       </c>
       <c r="P135" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>490000</v>
       </c>
       <c r="Q135" s="31"/>
@@ -13481,7 +13373,7 @@
         <v>195</v>
       </c>
       <c r="C136" s="64" t="str">
-        <f t="shared" ref="C136:C199" si="9">LEFT(B136,10)</f>
+        <f t="shared" ref="C136:C199" si="10">LEFT(B136,10)</f>
         <v>H105017238</v>
       </c>
       <c r="D136" s="64">
@@ -13494,7 +13386,7 @@
         <v>196</v>
       </c>
       <c r="G136" s="65" t="str">
-        <f t="shared" ref="G136:G199" si="10">RIGHT(B136,3)</f>
+        <f t="shared" ref="G136:G199" si="11">RIGHT(B136,3)</f>
         <v>KMH</v>
       </c>
       <c r="H136" s="40" t="s">
@@ -13513,7 +13405,7 @@
         <v>11.38</v>
       </c>
       <c r="M136" s="280">
-        <f t="shared" ref="M136:M199" si="11">L136*K136</f>
+        <f t="shared" si="8"/>
         <v>136.56</v>
       </c>
       <c r="N136" s="67">
@@ -13524,7 +13416,7 @@
         <v>307544.50000000006</v>
       </c>
       <c r="P136" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>360000</v>
       </c>
       <c r="Q136" s="31"/>
@@ -13544,7 +13436,7 @@
         <v>253</v>
       </c>
       <c r="C137" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105025407</v>
       </c>
       <c r="D137" s="64">
@@ -13557,7 +13449,7 @@
         <v>254</v>
       </c>
       <c r="G137" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H137" s="40" t="s">
@@ -13576,7 +13468,7 @@
         <v>15.38</v>
       </c>
       <c r="M137" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>184.56</v>
       </c>
       <c r="N137" s="67">
@@ -13587,7 +13479,7 @@
         <v>415644.50000000012</v>
       </c>
       <c r="P137" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>490000</v>
       </c>
       <c r="Q137" s="31"/>
@@ -13607,7 +13499,7 @@
         <v>422</v>
       </c>
       <c r="C138" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9443610704</v>
       </c>
       <c r="D138" s="83">
@@ -13620,7 +13512,7 @@
         <v>605</v>
       </c>
       <c r="G138" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3YL</v>
       </c>
       <c r="H138" s="40" t="s">
@@ -13639,7 +13531,7 @@
         <v>13.44</v>
       </c>
       <c r="M138" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>725.76</v>
       </c>
       <c r="N138" s="67">
@@ -13665,7 +13557,7 @@
         <v>61</v>
       </c>
       <c r="C139" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9443610210</v>
       </c>
       <c r="D139" s="83">
@@ -13678,7 +13570,7 @@
         <v>62</v>
       </c>
       <c r="G139" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3YL</v>
       </c>
       <c r="H139" s="40" t="s">
@@ -13697,7 +13589,7 @@
         <v>13.98</v>
       </c>
       <c r="M139" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>503.28000000000003</v>
       </c>
       <c r="N139" s="67">
@@ -13723,7 +13615,7 @@
         <v>116</v>
       </c>
       <c r="C140" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F00RJ02213</v>
       </c>
       <c r="D140" s="64" t="str">
@@ -13733,7 +13625,7 @@
       <c r="E140" s="63"/>
       <c r="F140" s="42"/>
       <c r="G140" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>751</v>
       </c>
       <c r="H140" s="96" t="s">
@@ -13752,7 +13644,7 @@
         <v>41.12</v>
       </c>
       <c r="M140" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1480.32</v>
       </c>
       <c r="N140" s="67">
@@ -13779,7 +13671,7 @@
         <v>219</v>
       </c>
       <c r="C141" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105025224</v>
       </c>
       <c r="D141" s="64">
@@ -13792,7 +13684,7 @@
         <v>220</v>
       </c>
       <c r="G141" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H141" s="40" t="s">
@@ -13811,7 +13703,7 @@
         <v>19.739999999999998</v>
       </c>
       <c r="M141" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>710.64</v>
       </c>
       <c r="N141" s="67">
@@ -13839,7 +13731,7 @@
         <v>65</v>
       </c>
       <c r="C142" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9443610218</v>
       </c>
       <c r="D142" s="64">
@@ -13852,7 +13744,7 @@
         <v>66</v>
       </c>
       <c r="G142" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3YL</v>
       </c>
       <c r="H142" s="40" t="s">
@@ -13871,7 +13763,7 @@
         <v>12.7</v>
       </c>
       <c r="M142" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>304.79999999999995</v>
       </c>
       <c r="N142" s="67">
@@ -13897,7 +13789,7 @@
         <v>261</v>
       </c>
       <c r="C143" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105015649</v>
       </c>
       <c r="D143" s="64">
@@ -13910,7 +13802,7 @@
         <v>262</v>
       </c>
       <c r="G143" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H143" s="66" t="s">
@@ -13929,7 +13821,7 @@
         <v>14.82</v>
       </c>
       <c r="M143" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>177.84</v>
       </c>
       <c r="N143" s="67">
@@ -13955,7 +13847,7 @@
         <v>426</v>
       </c>
       <c r="C144" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9443610188</v>
       </c>
       <c r="D144" s="83">
@@ -13968,7 +13860,7 @@
         <v>609</v>
       </c>
       <c r="G144" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3YL</v>
       </c>
       <c r="H144" s="40" t="s">
@@ -13987,7 +13879,7 @@
         <v>13.66</v>
       </c>
       <c r="M144" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>163.92000000000002</v>
       </c>
       <c r="N144" s="67">
@@ -14013,7 +13905,7 @@
         <v>239</v>
       </c>
       <c r="C145" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105025343</v>
       </c>
       <c r="D145" s="64">
@@ -14026,7 +13918,7 @@
         <v>240</v>
       </c>
       <c r="G145" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H145" s="40" t="s">
@@ -14045,7 +13937,7 @@
         <v>15.84</v>
       </c>
       <c r="M145" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>1900.8</v>
       </c>
       <c r="N145" s="67">
@@ -14073,7 +13965,7 @@
         <v>198</v>
       </c>
       <c r="C146" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105017259</v>
       </c>
       <c r="D146" s="64">
@@ -14086,7 +13978,7 @@
         <v>199</v>
       </c>
       <c r="G146" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H146" s="40" t="s">
@@ -14105,7 +13997,7 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="M146" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>338</v>
       </c>
       <c r="N146" s="67">
@@ -14133,7 +14025,7 @@
         <v>428</v>
       </c>
       <c r="C147" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433171776</v>
       </c>
       <c r="D147" s="64" t="s">
@@ -14144,7 +14036,7 @@
         <v>611</v>
       </c>
       <c r="G147" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8GA</v>
       </c>
       <c r="H147" s="40" t="s">
@@ -14163,7 +14055,7 @@
         <v>12.06</v>
       </c>
       <c r="M147" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="M147:M210" si="13">L147*K147</f>
         <v>144.72</v>
       </c>
       <c r="N147" s="67">
@@ -14191,7 +14083,7 @@
         <v>38</v>
       </c>
       <c r="C148" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433175413</v>
       </c>
       <c r="D148" s="64" t="str">
@@ -14203,7 +14095,7 @@
         <v>39</v>
       </c>
       <c r="G148" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8GA</v>
       </c>
       <c r="H148" s="40" t="s">
@@ -14222,7 +14114,7 @@
         <v>23.24</v>
       </c>
       <c r="M148" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2788.7999999999997</v>
       </c>
       <c r="N148" s="67">
@@ -14250,7 +14142,7 @@
         <v>198</v>
       </c>
       <c r="C149" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105017259</v>
       </c>
       <c r="D149" s="64">
@@ -14263,7 +14155,7 @@
         <v>199</v>
       </c>
       <c r="G149" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H149" s="40" t="s">
@@ -14282,7 +14174,7 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="M149" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>101.39999999999999</v>
       </c>
       <c r="N149" s="67">
@@ -14312,7 +14204,7 @@
         <v>44</v>
       </c>
       <c r="C150" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0445020126</v>
       </c>
       <c r="D150" s="64" t="str">
@@ -14322,7 +14214,7 @@
       <c r="E150" s="99"/>
       <c r="F150" s="42"/>
       <c r="G150" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>391</v>
       </c>
       <c r="H150" s="33" t="s">
@@ -14341,7 +14233,7 @@
         <v>1203.04</v>
       </c>
       <c r="M150" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24060.799999999999</v>
       </c>
       <c r="N150" s="67">
@@ -14371,7 +14263,7 @@
         <v>109</v>
       </c>
       <c r="C151" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F00RJ01727</v>
       </c>
       <c r="D151" s="64" t="str">
@@ -14381,7 +14273,7 @@
       <c r="E151" s="99"/>
       <c r="F151" s="42"/>
       <c r="G151" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>879</v>
       </c>
       <c r="H151" s="96" t="s">
@@ -14400,7 +14292,7 @@
         <v>23.87</v>
       </c>
       <c r="M151" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1432.2</v>
       </c>
       <c r="N151" s="67">
@@ -14428,7 +14320,7 @@
         <v>399</v>
       </c>
       <c r="C152" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F00RJ02130</v>
       </c>
       <c r="D152" s="64" t="s">
@@ -14437,7 +14329,7 @@
       <c r="E152" s="99"/>
       <c r="F152" s="42"/>
       <c r="G152" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>751</v>
       </c>
       <c r="H152" s="33" t="s">
@@ -14456,7 +14348,7 @@
         <v>28.67</v>
       </c>
       <c r="M152" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1376.16</v>
       </c>
       <c r="N152" s="67">
@@ -14484,7 +14376,7 @@
         <v>433</v>
       </c>
       <c r="C153" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F00RJ01657</v>
       </c>
       <c r="D153" s="64" t="s">
@@ -14493,7 +14385,7 @@
       <c r="E153" s="99"/>
       <c r="F153" s="42"/>
       <c r="G153" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>879</v>
       </c>
       <c r="H153" s="30" t="s">
@@ -14512,7 +14404,7 @@
         <v>25.66</v>
       </c>
       <c r="M153" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>307.92</v>
       </c>
       <c r="N153" s="67">
@@ -14540,7 +14432,7 @@
         <v>267</v>
       </c>
       <c r="C154" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F00RJ02035</v>
       </c>
       <c r="D154" s="64" t="s">
@@ -14549,7 +14441,7 @@
       <c r="E154" s="99"/>
       <c r="F154" s="42"/>
       <c r="G154" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>879</v>
       </c>
       <c r="H154" s="30" t="s">
@@ -14568,7 +14460,7 @@
         <v>26.69</v>
       </c>
       <c r="M154" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1281.1200000000001</v>
       </c>
       <c r="N154" s="67">
@@ -14598,7 +14490,7 @@
         <v>125</v>
       </c>
       <c r="C155" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F018B06804</v>
       </c>
       <c r="D155" s="64" t="s">
@@ -14607,7 +14499,7 @@
       <c r="E155" s="99"/>
       <c r="F155" s="42"/>
       <c r="G155" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>741</v>
       </c>
       <c r="H155" s="40" t="s">
@@ -14626,7 +14518,7 @@
         <v>8.19</v>
       </c>
       <c r="M155" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>245.7</v>
       </c>
       <c r="N155" s="67">
@@ -14656,7 +14548,7 @@
         <v>268</v>
       </c>
       <c r="C156" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433171768</v>
       </c>
       <c r="D156" s="64" t="s">
@@ -14667,7 +14559,7 @@
         <v>269</v>
       </c>
       <c r="G156" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8GA</v>
       </c>
       <c r="H156" s="40" t="s">
@@ -14686,7 +14578,7 @@
         <v>11.62</v>
       </c>
       <c r="M156" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>278.88</v>
       </c>
       <c r="N156" s="67">
@@ -14716,7 +14608,7 @@
         <v>440</v>
       </c>
       <c r="C157" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433171453</v>
       </c>
       <c r="D157" s="64" t="s">
@@ -14727,7 +14619,7 @@
         <v>614</v>
       </c>
       <c r="G157" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8GA</v>
       </c>
       <c r="H157" s="40" t="s">
@@ -14746,7 +14638,7 @@
         <v>14.53</v>
       </c>
       <c r="M157" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>174.35999999999999</v>
       </c>
       <c r="N157" s="67">
@@ -14776,7 +14668,7 @@
         <v>442</v>
       </c>
       <c r="C158" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F00RJ01683</v>
       </c>
       <c r="D158" s="64" t="s">
@@ -14785,7 +14677,7 @@
       <c r="E158" s="99"/>
       <c r="F158" s="42"/>
       <c r="G158" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>741</v>
       </c>
       <c r="H158" s="35" t="s">
@@ -14804,7 +14696,7 @@
         <v>39.68</v>
       </c>
       <c r="M158" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>476.15999999999997</v>
       </c>
       <c r="N158" s="67">
@@ -14834,7 +14726,7 @@
         <v>281</v>
       </c>
       <c r="C159" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0460426367</v>
       </c>
       <c r="D159" s="64" t="s">
@@ -14843,7 +14735,7 @@
       <c r="E159" s="99"/>
       <c r="F159" s="42"/>
       <c r="G159" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>770</v>
       </c>
       <c r="H159" s="33" t="s">
@@ -14862,7 +14754,7 @@
         <v>849.47</v>
       </c>
       <c r="M159" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>849.47</v>
       </c>
       <c r="N159" s="67">
@@ -14892,7 +14784,7 @@
         <v>447</v>
       </c>
       <c r="C160" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0460426385</v>
       </c>
       <c r="D160" s="83" t="s">
@@ -14901,7 +14793,7 @@
       <c r="E160" s="99"/>
       <c r="F160" s="99"/>
       <c r="G160" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>770</v>
       </c>
       <c r="H160" s="78" t="s">
@@ -14920,7 +14812,7 @@
         <v>812.08</v>
       </c>
       <c r="M160" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>812.08</v>
       </c>
       <c r="N160" s="67">
@@ -14950,7 +14842,7 @@
         <v>452</v>
       </c>
       <c r="C161" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F002D13641</v>
       </c>
       <c r="D161" s="64" t="s">
@@ -14959,7 +14851,7 @@
       <c r="E161" s="99"/>
       <c r="F161" s="99"/>
       <c r="G161" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>770</v>
       </c>
       <c r="H161" s="40"/>
@@ -14974,7 +14866,7 @@
         <v>5.73</v>
       </c>
       <c r="M161" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.73</v>
       </c>
       <c r="N161" s="67">
@@ -15002,7 +14894,7 @@
         <v>282</v>
       </c>
       <c r="C162" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F002D20502</v>
       </c>
       <c r="D162" s="64" t="s">
@@ -15011,7 +14903,7 @@
       <c r="E162" s="99"/>
       <c r="F162" s="99"/>
       <c r="G162" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>770</v>
       </c>
       <c r="H162" s="40"/>
@@ -15026,7 +14918,7 @@
         <v>6.11</v>
       </c>
       <c r="M162" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.11</v>
       </c>
       <c r="N162" s="67">
@@ -15054,7 +14946,7 @@
         <v>38</v>
       </c>
       <c r="C163" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433175413</v>
       </c>
       <c r="D163" s="64" t="str">
@@ -15066,7 +14958,7 @@
         <v>39</v>
       </c>
       <c r="G163" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8GA</v>
       </c>
       <c r="H163" s="38" t="s">
@@ -15085,7 +14977,7 @@
         <v>21.79</v>
       </c>
       <c r="M163" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6537</v>
       </c>
       <c r="N163" s="67">
@@ -15113,7 +15005,7 @@
         <v>109</v>
       </c>
       <c r="C164" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F00RJ01727</v>
       </c>
       <c r="D164" s="64" t="str">
@@ -15123,7 +15015,7 @@
       <c r="E164" s="102"/>
       <c r="F164" s="102"/>
       <c r="G164" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>879</v>
       </c>
       <c r="H164" s="96" t="s">
@@ -15142,7 +15034,7 @@
         <v>21.95</v>
       </c>
       <c r="M164" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>526.79999999999995</v>
       </c>
       <c r="N164" s="67">
@@ -15170,7 +15062,7 @@
         <v>457</v>
       </c>
       <c r="C165" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9443610234</v>
       </c>
       <c r="D165" s="101" t="s">
@@ -15183,7 +15075,7 @@
         <v>620</v>
       </c>
       <c r="G165" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3YL</v>
       </c>
       <c r="H165" s="38" t="s">
@@ -15202,7 +15094,7 @@
         <v>25.25</v>
       </c>
       <c r="M165" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>303</v>
       </c>
       <c r="N165" s="67">
@@ -15230,7 +15122,7 @@
         <v>459</v>
       </c>
       <c r="C166" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433171992</v>
       </c>
       <c r="D166" s="88" t="s">
@@ -15241,7 +15133,7 @@
         <v>622</v>
       </c>
       <c r="G166" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75N</v>
       </c>
       <c r="H166" s="38" t="s">
@@ -15260,7 +15152,7 @@
         <v>27.42</v>
       </c>
       <c r="M166" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>548.40000000000009</v>
       </c>
       <c r="N166" s="67">
@@ -15290,7 +15182,7 @@
         <v>291</v>
       </c>
       <c r="C167" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9411038580</v>
       </c>
       <c r="D167" s="64">
@@ -15303,7 +15195,7 @@
         <v>292</v>
       </c>
       <c r="G167" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41N</v>
       </c>
       <c r="H167" s="80" t="s">
@@ -15322,7 +15214,7 @@
         <v>2.08</v>
       </c>
       <c r="M167" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>124.80000000000001</v>
       </c>
       <c r="N167" s="67">
@@ -15352,7 +15244,7 @@
         <v>293</v>
       </c>
       <c r="C168" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9412038521</v>
       </c>
       <c r="D168" s="64">
@@ -15365,7 +15257,7 @@
         <v>294</v>
       </c>
       <c r="G168" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41N</v>
       </c>
       <c r="H168" s="80" t="s">
@@ -15384,7 +15276,7 @@
         <v>1.41</v>
       </c>
       <c r="M168" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>84.6</v>
       </c>
       <c r="N168" s="67">
@@ -15414,7 +15306,7 @@
         <v>287</v>
       </c>
       <c r="C169" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9412038583</v>
       </c>
       <c r="D169" s="64">
@@ -15427,7 +15319,7 @@
         <v>288</v>
       </c>
       <c r="G169" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41N</v>
       </c>
       <c r="H169" s="80" t="s">
@@ -15446,7 +15338,7 @@
         <v>1.54</v>
       </c>
       <c r="M169" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>92.4</v>
       </c>
       <c r="N169" s="67">
@@ -15476,7 +15368,7 @@
         <v>285</v>
       </c>
       <c r="C170" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9412038595</v>
       </c>
       <c r="D170" s="105" t="s">
@@ -15489,7 +15381,7 @@
         <v>286</v>
       </c>
       <c r="G170" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41N</v>
       </c>
       <c r="H170" s="80" t="s">
@@ -15508,7 +15400,7 @@
         <v>2.37</v>
       </c>
       <c r="M170" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>142.20000000000002</v>
       </c>
       <c r="N170" s="67">
@@ -15538,7 +15430,7 @@
         <v>289</v>
       </c>
       <c r="C171" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F002B70036</v>
       </c>
       <c r="D171" s="84" t="s">
@@ -15549,7 +15441,7 @@
         <v>290</v>
       </c>
       <c r="G171" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41N</v>
       </c>
       <c r="H171" s="80" t="s">
@@ -15568,7 +15460,7 @@
         <v>2.69</v>
       </c>
       <c r="M171" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>161.4</v>
       </c>
       <c r="N171" s="67">
@@ -15598,7 +15490,7 @@
         <v>283</v>
       </c>
       <c r="C172" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F002B70043</v>
       </c>
       <c r="D172" s="84" t="s">
@@ -15611,7 +15503,7 @@
         <v>284</v>
       </c>
       <c r="G172" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41N</v>
       </c>
       <c r="H172" s="80" t="s">
@@ -15630,7 +15522,7 @@
         <v>2</v>
       </c>
       <c r="M172" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>120</v>
       </c>
       <c r="N172" s="67">
@@ -15660,7 +15552,7 @@
         <v>295</v>
       </c>
       <c r="C173" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F002B70045</v>
       </c>
       <c r="D173" s="64" t="s">
@@ -15673,7 +15565,7 @@
         <v>296</v>
       </c>
       <c r="G173" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41N</v>
       </c>
       <c r="H173" s="80" t="s">
@@ -15692,7 +15584,7 @@
         <v>2.78</v>
       </c>
       <c r="M173" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>166.79999999999998</v>
       </c>
       <c r="N173" s="67">
@@ -15722,7 +15614,7 @@
         <v>129</v>
       </c>
       <c r="C174" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F01G0V5000</v>
       </c>
       <c r="D174" s="64" t="str">
@@ -15734,7 +15626,7 @@
         <v>130</v>
       </c>
       <c r="G174" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H174" s="66" t="s">
@@ -15753,7 +15645,7 @@
         <v>11.39</v>
       </c>
       <c r="M174" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>273.36</v>
       </c>
       <c r="N174" s="67">
@@ -15781,7 +15673,7 @@
         <v>222</v>
       </c>
       <c r="C175" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105025303</v>
       </c>
       <c r="D175" s="64">
@@ -15794,7 +15686,7 @@
         <v>223</v>
       </c>
       <c r="G175" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H175" s="66" t="s">
@@ -15813,7 +15705,7 @@
         <v>17.25</v>
       </c>
       <c r="M175" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>414</v>
       </c>
       <c r="N175" s="67">
@@ -15841,7 +15733,7 @@
         <v>470</v>
       </c>
       <c r="C176" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9443610241</v>
       </c>
       <c r="D176" s="106">
@@ -15854,7 +15746,7 @@
         <v>634</v>
       </c>
       <c r="G176" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3YL</v>
       </c>
       <c r="H176" s="66" t="s">
@@ -15873,7 +15765,7 @@
         <v>13.09</v>
       </c>
       <c r="M176" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>157.07999999999998</v>
       </c>
       <c r="N176" s="67">
@@ -15901,7 +15793,7 @@
         <v>201</v>
       </c>
       <c r="C177" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105025012</v>
       </c>
       <c r="D177" s="64" t="s">
@@ -15914,7 +15806,7 @@
         <v>202</v>
       </c>
       <c r="G177" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H177" s="66" t="s">
@@ -15933,7 +15825,7 @@
         <v>17.57</v>
       </c>
       <c r="M177" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>210.84</v>
       </c>
       <c r="N177" s="67">
@@ -15961,7 +15853,7 @@
         <v>210</v>
       </c>
       <c r="C178" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105025080</v>
       </c>
       <c r="D178" s="64" t="str">
@@ -15975,7 +15867,7 @@
         <v>211</v>
       </c>
       <c r="G178" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H178" s="66" t="s">
@@ -15994,7 +15886,7 @@
         <v>22.84</v>
       </c>
       <c r="M178" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>274.08</v>
       </c>
       <c r="N178" s="67">
@@ -16022,7 +15914,7 @@
         <v>216</v>
       </c>
       <c r="C179" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105025190</v>
       </c>
       <c r="D179" s="64">
@@ -16035,7 +15927,7 @@
         <v>217</v>
       </c>
       <c r="G179" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H179" s="66" t="s">
@@ -16054,7 +15946,7 @@
         <v>15.61</v>
       </c>
       <c r="M179" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>187.32</v>
       </c>
       <c r="N179" s="67">
@@ -16082,7 +15974,7 @@
         <v>93</v>
       </c>
       <c r="C180" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F002H23520</v>
       </c>
       <c r="D180" s="108" t="s">
@@ -16091,7 +15983,7 @@
       <c r="E180" s="75"/>
       <c r="F180" s="69"/>
       <c r="G180" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>772</v>
       </c>
       <c r="H180" s="66" t="s">
@@ -16110,7 +16002,7 @@
         <v>3.33</v>
       </c>
       <c r="M180" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>399.6</v>
       </c>
       <c r="N180" s="67">
@@ -16140,7 +16032,7 @@
         <v>135</v>
       </c>
       <c r="C181" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105007121</v>
       </c>
       <c r="D181" s="109" t="s">
@@ -16153,7 +16045,7 @@
         <v>136</v>
       </c>
       <c r="G181" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H181" s="66" t="s">
@@ -16172,7 +16064,7 @@
         <v>5.15</v>
       </c>
       <c r="M181" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>618</v>
       </c>
       <c r="N181" s="67">
@@ -16202,7 +16094,7 @@
         <v>198</v>
       </c>
       <c r="C182" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105017259</v>
       </c>
       <c r="D182" s="64">
@@ -16215,7 +16107,7 @@
         <v>199</v>
       </c>
       <c r="G182" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H182" s="66" t="s">
@@ -16234,7 +16126,7 @@
         <v>8</v>
       </c>
       <c r="M182" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>960</v>
       </c>
       <c r="N182" s="67">
@@ -16264,7 +16156,7 @@
         <v>142</v>
       </c>
       <c r="C183" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105015413</v>
       </c>
       <c r="D183" s="106">
@@ -16277,7 +16169,7 @@
         <v>143</v>
       </c>
       <c r="G183" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H183" s="66" t="s">
@@ -16296,7 +16188,7 @@
         <v>12.96</v>
       </c>
       <c r="M183" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>466.56000000000006</v>
       </c>
       <c r="N183" s="67">
@@ -16326,7 +16218,7 @@
         <v>35</v>
       </c>
       <c r="C184" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433172080</v>
       </c>
       <c r="D184" s="64" t="str">
@@ -16338,7 +16230,7 @@
         <v>36</v>
       </c>
       <c r="G184" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75N</v>
       </c>
       <c r="H184" s="66" t="s">
@@ -16357,7 +16249,7 @@
         <v>34.619999999999997</v>
       </c>
       <c r="M184" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1107.8399999999999</v>
       </c>
       <c r="N184" s="67">
@@ -16387,7 +16279,7 @@
         <v>481</v>
       </c>
       <c r="C185" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9412270043</v>
       </c>
       <c r="D185" s="63">
@@ -16396,7 +16288,7 @@
       <c r="E185" s="75"/>
       <c r="F185" s="69"/>
       <c r="G185" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41N</v>
       </c>
       <c r="H185" s="66" t="s">
@@ -16415,7 +16307,7 @@
         <v>15.55</v>
       </c>
       <c r="M185" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>373.20000000000005</v>
       </c>
       <c r="N185" s="67">
@@ -16445,7 +16337,7 @@
         <v>69</v>
       </c>
       <c r="C186" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9443610373</v>
       </c>
       <c r="D186" s="86">
@@ -16458,7 +16350,7 @@
         <v>70</v>
       </c>
       <c r="G186" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3YL</v>
       </c>
       <c r="H186" s="66" t="s">
@@ -16477,7 +16369,7 @@
         <v>12.93</v>
       </c>
       <c r="M186" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>310.32</v>
       </c>
       <c r="N186" s="67">
@@ -16507,7 +16399,7 @@
         <v>268</v>
       </c>
       <c r="C187" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433171768</v>
       </c>
       <c r="D187" s="112" t="s">
@@ -16518,7 +16410,7 @@
         <v>269</v>
       </c>
       <c r="G187" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8GA</v>
       </c>
       <c r="H187" s="66" t="s">
@@ -16537,7 +16429,7 @@
         <v>11.62</v>
       </c>
       <c r="M187" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>139.44</v>
       </c>
       <c r="N187" s="67">
@@ -16567,7 +16459,7 @@
         <v>116</v>
       </c>
       <c r="C188" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>F00RJ02213</v>
       </c>
       <c r="D188" s="63" t="str">
@@ -16577,7 +16469,7 @@
       <c r="E188" s="75"/>
       <c r="F188" s="69"/>
       <c r="G188" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>751</v>
       </c>
       <c r="H188" s="81" t="s">
@@ -16596,7 +16488,7 @@
         <v>41.12</v>
       </c>
       <c r="M188" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>493.43999999999994</v>
       </c>
       <c r="N188" s="67">
@@ -16626,7 +16518,7 @@
         <v>484</v>
       </c>
       <c r="C189" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9413610030</v>
       </c>
       <c r="D189" s="89" t="s">
@@ -16639,7 +16531,7 @@
         <v>638</v>
       </c>
       <c r="G189" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3YL</v>
       </c>
       <c r="H189" s="66" t="s">
@@ -16658,7 +16550,7 @@
         <v>12.93</v>
       </c>
       <c r="M189" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1551.6</v>
       </c>
       <c r="N189" s="67">
@@ -16686,7 +16578,7 @@
         <v>44</v>
       </c>
       <c r="C190" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0445020126</v>
       </c>
       <c r="D190" s="64" t="str">
@@ -16696,7 +16588,7 @@
       <c r="E190" s="99"/>
       <c r="F190" s="42"/>
       <c r="G190" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>391</v>
       </c>
       <c r="H190" s="33" t="s">
@@ -16715,7 +16607,7 @@
         <v>1203.04</v>
       </c>
       <c r="M190" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>36091.199999999997</v>
       </c>
       <c r="N190" s="67">
@@ -16743,7 +16635,7 @@
         <v>488</v>
       </c>
       <c r="C191" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0928400617</v>
       </c>
       <c r="D191" s="89" t="s">
@@ -16752,7 +16644,7 @@
       <c r="E191" s="75"/>
       <c r="F191" s="115"/>
       <c r="G191" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>000</v>
       </c>
       <c r="H191" s="66" t="s">
@@ -16771,7 +16663,7 @@
         <v>34.619999999999997</v>
       </c>
       <c r="M191" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>173.1</v>
       </c>
       <c r="N191" s="67">
@@ -16801,7 +16693,7 @@
         <v>135</v>
       </c>
       <c r="C192" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105007121</v>
       </c>
       <c r="D192" s="84" t="s">
@@ -16814,7 +16706,7 @@
         <v>136</v>
       </c>
       <c r="G192" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H192" s="66" t="s">
@@ -16833,7 +16725,7 @@
         <v>5</v>
       </c>
       <c r="M192" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1500</v>
       </c>
       <c r="N192" s="67">
@@ -16861,7 +16753,7 @@
         <v>225</v>
       </c>
       <c r="C193" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105025304</v>
       </c>
       <c r="D193" s="84" t="s">
@@ -16874,7 +16766,7 @@
         <v>226</v>
       </c>
       <c r="G193" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H193" s="66" t="s">
@@ -16893,7 +16785,7 @@
         <v>15.84</v>
       </c>
       <c r="M193" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>760.31999999999994</v>
       </c>
       <c r="N193" s="67">
@@ -16921,7 +16813,7 @@
         <v>375</v>
       </c>
       <c r="C194" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433171454</v>
       </c>
       <c r="D194" s="84" t="s">
@@ -16932,7 +16824,7 @@
         <v>565</v>
       </c>
       <c r="G194" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75Y</v>
       </c>
       <c r="H194" s="66" t="s">
@@ -16951,7 +16843,7 @@
         <v>11.58</v>
       </c>
       <c r="M194" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>416.88</v>
       </c>
       <c r="N194" s="67">
@@ -16979,7 +16871,7 @@
         <v>493</v>
       </c>
       <c r="C195" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433171779</v>
       </c>
       <c r="D195" s="84" t="s">
@@ -16990,7 +16882,7 @@
         <v>641</v>
       </c>
       <c r="G195" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8GA</v>
       </c>
       <c r="H195" s="66" t="s">
@@ -17009,7 +16901,7 @@
         <v>14.5</v>
       </c>
       <c r="M195" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>522</v>
       </c>
       <c r="N195" s="67">
@@ -17037,7 +16929,7 @@
         <v>495</v>
       </c>
       <c r="C196" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433172341</v>
       </c>
       <c r="D196" s="105" t="s">
@@ -17048,7 +16940,7 @@
         <v>643</v>
       </c>
       <c r="G196" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41N</v>
       </c>
       <c r="H196" s="66" t="s">
@@ -17067,7 +16959,7 @@
         <v>6.44</v>
       </c>
       <c r="M196" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>231.84</v>
       </c>
       <c r="N196" s="67">
@@ -17095,7 +16987,7 @@
         <v>497</v>
       </c>
       <c r="C197" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433171435</v>
       </c>
       <c r="D197" s="105" t="s">
@@ -17106,7 +16998,7 @@
         <v>645</v>
       </c>
       <c r="G197" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8GA</v>
       </c>
       <c r="H197" s="66" t="s">
@@ -17125,7 +17017,7 @@
         <v>14.78</v>
       </c>
       <c r="M197" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>354.71999999999997</v>
       </c>
       <c r="N197" s="67">
@@ -17155,7 +17047,7 @@
         <v>499</v>
       </c>
       <c r="C198" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>H105017312</v>
       </c>
       <c r="D198" s="105">
@@ -17168,7 +17060,7 @@
         <v>646</v>
       </c>
       <c r="G198" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>KMH</v>
       </c>
       <c r="H198" s="66" t="s">
@@ -17187,7 +17079,7 @@
         <v>13.6</v>
       </c>
       <c r="M198" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>163.19999999999999</v>
       </c>
       <c r="N198" s="67">
@@ -17217,7 +17109,7 @@
         <v>502</v>
       </c>
       <c r="C199" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0433175348</v>
       </c>
       <c r="D199" s="105" t="s">
@@ -17228,7 +17120,7 @@
         <v>648</v>
       </c>
       <c r="G199" s="65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8GA</v>
       </c>
       <c r="H199" s="66" t="s">
@@ -17247,7 +17139,7 @@
         <v>17.920000000000002</v>
       </c>
       <c r="M199" s="280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>215.04000000000002</v>
       </c>
       <c r="N199" s="67">
@@ -17277,7 +17169,7 @@
         <v>505</v>
       </c>
       <c r="C200" s="64" t="str">
-        <f t="shared" ref="C200:D239" si="13">LEFT(B200,10)</f>
+        <f t="shared" ref="C200:D239" si="14">LEFT(B200,10)</f>
         <v>0281002507</v>
       </c>
       <c r="D200" s="105" t="s">
@@ -17286,7 +17178,7 @@
       <c r="E200" s="99"/>
       <c r="F200" s="84"/>
       <c r="G200" s="65" t="str">
-        <f t="shared" ref="G200:G246" si="14">RIGHT(B200,3)</f>
+        <f t="shared" ref="G200:G246" si="15">RIGHT(B200,3)</f>
         <v>390</v>
       </c>
       <c r="H200" s="40" t="s">
@@ -17305,7 +17197,7 @@
         <v>56.48</v>
       </c>
       <c r="M200" s="280">
-        <f t="shared" ref="M200:M259" si="15">L200*K200</f>
+        <f t="shared" si="13"/>
         <v>282.39999999999998</v>
       </c>
       <c r="N200" s="67">
@@ -17333,7 +17225,7 @@
         <v>508</v>
       </c>
       <c r="C201" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9461610167</v>
       </c>
       <c r="D201" s="105">
@@ -17344,7 +17236,7 @@
       </c>
       <c r="F201" s="86"/>
       <c r="G201" s="65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>HRV</v>
       </c>
       <c r="H201" s="40" t="s">
@@ -17359,7 +17251,7 @@
         <v>48.06</v>
       </c>
       <c r="M201" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>96.12</v>
       </c>
       <c r="N201" s="67">
@@ -17387,7 +17279,7 @@
         <v>511</v>
       </c>
       <c r="C202" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9461617872</v>
       </c>
       <c r="D202" s="105">
@@ -17398,7 +17290,7 @@
       </c>
       <c r="F202" s="86"/>
       <c r="G202" s="65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>HRV</v>
       </c>
       <c r="H202" s="40" t="s">
@@ -17413,7 +17305,7 @@
         <v>52.77</v>
       </c>
       <c r="M202" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>105.54</v>
       </c>
       <c r="N202" s="67">
@@ -17441,7 +17333,7 @@
         <v>122</v>
       </c>
       <c r="C203" s="287" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>F00VC01359</v>
       </c>
       <c r="D203" s="287" t="str">
@@ -17451,7 +17343,7 @@
       <c r="E203" s="288"/>
       <c r="F203" s="289"/>
       <c r="G203" s="290" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>770</v>
       </c>
       <c r="H203" s="291" t="s">
@@ -17470,7 +17362,7 @@
         <v>17.920000000000002</v>
       </c>
       <c r="M203" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4300.8</v>
       </c>
       <c r="N203" s="294">
@@ -17500,7 +17392,7 @@
         <v>513</v>
       </c>
       <c r="C204" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0433175449</v>
       </c>
       <c r="D204" s="64" t="str">
@@ -17512,7 +17404,7 @@
         <v>652</v>
       </c>
       <c r="G204" s="65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8GA</v>
       </c>
       <c r="H204" s="36" t="s">
@@ -17531,7 +17423,7 @@
         <v>27.42</v>
       </c>
       <c r="M204" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1316.16</v>
       </c>
       <c r="N204" s="67">
@@ -17561,7 +17453,7 @@
         <v>447</v>
       </c>
       <c r="C205" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0460426385</v>
       </c>
       <c r="D205" s="64" t="str">
@@ -17571,7 +17463,7 @@
       <c r="E205" s="99"/>
       <c r="F205" s="42"/>
       <c r="G205" s="65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>770</v>
       </c>
       <c r="H205" s="33" t="s">
@@ -17590,7 +17482,7 @@
         <v>802.16</v>
       </c>
       <c r="M205" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>802.16</v>
       </c>
       <c r="N205" s="67">
@@ -17620,7 +17512,7 @@
         <v>162</v>
       </c>
       <c r="C206" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105015615</v>
       </c>
       <c r="D206" s="64">
@@ -17633,7 +17525,7 @@
         <v>163</v>
       </c>
       <c r="G206" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H206" s="33" t="s">
@@ -17652,7 +17544,7 @@
         <v>14.02</v>
       </c>
       <c r="M206" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>168.24</v>
       </c>
       <c r="N206" s="67">
@@ -17682,7 +17574,7 @@
         <v>406</v>
       </c>
       <c r="C207" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105017203</v>
       </c>
       <c r="D207" s="64" t="s">
@@ -17695,7 +17587,7 @@
         <v>595</v>
       </c>
       <c r="G207" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H207" s="33" t="s">
@@ -17714,7 +17606,7 @@
         <v>11.81</v>
       </c>
       <c r="M207" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>141.72</v>
       </c>
       <c r="N207" s="67">
@@ -17744,7 +17636,7 @@
         <v>235</v>
       </c>
       <c r="C208" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105025329</v>
       </c>
       <c r="D208" s="84" t="s">
@@ -17757,7 +17649,7 @@
         <v>236</v>
       </c>
       <c r="G208" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H208" s="33" t="s">
@@ -17776,7 +17668,7 @@
         <v>16.45</v>
       </c>
       <c r="M208" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>197.39999999999998</v>
       </c>
       <c r="N208" s="67">
@@ -17806,7 +17698,7 @@
         <v>520</v>
       </c>
       <c r="C209" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9413610130</v>
       </c>
       <c r="D209" s="84">
@@ -17819,7 +17711,7 @@
         <v>655</v>
       </c>
       <c r="G209" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3YL</v>
       </c>
       <c r="H209" s="33" t="s">
@@ -17838,7 +17730,7 @@
         <v>16.38</v>
       </c>
       <c r="M209" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>196.56</v>
       </c>
       <c r="N209" s="67">
@@ -17868,7 +17760,7 @@
         <v>522</v>
       </c>
       <c r="C210" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9443610220</v>
       </c>
       <c r="D210" s="121" t="s">
@@ -17881,7 +17773,7 @@
         <v>658</v>
       </c>
       <c r="G210" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3YL</v>
       </c>
       <c r="H210" s="33" t="s">
@@ -17900,7 +17792,7 @@
         <v>19.62</v>
       </c>
       <c r="M210" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>235.44</v>
       </c>
       <c r="N210" s="67">
@@ -17930,7 +17822,7 @@
         <v>174</v>
       </c>
       <c r="C211" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105015869</v>
       </c>
       <c r="D211" s="64">
@@ -17943,7 +17835,7 @@
         <v>175</v>
       </c>
       <c r="G211" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H211" s="33" t="s">
@@ -17962,7 +17854,7 @@
         <v>15.33</v>
       </c>
       <c r="M211" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="M211:M259" si="17">L211*K211</f>
         <v>367.92</v>
       </c>
       <c r="N211" s="67">
@@ -17992,7 +17884,7 @@
         <v>207</v>
       </c>
       <c r="C212" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105025029</v>
       </c>
       <c r="D212" s="64">
@@ -18005,7 +17897,7 @@
         <v>208</v>
       </c>
       <c r="G212" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H212" s="33" t="s">
@@ -18024,7 +17916,7 @@
         <v>16.29</v>
       </c>
       <c r="M212" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>586.43999999999994</v>
       </c>
       <c r="N212" s="67">
@@ -18054,7 +17946,7 @@
         <v>183</v>
       </c>
       <c r="C213" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105017010</v>
       </c>
       <c r="D213" s="64">
@@ -18067,7 +17959,7 @@
         <v>184</v>
       </c>
       <c r="G213" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H213" s="33" t="s">
@@ -18086,7 +17978,7 @@
         <v>15.33</v>
       </c>
       <c r="M213" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>735.84</v>
       </c>
       <c r="N213" s="67">
@@ -18116,7 +18008,7 @@
         <v>232</v>
       </c>
       <c r="C214" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105025327</v>
       </c>
       <c r="D214" s="64">
@@ -18129,7 +18021,7 @@
         <v>233</v>
       </c>
       <c r="G214" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H214" s="33" t="s">
@@ -18148,7 +18040,7 @@
         <v>17.440000000000001</v>
       </c>
       <c r="M214" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>209.28000000000003</v>
       </c>
       <c r="N214" s="67">
@@ -18178,7 +18070,7 @@
         <v>232</v>
       </c>
       <c r="C215" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105025327</v>
       </c>
       <c r="D215" s="64">
@@ -18191,7 +18083,7 @@
         <v>233</v>
       </c>
       <c r="G215" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H215" s="33" t="s">
@@ -18210,7 +18102,7 @@
         <v>17.7</v>
       </c>
       <c r="M215" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>212.39999999999998</v>
       </c>
       <c r="N215" s="67">
@@ -18240,7 +18132,7 @@
         <v>248</v>
       </c>
       <c r="C216" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9443610074</v>
       </c>
       <c r="D216" s="64">
@@ -18253,7 +18145,7 @@
         <v>249</v>
       </c>
       <c r="G216" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3YL</v>
       </c>
       <c r="H216" s="33" t="s">
@@ -18272,7 +18164,7 @@
         <v>13.82</v>
       </c>
       <c r="M216" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>331.68</v>
       </c>
       <c r="N216" s="67">
@@ -18302,7 +18194,7 @@
         <v>53</v>
       </c>
       <c r="C217" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9413610135</v>
       </c>
       <c r="D217" s="70" t="s">
@@ -18315,7 +18207,7 @@
         <v>54</v>
       </c>
       <c r="G217" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3YL</v>
       </c>
       <c r="H217" s="33" t="s">
@@ -18334,7 +18226,7 @@
         <v>13.76</v>
       </c>
       <c r="M217" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>165.12</v>
       </c>
       <c r="N217" s="67">
@@ -18364,7 +18256,7 @@
         <v>268</v>
       </c>
       <c r="C218" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0433171768</v>
       </c>
       <c r="D218" s="63" t="s">
@@ -18375,7 +18267,7 @@
         <v>269</v>
       </c>
       <c r="G218" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8GA</v>
       </c>
       <c r="H218" s="123" t="s">
@@ -18394,7 +18286,7 @@
         <v>11.62</v>
       </c>
       <c r="M218" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>139.44</v>
       </c>
       <c r="N218" s="67">
@@ -18424,7 +18316,7 @@
         <v>526</v>
       </c>
       <c r="C219" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105015871</v>
       </c>
       <c r="D219" s="63">
@@ -18437,7 +18329,7 @@
         <v>660</v>
       </c>
       <c r="G219" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H219" s="123" t="s">
@@ -18456,7 +18348,7 @@
         <v>19.68</v>
       </c>
       <c r="M219" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>236.16</v>
       </c>
       <c r="N219" s="67">
@@ -18486,7 +18378,7 @@
         <v>529</v>
       </c>
       <c r="C220" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105017090</v>
       </c>
       <c r="D220" s="63">
@@ -18499,7 +18391,7 @@
         <v>662</v>
       </c>
       <c r="G220" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H220" s="123" t="s">
@@ -18518,7 +18410,7 @@
         <v>19.739999999999998</v>
       </c>
       <c r="M220" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>473.76</v>
       </c>
       <c r="N220" s="67">
@@ -18548,7 +18440,7 @@
         <v>531</v>
       </c>
       <c r="C221" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105017118</v>
       </c>
       <c r="D221" s="63">
@@ -18561,7 +18453,7 @@
         <v>664</v>
       </c>
       <c r="G221" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H221" s="123" t="s">
@@ -18580,7 +18472,7 @@
         <v>12.93</v>
       </c>
       <c r="M221" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>310.32</v>
       </c>
       <c r="N221" s="67">
@@ -18610,7 +18502,7 @@
         <v>533</v>
       </c>
       <c r="C222" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105015564</v>
       </c>
       <c r="D222" s="63">
@@ -18623,7 +18515,7 @@
         <v>666</v>
       </c>
       <c r="G222" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H222" s="123" t="s">
@@ -18642,7 +18534,7 @@
         <v>15.07</v>
       </c>
       <c r="M222" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>361.68</v>
       </c>
       <c r="N222" s="67">
@@ -18672,7 +18564,7 @@
         <v>535</v>
       </c>
       <c r="C223" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105015567</v>
       </c>
       <c r="D223" s="63">
@@ -18685,7 +18577,7 @@
         <v>668</v>
       </c>
       <c r="G223" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H223" s="123" t="s">
@@ -18704,7 +18596,7 @@
         <v>12.54</v>
       </c>
       <c r="M223" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>300.95999999999998</v>
       </c>
       <c r="N223" s="67">
@@ -18734,7 +18626,7 @@
         <v>537</v>
       </c>
       <c r="C224" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9443610717</v>
       </c>
       <c r="D224" s="63" t="s">
@@ -18747,7 +18639,7 @@
         <v>671</v>
       </c>
       <c r="G224" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3YL</v>
       </c>
       <c r="H224" s="123" t="s">
@@ -18766,7 +18658,7 @@
         <v>13.86</v>
       </c>
       <c r="M224" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>332.64</v>
       </c>
       <c r="N224" s="67">
@@ -18796,7 +18688,7 @@
         <v>539</v>
       </c>
       <c r="C225" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9443611956</v>
       </c>
       <c r="D225" s="63" t="s">
@@ -18809,7 +18701,7 @@
         <v>674</v>
       </c>
       <c r="G225" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3YL</v>
       </c>
       <c r="H225" s="123" t="s">
@@ -18828,7 +18720,7 @@
         <v>13.22</v>
       </c>
       <c r="M225" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>317.28000000000003</v>
       </c>
       <c r="N225" s="67">
@@ -18858,7 +18750,7 @@
         <v>156</v>
       </c>
       <c r="C226" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105015569</v>
       </c>
       <c r="D226" s="63">
@@ -18871,7 +18763,7 @@
         <v>157</v>
       </c>
       <c r="G226" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H226" s="123" t="s">
@@ -18890,7 +18782,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="M226" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>220.79999999999998</v>
       </c>
       <c r="N226" s="67">
@@ -18920,7 +18812,7 @@
         <v>165</v>
       </c>
       <c r="C227" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105015783</v>
       </c>
       <c r="D227" s="63">
@@ -18933,7 +18825,7 @@
         <v>166</v>
       </c>
       <c r="G227" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H227" s="123" t="s">
@@ -18952,7 +18844,7 @@
         <v>20.32</v>
       </c>
       <c r="M227" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>243.84</v>
       </c>
       <c r="N227" s="67">
@@ -18982,7 +18874,7 @@
         <v>543</v>
       </c>
       <c r="C228" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105015474</v>
       </c>
       <c r="D228" s="63">
@@ -18995,7 +18887,7 @@
         <v>676</v>
       </c>
       <c r="G228" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H228" s="123" t="s">
@@ -19014,7 +18906,7 @@
         <v>13.57</v>
       </c>
       <c r="M228" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>325.68</v>
       </c>
       <c r="N228" s="67">
@@ -19044,7 +18936,7 @@
         <v>447</v>
       </c>
       <c r="C229" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0460426385</v>
       </c>
       <c r="D229" s="63" t="s">
@@ -19053,7 +18945,7 @@
       <c r="E229" s="42"/>
       <c r="F229" s="42"/>
       <c r="G229" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>770</v>
       </c>
       <c r="H229" s="40" t="s">
@@ -19072,7 +18964,7 @@
         <v>791.01</v>
       </c>
       <c r="M229" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>791.01</v>
       </c>
       <c r="N229" s="67">
@@ -19102,7 +18994,7 @@
         <v>204</v>
       </c>
       <c r="C230" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105025021</v>
       </c>
       <c r="D230" s="89"/>
@@ -19113,7 +19005,7 @@
         <v>205</v>
       </c>
       <c r="G230" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H230" s="40" t="s">
@@ -19132,7 +19024,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="M230" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>220.79999999999998</v>
       </c>
       <c r="N230" s="67">
@@ -19162,7 +19054,7 @@
         <v>159</v>
       </c>
       <c r="C231" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105015595</v>
       </c>
       <c r="D231" s="89"/>
@@ -19173,7 +19065,7 @@
         <v>160</v>
       </c>
       <c r="G231" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H231" s="40" t="s">
@@ -19192,7 +19084,7 @@
         <v>12.93</v>
       </c>
       <c r="M231" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>155.16</v>
       </c>
       <c r="N231" s="67">
@@ -19222,7 +19114,7 @@
         <v>242</v>
       </c>
       <c r="C232" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105025400</v>
       </c>
       <c r="D232" s="89"/>
@@ -19233,7 +19125,7 @@
         <v>243</v>
       </c>
       <c r="G232" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H232" s="40" t="s">
@@ -19252,7 +19144,7 @@
         <v>14.53</v>
       </c>
       <c r="M232" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>174.35999999999999</v>
       </c>
       <c r="N232" s="67">
@@ -19282,7 +19174,7 @@
         <v>245</v>
       </c>
       <c r="C233" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105025420</v>
       </c>
       <c r="D233" s="89"/>
@@ -19293,7 +19185,7 @@
         <v>246</v>
       </c>
       <c r="G233" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H233" s="40" t="s">
@@ -19312,7 +19204,7 @@
         <v>17.82</v>
       </c>
       <c r="M233" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>213.84</v>
       </c>
       <c r="N233" s="67">
@@ -19342,7 +19234,7 @@
         <v>548</v>
       </c>
       <c r="C234" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105015989</v>
       </c>
       <c r="D234" s="89"/>
@@ -19353,7 +19245,7 @@
         <v>682</v>
       </c>
       <c r="G234" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H234" s="40" t="s">
@@ -19372,7 +19264,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="M234" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>220.79999999999998</v>
       </c>
       <c r="N234" s="67">
@@ -19402,7 +19294,7 @@
         <v>57</v>
       </c>
       <c r="C235" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9413614194</v>
       </c>
       <c r="D235" s="89"/>
@@ -19411,7 +19303,7 @@
         <v>58</v>
       </c>
       <c r="G235" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3YL</v>
       </c>
       <c r="H235" s="40" t="s">
@@ -19430,7 +19322,7 @@
         <v>13.22</v>
       </c>
       <c r="M235" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>158.64000000000001</v>
       </c>
       <c r="N235" s="67">
@@ -19460,7 +19352,7 @@
         <v>148</v>
       </c>
       <c r="C236" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>H105015485</v>
       </c>
       <c r="D236" s="89"/>
@@ -19471,7 +19363,7 @@
         <v>149</v>
       </c>
       <c r="G236" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H236" s="40" t="s">
@@ -19490,7 +19382,7 @@
         <v>12.64</v>
       </c>
       <c r="M236" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>151.68</v>
       </c>
       <c r="N236" s="67">
@@ -19520,14 +19412,14 @@
         <v>1466111630770</v>
       </c>
       <c r="C237" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1466111630</v>
       </c>
       <c r="D237" s="89"/>
       <c r="E237" s="42"/>
       <c r="F237" s="42"/>
       <c r="G237" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>770</v>
       </c>
       <c r="H237" s="40" t="s">
@@ -19546,7 +19438,7 @@
         <v>30.24</v>
       </c>
       <c r="M237" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>302.39999999999998</v>
       </c>
       <c r="N237" s="67">
@@ -19576,7 +19468,7 @@
         <v>513</v>
       </c>
       <c r="C238" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0433175449</v>
       </c>
       <c r="D238" s="89"/>
@@ -19585,7 +19477,7 @@
         <v>652</v>
       </c>
       <c r="G238" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8GA</v>
       </c>
       <c r="H238" s="40" t="s">
@@ -19604,7 +19496,7 @@
         <v>27.42</v>
       </c>
       <c r="M238" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>274.20000000000005</v>
       </c>
       <c r="N238" s="67">
@@ -19634,17 +19526,17 @@
         <v>399</v>
       </c>
       <c r="C239" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>F00RJ02130</v>
       </c>
       <c r="D239" s="64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>F00RJ02130</v>
       </c>
       <c r="E239" s="42"/>
       <c r="F239" s="42"/>
       <c r="G239" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>751</v>
       </c>
       <c r="H239" s="40" t="s">
@@ -19663,7 +19555,7 @@
         <v>26.34</v>
       </c>
       <c r="M239" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>263.39999999999998</v>
       </c>
       <c r="N239" s="67">
@@ -19705,7 +19597,7 @@
         <v>682</v>
       </c>
       <c r="G240" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H240" s="40" t="s">
@@ -19724,7 +19616,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="M240" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>220.79999999999998</v>
       </c>
       <c r="N240" s="67">
@@ -19764,7 +19656,7 @@
         <v>697</v>
       </c>
       <c r="G241" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41N</v>
       </c>
       <c r="H241" s="40" t="s">
@@ -19783,7 +19675,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="M241" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>241.20000000000002</v>
       </c>
       <c r="N241" s="67">
@@ -19825,7 +19717,7 @@
         <v>262</v>
       </c>
       <c r="G242" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H242" s="40" t="s">
@@ -19844,7 +19736,7 @@
         <v>14.82</v>
       </c>
       <c r="M242" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>177.84</v>
       </c>
       <c r="N242" s="67">
@@ -19886,7 +19778,7 @@
         <v>280</v>
       </c>
       <c r="G243" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H243" s="40" t="s">
@@ -19905,7 +19797,7 @@
         <v>17.82</v>
       </c>
       <c r="M243" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>213.84</v>
       </c>
       <c r="N243" s="67">
@@ -19945,7 +19837,7 @@
         <v>82</v>
       </c>
       <c r="G244" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3YL</v>
       </c>
       <c r="H244" s="40" t="s">
@@ -19964,7 +19856,7 @@
         <v>17.82</v>
       </c>
       <c r="M244" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>213.84</v>
       </c>
       <c r="N244" s="67">
@@ -20006,7 +19898,7 @@
         <v>252</v>
       </c>
       <c r="G245" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>KMH</v>
       </c>
       <c r="H245" s="40" t="s">
@@ -20025,7 +19917,7 @@
         <v>12.03</v>
       </c>
       <c r="M245" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>288.71999999999997</v>
       </c>
       <c r="N245" s="67">
@@ -20067,7 +19959,7 @@
         <v>39</v>
       </c>
       <c r="G246" s="120" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8GA</v>
       </c>
       <c r="H246" s="40" t="s">
@@ -20086,7 +19978,7 @@
         <v>21.79</v>
       </c>
       <c r="M246" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1045.92</v>
       </c>
       <c r="N246" s="67">
@@ -20144,7 +20036,7 @@
         <v>17.920000000000002</v>
       </c>
       <c r="M247" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1433.6000000000001</v>
       </c>
       <c r="N247" s="67">
@@ -20183,7 +20075,7 @@
         <v>240</v>
       </c>
       <c r="G248" s="120" t="str">
-        <f t="shared" ref="G248:G259" si="17">RIGHT(B248,3)</f>
+        <f t="shared" ref="G248:G259" si="18">RIGHT(B248,3)</f>
         <v>KMH</v>
       </c>
       <c r="H248" s="40" t="s">
@@ -20202,7 +20094,7 @@
         <v>15.84</v>
       </c>
       <c r="M248" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1900.8</v>
       </c>
       <c r="N248" s="67">
@@ -20230,7 +20122,7 @@
         <v>222</v>
       </c>
       <c r="C249" s="64" t="str">
-        <f t="shared" ref="C249:D255" si="18">LEFT(B249,10)</f>
+        <f t="shared" ref="C249:D255" si="19">LEFT(B249,10)</f>
         <v>H105025303</v>
       </c>
       <c r="D249" s="64"/>
@@ -20241,7 +20133,7 @@
         <v>223</v>
       </c>
       <c r="G249" s="120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>KMH</v>
       </c>
       <c r="H249" s="40" t="s">
@@ -20260,7 +20152,7 @@
         <v>17.25</v>
       </c>
       <c r="M249" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>414</v>
       </c>
       <c r="N249" s="67">
@@ -20288,7 +20180,7 @@
         <v>225</v>
       </c>
       <c r="C250" s="64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>H105025304</v>
       </c>
       <c r="D250" s="64"/>
@@ -20299,7 +20191,7 @@
         <v>226</v>
       </c>
       <c r="G250" s="120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>KMH</v>
       </c>
       <c r="H250" s="40" t="s">
@@ -20318,7 +20210,7 @@
         <v>15.84</v>
       </c>
       <c r="M250" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>760.31999999999994</v>
       </c>
       <c r="N250" s="67">
@@ -20346,7 +20238,7 @@
         <v>142</v>
       </c>
       <c r="C251" s="64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>H105015413</v>
       </c>
       <c r="D251" s="64"/>
@@ -20357,7 +20249,7 @@
         <v>143</v>
       </c>
       <c r="G251" s="120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>KMH</v>
       </c>
       <c r="H251" s="40" t="s">
@@ -20376,7 +20268,7 @@
         <v>12.96</v>
       </c>
       <c r="M251" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>466.56000000000006</v>
       </c>
       <c r="N251" s="67">
@@ -20404,7 +20296,7 @@
         <v>145</v>
       </c>
       <c r="C252" s="64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>H105015419</v>
       </c>
       <c r="D252" s="64"/>
@@ -20415,7 +20307,7 @@
         <v>146</v>
       </c>
       <c r="G252" s="120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>KMH</v>
       </c>
       <c r="H252" s="40" t="s">
@@ -20434,7 +20326,7 @@
         <v>12.48</v>
       </c>
       <c r="M252" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>449.28000000000003</v>
       </c>
       <c r="N252" s="67">
@@ -20462,11 +20354,11 @@
         <v>47</v>
       </c>
       <c r="C253" s="64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9413610013</v>
       </c>
       <c r="D253" s="64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9413610013</v>
       </c>
       <c r="E253" s="42"/>
@@ -20474,7 +20366,7 @@
         <v>48</v>
       </c>
       <c r="G253" s="120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3YL</v>
       </c>
       <c r="H253" s="40" t="s">
@@ -20493,7 +20385,7 @@
         <v>14.3</v>
       </c>
       <c r="M253" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>514.80000000000007</v>
       </c>
       <c r="N253" s="67">
@@ -20521,11 +20413,11 @@
         <v>61</v>
       </c>
       <c r="C254" s="64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9443610210</v>
       </c>
       <c r="D254" s="64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9443610210</v>
       </c>
       <c r="E254" s="42"/>
@@ -20533,7 +20425,7 @@
         <v>62</v>
       </c>
       <c r="G254" s="120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3YL</v>
       </c>
       <c r="H254" s="40" t="s">
@@ -20552,7 +20444,7 @@
         <v>13.98</v>
       </c>
       <c r="M254" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>503.28000000000003</v>
       </c>
       <c r="N254" s="67">
@@ -20580,11 +20472,11 @@
         <v>77</v>
       </c>
       <c r="C255" s="64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9443610791</v>
       </c>
       <c r="D255" s="64" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9443610791</v>
       </c>
       <c r="E255" s="42"/>
@@ -20592,7 +20484,7 @@
         <v>78</v>
       </c>
       <c r="G255" s="120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3YL</v>
       </c>
       <c r="H255" s="40" t="s">
@@ -20611,7 +20503,7 @@
         <v>14.88</v>
       </c>
       <c r="M255" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>535.68000000000006</v>
       </c>
       <c r="N255" s="67">
@@ -20651,7 +20543,7 @@
         <v>230</v>
       </c>
       <c r="G256" s="120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>KMH</v>
       </c>
       <c r="H256" s="40" t="s">
@@ -20670,7 +20562,7 @@
         <v>14.27</v>
       </c>
       <c r="M256" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>684.96</v>
       </c>
       <c r="N256" s="67">
@@ -20704,7 +20596,7 @@
       <c r="E257" s="42"/>
       <c r="F257" s="42"/>
       <c r="G257" s="120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>000</v>
       </c>
       <c r="H257" s="40" t="s">
@@ -20719,7 +20611,7 @@
         <v>320</v>
       </c>
       <c r="M257" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1920</v>
       </c>
       <c r="N257" s="67">
@@ -20755,7 +20647,7 @@
       <c r="E258" s="42"/>
       <c r="F258" s="42"/>
       <c r="G258" s="120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>751</v>
       </c>
       <c r="H258" s="40" t="s">
@@ -20774,7 +20666,7 @@
         <v>31.62</v>
       </c>
       <c r="M258" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>379.44</v>
       </c>
       <c r="N258" s="67">
@@ -20810,7 +20702,7 @@
       <c r="E259" s="42"/>
       <c r="F259" s="42"/>
       <c r="G259" s="120" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>770</v>
       </c>
       <c r="H259" s="40" t="s">
@@ -20829,7 +20721,7 @@
         <v>17.919999999999998</v>
       </c>
       <c r="M259" s="280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3583.9999999999995</v>
       </c>
       <c r="N259" s="67">
@@ -20852,6 +20744,12 @@
   </sheetData>
   <autoFilter ref="A6:T239" xr:uid="{2F793BA1-D7F0-40D2-8D3B-CED77BBED12F}"/>
   <mergeCells count="17">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:J4"/>
@@ -20863,12 +20761,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="E115:E119">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>

--- a/main/main/utils/test/data_1.xlsx
+++ b/main/main/utils/test/data_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5622BA-28AF-4F4E-AAEB-C78C9399090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5EBC15-A266-4795-A101-5DBDEB2A3631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3666,6 +3666,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3691,12 +3697,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3713,7 +3713,223 @@
     <cellStyle name="Normal 4" xfId="3" xr:uid="{2FEF97A9-0DF0-432E-B456-D6BA996991AC}"/>
     <cellStyle name="Normal 5" xfId="6" xr:uid="{71A3FCB0-6F2F-498A-B42D-EC7CACF506E7}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4271,7 +4487,7 @@
   <dimension ref="A1:T259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7:T259"/>
     </sheetView>
   </sheetViews>
@@ -5635,33 +5851,33 @@
       <c r="A4" s="354" t="s">
         <v>550</v>
       </c>
-      <c r="B4" s="365" t="s">
+      <c r="B4" s="356" t="s">
         <v>551</v>
       </c>
-      <c r="C4" s="365" t="s">
+      <c r="C4" s="356" t="s">
         <v>552</v>
       </c>
-      <c r="D4" s="365" t="s">
+      <c r="D4" s="356" t="s">
         <v>553</v>
       </c>
-      <c r="E4" s="365" t="s">
+      <c r="E4" s="356" t="s">
         <v>554</v>
       </c>
       <c r="F4" s="354" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="356" t="s">
+      <c r="G4" s="358" t="s">
         <v>555</v>
       </c>
-      <c r="H4" s="358" t="s">
+      <c r="H4" s="360" t="s">
         <v>556</v>
       </c>
-      <c r="I4" s="359"/>
-      <c r="J4" s="360"/>
-      <c r="K4" s="361" t="s">
+      <c r="I4" s="361"/>
+      <c r="J4" s="362"/>
+      <c r="K4" s="363" t="s">
         <v>557</v>
       </c>
-      <c r="L4" s="363" t="s">
+      <c r="L4" s="365" t="s">
         <v>303</v>
       </c>
       <c r="M4" s="354" t="s">
@@ -5691,12 +5907,12 @@
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="355"/>
-      <c r="B5" s="366"/>
-      <c r="C5" s="366"/>
-      <c r="D5" s="366"/>
-      <c r="E5" s="366"/>
+      <c r="B5" s="357"/>
+      <c r="C5" s="357"/>
+      <c r="D5" s="357"/>
+      <c r="E5" s="357"/>
       <c r="F5" s="355"/>
-      <c r="G5" s="357"/>
+      <c r="G5" s="359"/>
       <c r="H5" s="31" t="s">
         <v>5</v>
       </c>
@@ -5706,8 +5922,8 @@
       <c r="J5" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="K5" s="362"/>
-      <c r="L5" s="364"/>
+      <c r="K5" s="364"/>
+      <c r="L5" s="366"/>
       <c r="M5" s="355"/>
       <c r="N5" s="56" t="s">
         <v>690</v>
@@ -5781,7 +5997,7 @@
         <v>6.34</v>
       </c>
       <c r="M7" s="280">
-        <f t="shared" ref="M7:M17" si="0">L7*K7</f>
+        <f>L7*K7</f>
         <v>1902</v>
       </c>
       <c r="N7" s="67">
@@ -5809,7 +6025,7 @@
         <v>253</v>
       </c>
       <c r="C8" s="64" t="str">
-        <f t="shared" ref="C8:C71" si="1">LEFT(B8,10)</f>
+        <f t="shared" ref="C8:C71" si="0">LEFT(B8,10)</f>
         <v>H105025407</v>
       </c>
       <c r="D8" s="64">
@@ -5822,7 +6038,7 @@
         <v>254</v>
       </c>
       <c r="G8" s="65" t="str">
-        <f t="shared" ref="G8:G71" si="2">RIGHT(B8,3)</f>
+        <f t="shared" ref="G8:G71" si="1">RIGHT(B8,3)</f>
         <v>KMH</v>
       </c>
       <c r="H8" s="40" t="s">
@@ -5841,7 +6057,7 @@
         <v>15.38</v>
       </c>
       <c r="M8" s="280">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M8:M71" si="2">L8*K8</f>
         <v>738.24</v>
       </c>
       <c r="N8" s="67">
@@ -5869,7 +6085,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9413610013</v>
       </c>
       <c r="D9" s="64" t="str">
@@ -5883,7 +6099,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3YL</v>
       </c>
       <c r="H9" s="40" t="s">
@@ -5902,7 +6118,7 @@
         <v>15.42</v>
       </c>
       <c r="M9" s="280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>555.12</v>
       </c>
       <c r="N9" s="67">
@@ -5930,7 +6146,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9443610210</v>
       </c>
       <c r="D10" s="64" t="str">
@@ -5944,7 +6160,7 @@
         <v>62</v>
       </c>
       <c r="G10" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3YL</v>
       </c>
       <c r="H10" s="40" t="s">
@@ -5963,7 +6179,7 @@
         <v>15.07</v>
       </c>
       <c r="M10" s="280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>542.52</v>
       </c>
       <c r="N10" s="67">
@@ -5991,7 +6207,7 @@
         <v>139</v>
       </c>
       <c r="C11" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105015393</v>
       </c>
       <c r="D11" s="64">
@@ -6004,7 +6220,7 @@
         <v>140</v>
       </c>
       <c r="G11" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H11" s="40" t="s">
@@ -6023,7 +6239,7 @@
         <v>15.97</v>
       </c>
       <c r="M11" s="280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>574.92000000000007</v>
       </c>
       <c r="N11" s="67">
@@ -6051,7 +6267,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105015413</v>
       </c>
       <c r="D12" s="64">
@@ -6064,7 +6280,7 @@
         <v>143</v>
       </c>
       <c r="G12" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H12" s="40" t="s">
@@ -6083,7 +6299,7 @@
         <v>13.06</v>
       </c>
       <c r="M12" s="280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>470.16</v>
       </c>
       <c r="N12" s="67">
@@ -6111,7 +6327,7 @@
         <v>145</v>
       </c>
       <c r="C13" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105015419</v>
       </c>
       <c r="D13" s="64">
@@ -6124,7 +6340,7 @@
         <v>146</v>
       </c>
       <c r="G13" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H13" s="40" t="s">
@@ -6143,7 +6359,7 @@
         <v>13.44</v>
       </c>
       <c r="M13" s="280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>483.84</v>
       </c>
       <c r="N13" s="67">
@@ -6171,7 +6387,7 @@
         <v>183</v>
       </c>
       <c r="C14" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105017010</v>
       </c>
       <c r="D14" s="64">
@@ -6184,7 +6400,7 @@
         <v>184</v>
       </c>
       <c r="G14" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H14" s="40" t="s">
@@ -6203,7 +6419,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="M14" s="280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>600.12000000000012</v>
       </c>
       <c r="N14" s="67">
@@ -6231,7 +6447,7 @@
         <v>248</v>
       </c>
       <c r="C15" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9443610074</v>
       </c>
       <c r="D15" s="64">
@@ -6244,7 +6460,7 @@
         <v>249</v>
       </c>
       <c r="G15" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3YL</v>
       </c>
       <c r="H15" s="40" t="s">
@@ -6263,7 +6479,7 @@
         <v>14.88</v>
       </c>
       <c r="M15" s="280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>535.68000000000006</v>
       </c>
       <c r="N15" s="67">
@@ -6291,7 +6507,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9413614194</v>
       </c>
       <c r="D16" s="64" t="str">
@@ -6305,7 +6521,7 @@
         <v>58</v>
       </c>
       <c r="G16" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3YL</v>
       </c>
       <c r="H16" s="40" t="s">
@@ -6324,7 +6540,7 @@
         <v>14.24</v>
       </c>
       <c r="M16" s="280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>341.76</v>
       </c>
       <c r="N16" s="67">
@@ -6352,7 +6568,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9443610218</v>
       </c>
       <c r="D17" s="64" t="str">
@@ -6366,7 +6582,7 @@
         <v>66</v>
       </c>
       <c r="G17" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3YL</v>
       </c>
       <c r="H17" s="40" t="s">
@@ -6385,7 +6601,7 @@
         <v>13.66</v>
       </c>
       <c r="M17" s="280">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>327.84000000000003</v>
       </c>
       <c r="N17" s="67">
@@ -6413,7 +6629,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9443610468</v>
       </c>
       <c r="D18" s="64" t="str">
@@ -6427,7 +6643,7 @@
         <v>74</v>
       </c>
       <c r="G18" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3YL</v>
       </c>
       <c r="H18" s="40" t="s">
@@ -6446,7 +6662,7 @@
         <v>15.1</v>
       </c>
       <c r="M18" s="280">
-        <f>L18*K18</f>
+        <f t="shared" si="2"/>
         <v>362.4</v>
       </c>
       <c r="N18" s="67">
@@ -6474,7 +6690,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9443610791</v>
       </c>
       <c r="D19" s="64" t="str">
@@ -6488,7 +6704,7 @@
         <v>78</v>
       </c>
       <c r="G19" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3YL</v>
       </c>
       <c r="H19" s="40" t="s">
@@ -6507,7 +6723,7 @@
         <v>16.03</v>
       </c>
       <c r="M19" s="280">
-        <f t="shared" ref="M19:M82" si="4">L19*K19</f>
+        <f t="shared" si="2"/>
         <v>384.72</v>
       </c>
       <c r="N19" s="67">
@@ -6535,7 +6751,7 @@
         <v>174</v>
       </c>
       <c r="C20" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105015869</v>
       </c>
       <c r="D20" s="64">
@@ -6548,7 +6764,7 @@
         <v>175</v>
       </c>
       <c r="G20" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H20" s="40" t="s">
@@ -6567,7 +6783,7 @@
         <v>16.670000000000002</v>
       </c>
       <c r="M20" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>400.08000000000004</v>
       </c>
       <c r="N20" s="67">
@@ -6595,7 +6811,7 @@
         <v>373</v>
       </c>
       <c r="C21" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105017005</v>
       </c>
       <c r="D21" s="64">
@@ -6608,7 +6824,7 @@
         <v>561</v>
       </c>
       <c r="G21" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H21" s="40" t="s">
@@ -6627,7 +6843,7 @@
         <v>18.21</v>
       </c>
       <c r="M21" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>437.04</v>
       </c>
       <c r="N21" s="67">
@@ -6655,7 +6871,7 @@
         <v>374</v>
       </c>
       <c r="C22" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105017009</v>
       </c>
       <c r="D22" s="64">
@@ -6668,7 +6884,7 @@
         <v>563</v>
       </c>
       <c r="G22" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H22" s="40" t="s">
@@ -6687,7 +6903,7 @@
         <v>16.93</v>
       </c>
       <c r="M22" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>406.32</v>
       </c>
       <c r="N22" s="67">
@@ -6715,7 +6931,7 @@
         <v>207</v>
       </c>
       <c r="C23" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105025029</v>
       </c>
       <c r="D23" s="64">
@@ -6728,7 +6944,7 @@
         <v>208</v>
       </c>
       <c r="G23" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H23" s="40" t="s">
@@ -6747,7 +6963,7 @@
         <v>17.73</v>
       </c>
       <c r="M23" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>425.52</v>
       </c>
       <c r="N23" s="67">
@@ -6775,7 +6991,7 @@
         <v>213</v>
       </c>
       <c r="C24" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105025145</v>
       </c>
       <c r="D24" s="64">
@@ -6788,7 +7004,7 @@
         <v>214</v>
       </c>
       <c r="G24" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H24" s="40" t="s">
@@ -6807,7 +7023,7 @@
         <v>21.12</v>
       </c>
       <c r="M24" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>506.88</v>
       </c>
       <c r="N24" s="67">
@@ -6835,7 +7051,7 @@
         <v>225</v>
       </c>
       <c r="C25" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105025304</v>
       </c>
       <c r="D25" s="64">
@@ -6848,7 +7064,7 @@
         <v>226</v>
       </c>
       <c r="G25" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H25" s="40" t="s">
@@ -6867,7 +7083,7 @@
         <v>15.39</v>
       </c>
       <c r="M25" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>369.36</v>
       </c>
       <c r="N25" s="67">
@@ -6895,7 +7111,7 @@
         <v>375</v>
       </c>
       <c r="C26" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433171454</v>
       </c>
       <c r="D26" s="64" t="s">
@@ -6906,7 +7122,7 @@
         <v>565</v>
       </c>
       <c r="G26" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75Y</v>
       </c>
       <c r="H26" s="40" t="s">
@@ -6925,7 +7141,7 @@
         <v>12.45</v>
       </c>
       <c r="M26" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>149.39999999999998</v>
       </c>
       <c r="N26" s="67">
@@ -6953,7 +7169,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9413610135</v>
       </c>
       <c r="D27" s="64" t="str">
@@ -6967,7 +7183,7 @@
         <v>54</v>
       </c>
       <c r="G27" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3YL</v>
       </c>
       <c r="H27" s="40" t="s">
@@ -6986,7 +7202,7 @@
         <v>14.82</v>
       </c>
       <c r="M27" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>177.84</v>
       </c>
       <c r="N27" s="67">
@@ -7014,7 +7230,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9443610373</v>
       </c>
       <c r="D28" s="64" t="str">
@@ -7028,7 +7244,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3YL</v>
       </c>
       <c r="H28" s="40" t="s">
@@ -7047,7 +7263,7 @@
         <v>13.47</v>
       </c>
       <c r="M28" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>161.64000000000001</v>
       </c>
       <c r="N28" s="67">
@@ -7075,7 +7291,7 @@
         <v>156</v>
       </c>
       <c r="C29" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105015569</v>
       </c>
       <c r="D29" s="64">
@@ -7088,7 +7304,7 @@
         <v>157</v>
       </c>
       <c r="G29" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H29" s="40" t="s">
@@ -7107,7 +7323,7 @@
         <v>13.74</v>
       </c>
       <c r="M29" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>164.88</v>
       </c>
       <c r="N29" s="67">
@@ -7135,7 +7351,7 @@
         <v>165</v>
       </c>
       <c r="C30" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105015783</v>
       </c>
       <c r="D30" s="64">
@@ -7148,7 +7364,7 @@
         <v>166</v>
       </c>
       <c r="G30" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H30" s="40" t="s">
@@ -7167,7 +7383,7 @@
         <v>15.18</v>
       </c>
       <c r="M30" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>182.16</v>
       </c>
       <c r="N30" s="67">
@@ -7195,7 +7411,7 @@
         <v>171</v>
       </c>
       <c r="C31" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105015852</v>
       </c>
       <c r="D31" s="64">
@@ -7208,7 +7424,7 @@
         <v>172</v>
       </c>
       <c r="G31" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H31" s="40" t="s">
@@ -7227,7 +7443,7 @@
         <v>15.78</v>
       </c>
       <c r="M31" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>189.35999999999999</v>
       </c>
       <c r="N31" s="67">
@@ -7255,7 +7471,7 @@
         <v>189</v>
       </c>
       <c r="C32" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105017053</v>
       </c>
       <c r="D32" s="64">
@@ -7268,7 +7484,7 @@
         <v>190</v>
       </c>
       <c r="G32" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H32" s="40" t="s">
@@ -7287,7 +7503,7 @@
         <v>15.39</v>
       </c>
       <c r="M32" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>184.68</v>
       </c>
       <c r="N32" s="67">
@@ -7315,7 +7531,7 @@
         <v>377</v>
       </c>
       <c r="C33" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105017063</v>
       </c>
       <c r="D33" s="64">
@@ -7328,7 +7544,7 @@
         <v>567</v>
       </c>
       <c r="G33" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H33" s="40" t="s">
@@ -7347,7 +7563,7 @@
         <v>18.559999999999999</v>
       </c>
       <c r="M33" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>222.71999999999997</v>
       </c>
       <c r="N33" s="67">
@@ -7375,7 +7591,7 @@
         <v>259</v>
       </c>
       <c r="C34" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105017267</v>
       </c>
       <c r="D34" s="64">
@@ -7388,7 +7604,7 @@
         <v>260</v>
       </c>
       <c r="G34" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H34" s="40" t="s">
@@ -7407,7 +7623,7 @@
         <v>17.02</v>
       </c>
       <c r="M34" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>204.24</v>
       </c>
       <c r="N34" s="67">
@@ -7435,7 +7651,7 @@
         <v>251</v>
       </c>
       <c r="C35" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105017354</v>
       </c>
       <c r="D35" s="64">
@@ -7448,7 +7664,7 @@
         <v>252</v>
       </c>
       <c r="G35" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H35" s="40" t="s">
@@ -7467,7 +7683,7 @@
         <v>9.86</v>
       </c>
       <c r="M35" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>118.32</v>
       </c>
       <c r="N35" s="67">
@@ -7495,7 +7711,7 @@
         <v>201</v>
       </c>
       <c r="C36" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105025012</v>
       </c>
       <c r="D36" s="64">
@@ -7508,7 +7724,7 @@
         <v>202</v>
       </c>
       <c r="G36" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H36" s="40" t="s">
@@ -7527,7 +7743,7 @@
         <v>19.14</v>
       </c>
       <c r="M36" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>229.68</v>
       </c>
       <c r="N36" s="67">
@@ -7555,7 +7771,7 @@
         <v>222</v>
       </c>
       <c r="C37" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105025303</v>
       </c>
       <c r="D37" s="64">
@@ -7568,7 +7784,7 @@
         <v>223</v>
       </c>
       <c r="G37" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H37" s="40" t="s">
@@ -7587,7 +7803,7 @@
         <v>18.78</v>
       </c>
       <c r="M37" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>225.36</v>
       </c>
       <c r="N37" s="67">
@@ -7615,7 +7831,7 @@
         <v>229</v>
       </c>
       <c r="C38" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105025325</v>
       </c>
       <c r="D38" s="64">
@@ -7628,7 +7844,7 @@
         <v>230</v>
       </c>
       <c r="G38" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H38" s="40" t="s">
@@ -7647,7 +7863,7 @@
         <v>15.23</v>
       </c>
       <c r="M38" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>182.76</v>
       </c>
       <c r="N38" s="67">
@@ -7675,7 +7891,7 @@
         <v>232</v>
       </c>
       <c r="C39" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105025327</v>
       </c>
       <c r="D39" s="64">
@@ -7688,7 +7904,7 @@
         <v>233</v>
       </c>
       <c r="G39" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H39" s="40" t="s">
@@ -7707,7 +7923,7 @@
         <v>18.98</v>
       </c>
       <c r="M39" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>227.76</v>
       </c>
       <c r="N39" s="67">
@@ -7735,7 +7951,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433175414</v>
       </c>
       <c r="D40" s="64" t="str">
@@ -7747,7 +7963,7 @@
         <v>42</v>
       </c>
       <c r="G40" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8GA</v>
       </c>
       <c r="H40" s="33" t="s">
@@ -7766,7 +7982,7 @@
         <v>23.24</v>
       </c>
       <c r="M40" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6971.9999999999991</v>
       </c>
       <c r="N40" s="67">
@@ -7794,7 +8010,7 @@
         <v>239</v>
       </c>
       <c r="C41" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>H105025343</v>
       </c>
       <c r="D41" s="64">
@@ -7807,7 +8023,7 @@
         <v>240</v>
       </c>
       <c r="G41" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>KMH</v>
       </c>
       <c r="H41" s="33" t="s">
@@ -7826,7 +8042,7 @@
         <v>15.4</v>
       </c>
       <c r="M41" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4620</v>
       </c>
       <c r="N41" s="67">
@@ -7854,7 +8070,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433175413</v>
       </c>
       <c r="D42" s="64" t="str">
@@ -7866,7 +8082,7 @@
         <v>39</v>
       </c>
       <c r="G42" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8GA</v>
       </c>
       <c r="H42" s="33" t="s">
@@ -7885,7 +8101,7 @@
         <v>23.24</v>
       </c>
       <c r="M42" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2788.7999999999997</v>
       </c>
       <c r="N42" s="67">
@@ -7913,7 +8129,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F002C40030</v>
       </c>
       <c r="D43" s="64" t="str">
@@ -7925,7 +8141,7 @@
         <v>88</v>
       </c>
       <c r="G43" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41N</v>
       </c>
       <c r="H43" s="33" t="s">
@@ -7944,7 +8160,7 @@
         <v>7.46</v>
       </c>
       <c r="M43" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>895.2</v>
       </c>
       <c r="N43" s="67">
@@ -7972,7 +8188,7 @@
         <v>90</v>
       </c>
       <c r="C44" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F002C40031</v>
       </c>
       <c r="D44" s="64" t="str">
@@ -7984,7 +8200,7 @@
         <v>91</v>
       </c>
       <c r="G44" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41N</v>
       </c>
       <c r="H44" s="33" t="s">
@@ -8003,7 +8219,7 @@
         <v>7.81</v>
       </c>
       <c r="M44" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>937.19999999999993</v>
       </c>
       <c r="N44" s="67">
@@ -8031,7 +8247,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433171806</v>
       </c>
       <c r="D45" s="64" t="s">
@@ -8042,7 +8258,7 @@
         <v>27</v>
       </c>
       <c r="G45" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8GA</v>
       </c>
       <c r="H45" s="33" t="s">
@@ -8061,7 +8277,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="M45" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>829.80000000000007</v>
       </c>
       <c r="N45" s="67">
@@ -8089,7 +8305,7 @@
         <v>379</v>
       </c>
       <c r="C46" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0440050007</v>
       </c>
       <c r="D46" s="64" t="str">
@@ -8099,7 +8315,7 @@
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
       <c r="G46" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>810</v>
       </c>
       <c r="H46" s="40" t="s">
@@ -8116,7 +8332,7 @@
         <v>60</v>
       </c>
       <c r="M46" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
       <c r="N46" s="67">
@@ -8144,7 +8360,7 @@
         <v>383</v>
       </c>
       <c r="C47" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433175484</v>
       </c>
       <c r="D47" s="64" t="s">
@@ -8155,7 +8371,7 @@
         <v>569</v>
       </c>
       <c r="G47" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8GA</v>
       </c>
       <c r="H47" s="33" t="s">
@@ -8174,7 +8390,7 @@
         <v>11.42</v>
       </c>
       <c r="M47" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>411.12</v>
       </c>
       <c r="N47" s="67">
@@ -8202,7 +8418,7 @@
         <v>278</v>
       </c>
       <c r="C48" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2434614020</v>
       </c>
       <c r="D48" s="64" t="s">
@@ -8211,7 +8427,7 @@
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
       <c r="G48" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
       <c r="H48" s="40" t="s">
@@ -8228,7 +8444,7 @@
         <v>0.32</v>
       </c>
       <c r="M48" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
       <c r="N48" s="67">
@@ -8256,7 +8472,7 @@
         <v>97</v>
       </c>
       <c r="C49" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F00H4S0008</v>
       </c>
       <c r="D49" s="64" t="s">
@@ -8265,7 +8481,7 @@
       <c r="E49" s="42"/>
       <c r="F49" s="42"/>
       <c r="G49" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>741</v>
       </c>
       <c r="H49" s="40" t="s">
@@ -8284,7 +8500,7 @@
         <v>7.33</v>
       </c>
       <c r="M49" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>219.9</v>
       </c>
       <c r="N49" s="67">
@@ -8312,7 +8528,7 @@
         <v>387</v>
       </c>
       <c r="C50" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F00ZB20001</v>
       </c>
       <c r="D50" s="64" t="s">
@@ -8321,7 +8537,7 @@
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
       <c r="G50" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>741</v>
       </c>
       <c r="H50" s="40" t="s">
@@ -8338,7 +8554,7 @@
         <v>0.74</v>
       </c>
       <c r="M50" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>22.2</v>
       </c>
       <c r="N50" s="67">
@@ -8366,7 +8582,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433172080</v>
       </c>
       <c r="D51" s="64" t="str">
@@ -8378,7 +8594,7 @@
         <v>36</v>
       </c>
       <c r="G51" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75N</v>
       </c>
       <c r="H51" s="33" t="s">
@@ -8397,7 +8613,7 @@
         <v>32</v>
       </c>
       <c r="M51" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>768</v>
       </c>
       <c r="N51" s="67">
@@ -8425,7 +8641,7 @@
         <v>263</v>
       </c>
       <c r="C52" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433172221</v>
       </c>
       <c r="D52" s="64" t="s">
@@ -8436,7 +8652,7 @@
         <v>264</v>
       </c>
       <c r="G52" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8GA</v>
       </c>
       <c r="H52" s="33" t="s">
@@ -8455,7 +8671,7 @@
         <v>18.05</v>
       </c>
       <c r="M52" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>433.20000000000005</v>
       </c>
       <c r="N52" s="67">
@@ -8483,7 +8699,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0281006117</v>
       </c>
       <c r="D53" s="64" t="str">
@@ -8493,7 +8709,7 @@
       <c r="E53" s="42"/>
       <c r="F53" s="42"/>
       <c r="G53" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>000</v>
       </c>
       <c r="H53" s="66" t="s">
@@ -8512,7 +8728,7 @@
         <v>21</v>
       </c>
       <c r="M53" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="N53" s="67">
@@ -8540,7 +8756,7 @@
         <v>390</v>
       </c>
       <c r="C54" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F00N210223</v>
       </c>
       <c r="D54" s="64" t="s">
@@ -8549,7 +8765,7 @@
       <c r="E54" s="42"/>
       <c r="F54" s="42"/>
       <c r="G54" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>391</v>
       </c>
       <c r="H54" s="66" t="s">
@@ -8568,7 +8784,7 @@
         <v>67.260000000000005</v>
       </c>
       <c r="M54" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1345.2</v>
       </c>
       <c r="N54" s="67">
@@ -8596,7 +8812,7 @@
         <v>276</v>
       </c>
       <c r="C55" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433171843</v>
       </c>
       <c r="D55" s="64" t="s">
@@ -8607,7 +8823,7 @@
         <v>277</v>
       </c>
       <c r="G55" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8GA</v>
       </c>
       <c r="H55" s="73" t="s">
@@ -8626,7 +8842,7 @@
         <v>28.5</v>
       </c>
       <c r="M55" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>342</v>
       </c>
       <c r="N55" s="67">
@@ -8654,7 +8870,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433171871</v>
       </c>
       <c r="D56" s="64" t="str">
@@ -8666,7 +8882,7 @@
         <v>30</v>
       </c>
       <c r="G56" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75N</v>
       </c>
       <c r="H56" s="73" t="s">
@@ -8685,7 +8901,7 @@
         <v>27.62</v>
       </c>
       <c r="M56" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>331.44</v>
       </c>
       <c r="N56" s="67">
@@ -8713,7 +8929,7 @@
         <v>392</v>
       </c>
       <c r="C57" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433171875</v>
       </c>
       <c r="D57" s="64" t="s">
@@ -8724,7 +8940,7 @@
         <v>574</v>
       </c>
       <c r="G57" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8GA</v>
       </c>
       <c r="H57" s="73" t="s">
@@ -8743,7 +8959,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="M57" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>110.64000000000001</v>
       </c>
       <c r="N57" s="67">
@@ -8771,7 +8987,7 @@
         <v>32</v>
       </c>
       <c r="C58" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433171982</v>
       </c>
       <c r="D58" s="64" t="str">
@@ -8783,7 +8999,7 @@
         <v>575</v>
       </c>
       <c r="G58" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4N6</v>
       </c>
       <c r="H58" s="73" t="s">
@@ -8802,7 +9018,7 @@
         <v>27.5</v>
       </c>
       <c r="M58" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="N58" s="67">
@@ -8830,7 +9046,7 @@
         <v>393</v>
       </c>
       <c r="C59" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433171984</v>
       </c>
       <c r="D59" s="64" t="s">
@@ -8841,7 +9057,7 @@
         <v>577</v>
       </c>
       <c r="G59" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75N</v>
       </c>
       <c r="H59" s="73" t="s">
@@ -8860,7 +9076,7 @@
         <v>30.72</v>
       </c>
       <c r="M59" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>368.64</v>
       </c>
       <c r="N59" s="67">
@@ -8888,7 +9104,7 @@
         <v>85</v>
       </c>
       <c r="C60" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F002B70044</v>
       </c>
       <c r="D60" s="64" t="s">
@@ -8897,7 +9113,7 @@
       <c r="E60" s="42"/>
       <c r="F60" s="165"/>
       <c r="G60" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41N</v>
       </c>
       <c r="H60" s="80" t="s">
@@ -8916,7 +9132,7 @@
         <v>2.5</v>
       </c>
       <c r="M60" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="N60" s="67">
@@ -8944,7 +9160,7 @@
         <v>109</v>
       </c>
       <c r="C61" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F00RJ01727</v>
       </c>
       <c r="D61" s="64" t="str">
@@ -8954,7 +9170,7 @@
       <c r="E61" s="42"/>
       <c r="F61" s="42"/>
       <c r="G61" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>879</v>
       </c>
       <c r="H61" s="81" t="s">
@@ -8973,7 +9189,7 @@
         <v>23.74</v>
       </c>
       <c r="M61" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>284.88</v>
       </c>
       <c r="N61" s="67">
@@ -9001,7 +9217,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F00RJ02213</v>
       </c>
       <c r="D62" s="64" t="str">
@@ -9011,7 +9227,7 @@
       <c r="E62" s="42"/>
       <c r="F62" s="42"/>
       <c r="G62" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>751</v>
       </c>
       <c r="H62" s="81" t="s">
@@ -9030,7 +9246,7 @@
         <v>39</v>
       </c>
       <c r="M62" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>468</v>
       </c>
       <c r="N62" s="67">
@@ -9058,7 +9274,7 @@
         <v>120</v>
       </c>
       <c r="C63" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F00VC01352</v>
       </c>
       <c r="D63" s="64" t="str">
@@ -9068,7 +9284,7 @@
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
       <c r="G63" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
       <c r="H63" s="81" t="s">
@@ -9087,7 +9303,7 @@
         <v>27</v>
       </c>
       <c r="M63" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="N63" s="67">
@@ -9115,7 +9331,7 @@
         <v>125</v>
       </c>
       <c r="C64" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F018B06804</v>
       </c>
       <c r="D64" s="64" t="s">
@@ -9124,7 +9340,7 @@
       <c r="E64" s="42"/>
       <c r="F64" s="42"/>
       <c r="G64" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>741</v>
       </c>
       <c r="H64" s="66" t="s">
@@ -9143,7 +9359,7 @@
         <v>8.93</v>
       </c>
       <c r="M64" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>107.16</v>
       </c>
       <c r="N64" s="67">
@@ -9171,7 +9387,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0281002942</v>
       </c>
       <c r="D65" s="64" t="str">
@@ -9181,7 +9397,7 @@
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
       <c r="G65" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>001</v>
       </c>
       <c r="H65" s="66" t="s">
@@ -9200,7 +9416,7 @@
         <v>22.11</v>
       </c>
       <c r="M65" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>221.1</v>
       </c>
       <c r="N65" s="67">
@@ -9228,7 +9444,7 @@
         <v>93</v>
       </c>
       <c r="C66" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F002H23520</v>
       </c>
       <c r="D66" s="64" t="s">
@@ -9237,7 +9453,7 @@
       <c r="E66" s="42"/>
       <c r="F66" s="42"/>
       <c r="G66" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>772</v>
       </c>
       <c r="H66" s="66" t="s">
@@ -9256,7 +9472,7 @@
         <v>3.36</v>
       </c>
       <c r="M66" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>33.6</v>
       </c>
       <c r="N66" s="67">
@@ -9284,7 +9500,7 @@
         <v>101</v>
       </c>
       <c r="C67" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F00N010001</v>
       </c>
       <c r="D67" s="64" t="str">
@@ -9294,7 +9510,7 @@
       <c r="E67" s="42"/>
       <c r="F67" s="42"/>
       <c r="G67" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="H67" s="80" t="s">
@@ -9313,7 +9529,7 @@
         <v>16.16</v>
       </c>
       <c r="M67" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>161.6</v>
       </c>
       <c r="N67" s="67">
@@ -9341,7 +9557,7 @@
         <v>274</v>
       </c>
       <c r="C68" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0433172040</v>
       </c>
       <c r="D68" s="64" t="s">
@@ -9352,7 +9568,7 @@
         <v>275</v>
       </c>
       <c r="G68" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8GA</v>
       </c>
       <c r="H68" s="73" t="s">
@@ -9371,7 +9587,7 @@
         <v>28.38</v>
       </c>
       <c r="M68" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>170.28</v>
       </c>
       <c r="N68" s="67">
@@ -9399,7 +9615,7 @@
         <v>396</v>
       </c>
       <c r="C69" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0445120265</v>
       </c>
       <c r="D69" s="64" t="s">
@@ -9408,7 +9624,7 @@
       <c r="E69" s="42"/>
       <c r="F69" s="42"/>
       <c r="G69" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>879</v>
       </c>
       <c r="H69" s="66" t="s">
@@ -9427,7 +9643,7 @@
         <v>100</v>
       </c>
       <c r="M69" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="N69" s="67">
@@ -9455,7 +9671,7 @@
         <v>113</v>
       </c>
       <c r="C70" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F00RJ01941</v>
       </c>
       <c r="D70" s="64" t="str">
@@ -9465,7 +9681,7 @@
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
       <c r="G70" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>751</v>
       </c>
       <c r="H70" s="73" t="s">
@@ -9484,7 +9700,7 @@
         <v>27</v>
       </c>
       <c r="M70" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="N70" s="67">
@@ -9512,7 +9728,7 @@
         <v>267</v>
       </c>
       <c r="C71" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>F00RJ02035</v>
       </c>
       <c r="D71" s="64" t="s">
@@ -9521,7 +9737,7 @@
       <c r="E71" s="42"/>
       <c r="F71" s="42"/>
       <c r="G71" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>879</v>
       </c>
       <c r="H71" s="73" t="s">
@@ -9540,7 +9756,7 @@
         <v>21.5</v>
       </c>
       <c r="M71" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="N71" s="67">
@@ -9568,7 +9784,7 @@
         <v>399</v>
       </c>
       <c r="C72" s="64" t="str">
-        <f t="shared" ref="C72:C135" si="5">LEFT(B72,10)</f>
+        <f t="shared" ref="C72:C135" si="4">LEFT(B72,10)</f>
         <v>F00RJ02130</v>
       </c>
       <c r="D72" s="64" t="s">
@@ -9577,7 +9793,7 @@
       <c r="E72" s="42"/>
       <c r="F72" s="42"/>
       <c r="G72" s="65" t="str">
-        <f t="shared" ref="G72:G135" si="6">RIGHT(B72,3)</f>
+        <f t="shared" ref="G72:G135" si="5">RIGHT(B72,3)</f>
         <v>751</v>
       </c>
       <c r="H72" s="81" t="s">
@@ -9596,7 +9812,7 @@
         <v>28.67</v>
       </c>
       <c r="M72" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M72:M135" si="6">L72*K72</f>
         <v>172.02</v>
       </c>
       <c r="N72" s="67">
@@ -9624,7 +9840,7 @@
         <v>118</v>
       </c>
       <c r="C73" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>F00VC01033</v>
       </c>
       <c r="D73" s="64" t="str">
@@ -9634,7 +9850,7 @@
       <c r="E73" s="42"/>
       <c r="F73" s="42"/>
       <c r="G73" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>770</v>
       </c>
       <c r="H73" s="73" t="s">
@@ -9653,7 +9869,7 @@
         <v>25.49</v>
       </c>
       <c r="M73" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>152.94</v>
       </c>
       <c r="N73" s="67">
@@ -9681,7 +9897,7 @@
         <v>105</v>
       </c>
       <c r="C74" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>F00N210061</v>
       </c>
       <c r="D74" s="64" t="s">
@@ -9690,7 +9906,7 @@
       <c r="E74" s="42"/>
       <c r="F74" s="42"/>
       <c r="G74" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>000</v>
       </c>
       <c r="H74" s="40" t="s">
@@ -9709,7 +9925,7 @@
         <v>29.86</v>
       </c>
       <c r="M74" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>149.30000000000001</v>
       </c>
       <c r="N74" s="67">
@@ -9737,7 +9953,7 @@
         <v>135</v>
       </c>
       <c r="C75" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105007121</v>
       </c>
       <c r="D75" s="64">
@@ -9750,7 +9966,7 @@
         <v>136</v>
       </c>
       <c r="G75" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H75" s="40" t="s">
@@ -9769,7 +9985,7 @@
         <v>5.15</v>
       </c>
       <c r="M75" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1297.8000000000002</v>
       </c>
       <c r="N75" s="67">
@@ -9797,7 +10013,7 @@
         <v>255</v>
       </c>
       <c r="C76" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9413610953</v>
       </c>
       <c r="D76" s="82">
@@ -9810,7 +10026,7 @@
         <v>256</v>
       </c>
       <c r="G76" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3CA</v>
       </c>
       <c r="H76" s="66" t="s">
@@ -9829,7 +10045,7 @@
         <v>15.5</v>
       </c>
       <c r="M76" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>372</v>
       </c>
       <c r="N76" s="67">
@@ -9857,7 +10073,7 @@
         <v>129</v>
       </c>
       <c r="C77" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>F01G0V5000</v>
       </c>
       <c r="D77" s="64" t="str">
@@ -9869,7 +10085,7 @@
         <v>130</v>
       </c>
       <c r="G77" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H77" s="40" t="s">
@@ -9888,7 +10104,7 @@
         <v>12.384</v>
       </c>
       <c r="M77" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>297.21600000000001</v>
       </c>
       <c r="N77" s="67">
@@ -9916,7 +10132,7 @@
         <v>401</v>
       </c>
       <c r="C78" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105017014</v>
       </c>
       <c r="D78" s="64" t="s">
@@ -9929,7 +10145,7 @@
         <v>583</v>
       </c>
       <c r="G78" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H78" s="40" t="s">
@@ -9948,7 +10164,7 @@
         <v>16.758000000000003</v>
       </c>
       <c r="M78" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>402.19200000000006</v>
       </c>
       <c r="N78" s="67">
@@ -9976,7 +10192,7 @@
         <v>402</v>
       </c>
       <c r="C79" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105017104</v>
       </c>
       <c r="D79" s="83" t="s">
@@ -9989,7 +10205,7 @@
         <v>586</v>
       </c>
       <c r="G79" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H79" s="40" t="s">
@@ -10008,7 +10224,7 @@
         <v>18.95</v>
       </c>
       <c r="M79" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>454.79999999999995</v>
       </c>
       <c r="N79" s="67">
@@ -10036,7 +10252,7 @@
         <v>272</v>
       </c>
       <c r="C80" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025099</v>
       </c>
       <c r="D80" s="83" t="s">
@@ -10049,7 +10265,7 @@
         <v>273</v>
       </c>
       <c r="G80" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H80" s="40" t="s">
@@ -10068,7 +10284,7 @@
         <v>14.544</v>
       </c>
       <c r="M80" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>349.05600000000004</v>
       </c>
       <c r="N80" s="67">
@@ -10096,7 +10312,7 @@
         <v>403</v>
       </c>
       <c r="C81" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9413610102</v>
       </c>
       <c r="D81" s="83">
@@ -10109,7 +10325,7 @@
         <v>588</v>
       </c>
       <c r="G81" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3YL</v>
       </c>
       <c r="H81" s="40" t="s">
@@ -10128,7 +10344,7 @@
         <v>13.45</v>
       </c>
       <c r="M81" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>161.39999999999998</v>
       </c>
       <c r="N81" s="67">
@@ -10156,7 +10372,7 @@
         <v>14</v>
       </c>
       <c r="C82" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0433171329</v>
       </c>
       <c r="D82" s="64" t="str">
@@ -10168,7 +10384,7 @@
         <v>15</v>
       </c>
       <c r="G82" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8GA</v>
       </c>
       <c r="H82" s="40" t="s">
@@ -10187,7 +10403,7 @@
         <v>19.385999999999999</v>
       </c>
       <c r="M82" s="280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>232.63200000000001</v>
       </c>
       <c r="N82" s="67">
@@ -10215,7 +10431,7 @@
         <v>270</v>
       </c>
       <c r="C83" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0433171478</v>
       </c>
       <c r="D83" s="83" t="s">
@@ -10226,7 +10442,7 @@
         <v>271</v>
       </c>
       <c r="G83" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8GA</v>
       </c>
       <c r="H83" s="40" t="s">
@@ -10245,7 +10461,7 @@
         <v>13.157999999999999</v>
       </c>
       <c r="M83" s="280">
-        <f t="shared" ref="M83:M146" si="8">L83*K83</f>
+        <f t="shared" si="6"/>
         <v>157.89599999999999</v>
       </c>
       <c r="N83" s="67">
@@ -10273,7 +10489,7 @@
         <v>19</v>
       </c>
       <c r="C84" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0433171529</v>
       </c>
       <c r="D84" s="83" t="s">
@@ -10284,7 +10500,7 @@
         <v>20</v>
       </c>
       <c r="G84" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8GA</v>
       </c>
       <c r="H84" s="40" t="s">
@@ -10303,7 +10519,7 @@
         <v>11.664000000000001</v>
       </c>
       <c r="M84" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>139.96800000000002</v>
       </c>
       <c r="N84" s="67">
@@ -10331,7 +10547,7 @@
         <v>148</v>
       </c>
       <c r="C85" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105015485</v>
       </c>
       <c r="D85" s="83" t="s">
@@ -10344,7 +10560,7 @@
         <v>149</v>
       </c>
       <c r="G85" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H85" s="40" t="s">
@@ -10363,7 +10579,7 @@
         <v>11.808</v>
       </c>
       <c r="M85" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>141.696</v>
       </c>
       <c r="N85" s="67">
@@ -10391,7 +10607,7 @@
         <v>152</v>
       </c>
       <c r="C86" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105015538</v>
       </c>
       <c r="D86" s="83" t="s">
@@ -10404,7 +10620,7 @@
         <v>153</v>
       </c>
       <c r="G86" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H86" s="40" t="s">
@@ -10423,7 +10639,7 @@
         <v>15.408000000000001</v>
       </c>
       <c r="M86" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>184.89600000000002</v>
       </c>
       <c r="N86" s="67">
@@ -10451,7 +10667,7 @@
         <v>159</v>
       </c>
       <c r="C87" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105015595</v>
       </c>
       <c r="D87" s="64">
@@ -10464,7 +10680,7 @@
         <v>160</v>
       </c>
       <c r="G87" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H87" s="40" t="s">
@@ -10483,7 +10699,7 @@
         <v>12.528</v>
       </c>
       <c r="M87" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>150.33600000000001</v>
       </c>
       <c r="N87" s="67">
@@ -10511,7 +10727,7 @@
         <v>168</v>
       </c>
       <c r="C88" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105015829</v>
       </c>
       <c r="D88" s="64">
@@ -10524,7 +10740,7 @@
         <v>169</v>
       </c>
       <c r="G88" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H88" s="40" t="s">
@@ -10543,7 +10759,7 @@
         <v>22.95</v>
       </c>
       <c r="M88" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>275.39999999999998</v>
       </c>
       <c r="N88" s="67">
@@ -10571,7 +10787,7 @@
         <v>177</v>
       </c>
       <c r="C89" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105015878</v>
       </c>
       <c r="D89" s="63">
@@ -10584,7 +10800,7 @@
         <v>178</v>
       </c>
       <c r="G89" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H89" s="66" t="s">
@@ -10603,7 +10819,7 @@
         <v>14.202</v>
       </c>
       <c r="M89" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>170.42400000000001</v>
       </c>
       <c r="N89" s="67">
@@ -10631,7 +10847,7 @@
         <v>180</v>
       </c>
       <c r="C90" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105015892</v>
       </c>
       <c r="D90" s="64">
@@ -10644,7 +10860,7 @@
         <v>181</v>
       </c>
       <c r="G90" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H90" s="66" t="s">
@@ -10663,7 +10879,7 @@
         <v>16.940000000000001</v>
       </c>
       <c r="M90" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>203.28000000000003</v>
       </c>
       <c r="N90" s="67">
@@ -10691,7 +10907,7 @@
         <v>186</v>
       </c>
       <c r="C91" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105017042</v>
       </c>
       <c r="D91" s="64">
@@ -10704,7 +10920,7 @@
         <v>187</v>
       </c>
       <c r="G91" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H91" s="66" t="s">
@@ -10723,7 +10939,7 @@
         <v>11.835000000000001</v>
       </c>
       <c r="M91" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>142.02000000000001</v>
       </c>
       <c r="N91" s="67">
@@ -10751,7 +10967,7 @@
         <v>404</v>
       </c>
       <c r="C92" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105017049</v>
       </c>
       <c r="D92" s="83">
@@ -10764,7 +10980,7 @@
         <v>590</v>
       </c>
       <c r="G92" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H92" s="66" t="s">
@@ -10783,7 +10999,7 @@
         <v>14.921999999999999</v>
       </c>
       <c r="M92" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>179.06399999999999</v>
       </c>
       <c r="N92" s="67">
@@ -10811,7 +11027,7 @@
         <v>405</v>
       </c>
       <c r="C93" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105017088</v>
       </c>
       <c r="D93" s="83" t="s">
@@ -10824,7 +11040,7 @@
         <v>593</v>
       </c>
       <c r="G93" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H93" s="66" t="s">
@@ -10843,7 +11059,7 @@
         <v>16.470000000000002</v>
       </c>
       <c r="M93" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>197.64000000000004</v>
       </c>
       <c r="N93" s="67">
@@ -10871,7 +11087,7 @@
         <v>192</v>
       </c>
       <c r="C94" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105017154</v>
       </c>
       <c r="D94" s="64">
@@ -10884,7 +11100,7 @@
         <v>193</v>
       </c>
       <c r="G94" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H94" s="66" t="s">
@@ -10903,7 +11119,7 @@
         <v>13.995000000000001</v>
       </c>
       <c r="M94" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>167.94</v>
       </c>
       <c r="N94" s="67">
@@ -10931,7 +11147,7 @@
         <v>406</v>
       </c>
       <c r="C95" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105017203</v>
       </c>
       <c r="D95" s="83">
@@ -10944,7 +11160,7 @@
         <v>595</v>
       </c>
       <c r="G95" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H95" s="40" t="s">
@@ -10963,7 +11179,7 @@
         <v>11.574</v>
       </c>
       <c r="M95" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>138.88800000000001</v>
       </c>
       <c r="N95" s="67">
@@ -10991,7 +11207,7 @@
         <v>195</v>
       </c>
       <c r="C96" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105017238</v>
       </c>
       <c r="D96" s="64">
@@ -11004,7 +11220,7 @@
         <v>196</v>
       </c>
       <c r="G96" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H96" s="66" t="s">
@@ -11023,7 +11239,7 @@
         <v>11.376000000000001</v>
       </c>
       <c r="M96" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>136.512</v>
       </c>
       <c r="N96" s="67">
@@ -11051,7 +11267,7 @@
         <v>210</v>
       </c>
       <c r="C97" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025080</v>
       </c>
       <c r="D97" s="64">
@@ -11064,7 +11280,7 @@
         <v>211</v>
       </c>
       <c r="G97" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H97" s="40" t="s">
@@ -11083,7 +11299,7 @@
         <v>22.841999999999999</v>
       </c>
       <c r="M97" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>274.10399999999998</v>
       </c>
       <c r="N97" s="67">
@@ -11111,7 +11327,7 @@
         <v>216</v>
       </c>
       <c r="C98" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025190</v>
       </c>
       <c r="D98" s="64">
@@ -11124,7 +11340,7 @@
         <v>217</v>
       </c>
       <c r="G98" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H98" s="66" t="s">
@@ -11143,7 +11359,7 @@
         <v>15.61</v>
       </c>
       <c r="M98" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>187.32</v>
       </c>
       <c r="N98" s="67">
@@ -11171,7 +11387,7 @@
         <v>257</v>
       </c>
       <c r="C99" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025328</v>
       </c>
       <c r="D99" s="64">
@@ -11184,7 +11400,7 @@
         <v>258</v>
       </c>
       <c r="G99" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H99" s="66" t="s">
@@ -11203,7 +11419,7 @@
         <v>17.334000000000003</v>
       </c>
       <c r="M99" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>208.00800000000004</v>
       </c>
       <c r="N99" s="67">
@@ -11231,7 +11447,7 @@
         <v>235</v>
       </c>
       <c r="C100" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025329</v>
       </c>
       <c r="D100" s="64">
@@ -11244,7 +11460,7 @@
         <v>236</v>
       </c>
       <c r="G100" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H100" s="40" t="s">
@@ -11263,7 +11479,7 @@
         <v>15.67</v>
       </c>
       <c r="M100" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>188.04</v>
       </c>
       <c r="N100" s="67">
@@ -11291,7 +11507,7 @@
         <v>122</v>
       </c>
       <c r="C101" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>F00VC01359</v>
       </c>
       <c r="D101" s="64" t="str">
@@ -11301,7 +11517,7 @@
       <c r="E101" s="42"/>
       <c r="F101" s="42"/>
       <c r="G101" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>770</v>
       </c>
       <c r="H101" s="33" t="s">
@@ -11320,7 +11536,7 @@
         <v>18.5</v>
       </c>
       <c r="M101" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4440</v>
       </c>
       <c r="N101" s="67">
@@ -11348,7 +11564,7 @@
         <v>145</v>
       </c>
       <c r="C102" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105015419</v>
       </c>
       <c r="D102" s="64">
@@ -11361,7 +11577,7 @@
         <v>146</v>
       </c>
       <c r="G102" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H102" s="73" t="s">
@@ -11380,7 +11596,7 @@
         <v>13.44</v>
       </c>
       <c r="M102" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>483.84</v>
       </c>
       <c r="N102" s="67">
@@ -11408,7 +11624,7 @@
         <v>207</v>
       </c>
       <c r="C103" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025029</v>
       </c>
       <c r="D103" s="64">
@@ -11421,7 +11637,7 @@
         <v>208</v>
       </c>
       <c r="G103" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H103" s="73" t="s">
@@ -11440,7 +11656,7 @@
         <v>17.73</v>
       </c>
       <c r="M103" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>638.28</v>
       </c>
       <c r="N103" s="67">
@@ -11468,7 +11684,7 @@
         <v>403</v>
       </c>
       <c r="C104" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9413610102</v>
       </c>
       <c r="D104" s="64">
@@ -11481,7 +11697,7 @@
         <v>588</v>
       </c>
       <c r="G104" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3YL</v>
       </c>
       <c r="H104" s="66" t="s">
@@ -11500,7 +11716,7 @@
         <v>13.45</v>
       </c>
       <c r="M104" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>322.79999999999995</v>
       </c>
       <c r="N104" s="67">
@@ -11528,7 +11744,7 @@
         <v>255</v>
       </c>
       <c r="C105" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9413610953</v>
       </c>
       <c r="D105" s="87">
@@ -11541,7 +11757,7 @@
         <v>256</v>
       </c>
       <c r="G105" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3CA</v>
       </c>
       <c r="H105" s="40" t="s">
@@ -11560,7 +11776,7 @@
         <v>15.5</v>
       </c>
       <c r="M105" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>372</v>
       </c>
       <c r="N105" s="67">
@@ -11588,7 +11804,7 @@
         <v>47</v>
       </c>
       <c r="C106" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9413610013</v>
       </c>
       <c r="D106" s="87">
@@ -11601,7 +11817,7 @@
         <v>48</v>
       </c>
       <c r="G106" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3YL</v>
       </c>
       <c r="H106" s="66" t="s">
@@ -11620,7 +11836,7 @@
         <v>15.42</v>
       </c>
       <c r="M106" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>370.08</v>
       </c>
       <c r="N106" s="67">
@@ -11648,7 +11864,7 @@
         <v>61</v>
       </c>
       <c r="C107" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9443610210</v>
       </c>
       <c r="D107" s="64">
@@ -11661,7 +11877,7 @@
         <v>62</v>
       </c>
       <c r="G107" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3YL</v>
       </c>
       <c r="H107" s="66" t="s">
@@ -11680,7 +11896,7 @@
         <v>15.07</v>
       </c>
       <c r="M107" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>180.84</v>
       </c>
       <c r="N107" s="67">
@@ -11708,7 +11924,7 @@
         <v>69</v>
       </c>
       <c r="C108" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9443610373</v>
       </c>
       <c r="D108" s="64">
@@ -11721,7 +11937,7 @@
         <v>70</v>
       </c>
       <c r="G108" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3YL</v>
       </c>
       <c r="H108" s="66" t="s">
@@ -11740,7 +11956,7 @@
         <v>13.47</v>
       </c>
       <c r="M108" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>161.64000000000001</v>
       </c>
       <c r="N108" s="67">
@@ -11768,7 +11984,7 @@
         <v>409</v>
       </c>
       <c r="C109" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0432191285</v>
       </c>
       <c r="D109" s="88" t="s">
@@ -11777,7 +11993,7 @@
       <c r="E109" s="42"/>
       <c r="F109" s="42"/>
       <c r="G109" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>741</v>
       </c>
       <c r="H109" s="66" t="s">
@@ -11794,7 +12010,7 @@
         <v>43.86</v>
       </c>
       <c r="M109" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>526.31999999999994</v>
       </c>
       <c r="N109" s="67">
@@ -11822,7 +12038,7 @@
         <v>198</v>
       </c>
       <c r="C110" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105017259</v>
       </c>
       <c r="D110" s="64">
@@ -11835,7 +12051,7 @@
         <v>199</v>
       </c>
       <c r="G110" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H110" s="66" t="s">
@@ -11854,7 +12070,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="M110" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>109.44</v>
       </c>
       <c r="N110" s="67">
@@ -11882,7 +12098,7 @@
         <v>263</v>
       </c>
       <c r="C111" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0433172221</v>
       </c>
       <c r="D111" s="64" t="s">
@@ -11893,7 +12109,7 @@
         <v>264</v>
       </c>
       <c r="G111" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8GA</v>
       </c>
       <c r="H111" s="66" t="s">
@@ -11912,7 +12128,7 @@
         <v>18.05</v>
       </c>
       <c r="M111" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>866.40000000000009</v>
       </c>
       <c r="N111" s="67">
@@ -11940,7 +12156,7 @@
         <v>412</v>
       </c>
       <c r="C112" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0433175269</v>
       </c>
       <c r="D112" s="83" t="s">
@@ -11951,7 +12167,7 @@
         <v>598</v>
       </c>
       <c r="G112" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>41N</v>
       </c>
       <c r="H112" s="66" t="s">
@@ -11970,7 +12186,7 @@
         <v>24.64</v>
       </c>
       <c r="M112" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>591.36</v>
       </c>
       <c r="N112" s="67">
@@ -11998,7 +12214,7 @@
         <v>41</v>
       </c>
       <c r="C113" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0433175414</v>
       </c>
       <c r="D113" s="64" t="str">
@@ -12010,7 +12226,7 @@
         <v>42</v>
       </c>
       <c r="G113" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8GA</v>
       </c>
       <c r="H113" s="66" t="s">
@@ -12029,7 +12245,7 @@
         <v>23.24</v>
       </c>
       <c r="M113" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2788.7999999999997</v>
       </c>
       <c r="N113" s="67">
@@ -12057,7 +12273,7 @@
         <v>239</v>
       </c>
       <c r="C114" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025343</v>
       </c>
       <c r="D114" s="64" t="str">
@@ -12071,7 +12287,7 @@
         <v>240</v>
       </c>
       <c r="G114" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H114" s="66" t="s">
@@ -12090,7 +12306,7 @@
         <v>15.4</v>
       </c>
       <c r="M114" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1848</v>
       </c>
       <c r="N114" s="67">
@@ -12118,7 +12334,7 @@
         <v>263</v>
       </c>
       <c r="C115" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0433172221</v>
       </c>
       <c r="D115" s="83" t="s">
@@ -12129,7 +12345,7 @@
         <v>264</v>
       </c>
       <c r="G115" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8GA</v>
       </c>
       <c r="H115" s="66" t="s">
@@ -12148,7 +12364,7 @@
         <v>18.05</v>
       </c>
       <c r="M115" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>433.20000000000005</v>
       </c>
       <c r="N115" s="67">
@@ -12176,7 +12392,7 @@
         <v>109</v>
       </c>
       <c r="C116" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>F00RJ01727</v>
       </c>
       <c r="D116" s="64" t="str">
@@ -12186,7 +12402,7 @@
       <c r="E116" s="42"/>
       <c r="F116" s="85"/>
       <c r="G116" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>879</v>
       </c>
       <c r="H116" s="81" t="s">
@@ -12205,7 +12421,7 @@
         <v>23.74</v>
       </c>
       <c r="M116" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>284.88</v>
       </c>
       <c r="N116" s="67">
@@ -12233,7 +12449,7 @@
         <v>113</v>
       </c>
       <c r="C117" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>F00RJ01941</v>
       </c>
       <c r="D117" s="64" t="str">
@@ -12243,7 +12459,7 @@
       <c r="E117" s="42"/>
       <c r="F117" s="85"/>
       <c r="G117" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>751</v>
       </c>
       <c r="H117" s="81" t="s">
@@ -12262,7 +12478,7 @@
         <v>27</v>
       </c>
       <c r="M117" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
       <c r="N117" s="67">
@@ -12290,7 +12506,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>F00RJ02213</v>
       </c>
       <c r="D118" s="64" t="str">
@@ -12300,7 +12516,7 @@
       <c r="E118" s="42"/>
       <c r="F118" s="85"/>
       <c r="G118" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>751</v>
       </c>
       <c r="H118" s="81" t="s">
@@ -12319,7 +12535,7 @@
         <v>39</v>
       </c>
       <c r="M118" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>468</v>
       </c>
       <c r="N118" s="67">
@@ -12347,7 +12563,7 @@
         <v>22</v>
       </c>
       <c r="C119" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0433171743</v>
       </c>
       <c r="D119" s="64" t="str">
@@ -12359,7 +12575,7 @@
         <v>23</v>
       </c>
       <c r="G119" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8GA</v>
       </c>
       <c r="H119" s="66" t="s">
@@ -12378,7 +12594,7 @@
         <v>17.86</v>
       </c>
       <c r="M119" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>642.96</v>
       </c>
       <c r="N119" s="67">
@@ -12406,7 +12622,7 @@
         <v>417</v>
       </c>
       <c r="C120" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025018</v>
       </c>
       <c r="D120" s="83">
@@ -12419,7 +12635,7 @@
         <v>600</v>
       </c>
       <c r="G120" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H120" s="92" t="s">
@@ -12438,7 +12654,7 @@
         <v>14.94</v>
       </c>
       <c r="M120" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>358.56</v>
       </c>
       <c r="N120" s="67">
@@ -12466,7 +12682,7 @@
         <v>418</v>
       </c>
       <c r="C121" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0433171208</v>
       </c>
       <c r="D121" s="83" t="s">
@@ -12477,7 +12693,7 @@
         <v>602</v>
       </c>
       <c r="G121" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8GA</v>
       </c>
       <c r="H121" s="92" t="s">
@@ -12496,7 +12712,7 @@
         <v>11.94</v>
       </c>
       <c r="M121" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>143.28</v>
       </c>
       <c r="N121" s="67">
@@ -12524,7 +12740,7 @@
         <v>265</v>
       </c>
       <c r="C122" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0433171444</v>
       </c>
       <c r="D122" s="83" t="s">
@@ -12535,7 +12751,7 @@
         <v>266</v>
       </c>
       <c r="G122" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8GA</v>
       </c>
       <c r="H122" s="92" t="s">
@@ -12554,7 +12770,7 @@
         <v>18.88</v>
       </c>
       <c r="M122" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>226.56</v>
       </c>
       <c r="N122" s="67">
@@ -12582,7 +12798,7 @@
         <v>81</v>
       </c>
       <c r="C123" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9443611853</v>
       </c>
       <c r="D123" s="64">
@@ -12595,7 +12811,7 @@
         <v>82</v>
       </c>
       <c r="G123" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3YL</v>
       </c>
       <c r="H123" s="66" t="s">
@@ -12614,7 +12830,7 @@
         <v>21.41</v>
       </c>
       <c r="M123" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>256.92</v>
       </c>
       <c r="N123" s="67">
@@ -12642,7 +12858,7 @@
         <v>162</v>
       </c>
       <c r="C124" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105015615</v>
       </c>
       <c r="D124" s="64">
@@ -12655,7 +12871,7 @@
         <v>163</v>
       </c>
       <c r="G124" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H124" s="92" t="s">
@@ -12674,7 +12890,7 @@
         <v>15.26</v>
       </c>
       <c r="M124" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>183.12</v>
       </c>
       <c r="N124" s="67">
@@ -12702,7 +12918,7 @@
         <v>204</v>
       </c>
       <c r="C125" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025021</v>
       </c>
       <c r="D125" s="64">
@@ -12715,7 +12931,7 @@
         <v>205</v>
       </c>
       <c r="G125" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H125" s="92" t="s">
@@ -12734,7 +12950,7 @@
         <v>20.03</v>
       </c>
       <c r="M125" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>240.36</v>
       </c>
       <c r="N125" s="67">
@@ -12762,7 +12978,7 @@
         <v>242</v>
       </c>
       <c r="C126" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025400</v>
       </c>
       <c r="D126" s="64">
@@ -12775,7 +12991,7 @@
         <v>243</v>
       </c>
       <c r="G126" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H126" s="92" t="s">
@@ -12794,7 +13010,7 @@
         <v>15.65</v>
       </c>
       <c r="M126" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>187.8</v>
       </c>
       <c r="N126" s="67">
@@ -12822,7 +13038,7 @@
         <v>245</v>
       </c>
       <c r="C127" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025420</v>
       </c>
       <c r="D127" s="64">
@@ -12835,7 +13051,7 @@
         <v>246</v>
       </c>
       <c r="G127" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H127" s="95" t="s">
@@ -12854,7 +13070,7 @@
         <v>19.39</v>
       </c>
       <c r="M127" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>232.68</v>
       </c>
       <c r="N127" s="67">
@@ -12882,7 +13098,7 @@
         <v>41</v>
       </c>
       <c r="C128" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0433175414</v>
       </c>
       <c r="D128" s="64" t="str">
@@ -12894,7 +13110,7 @@
         <v>42</v>
       </c>
       <c r="G128" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8GA</v>
       </c>
       <c r="H128" s="95" t="s">
@@ -12913,7 +13129,7 @@
         <v>23.24</v>
       </c>
       <c r="M128" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2788.7999999999997</v>
       </c>
       <c r="N128" s="67">
@@ -12941,7 +13157,7 @@
         <v>239</v>
       </c>
       <c r="C129" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105025343</v>
       </c>
       <c r="D129" s="64">
@@ -12954,7 +13170,7 @@
         <v>240</v>
       </c>
       <c r="G129" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H129" s="95" t="s">
@@ -12973,7 +13189,7 @@
         <v>15.4</v>
       </c>
       <c r="M129" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1848</v>
       </c>
       <c r="N129" s="67">
@@ -13001,7 +13217,7 @@
         <v>44</v>
       </c>
       <c r="C130" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0445020126</v>
       </c>
       <c r="D130" s="64" t="str">
@@ -13011,7 +13227,7 @@
       <c r="E130" s="42"/>
       <c r="F130" s="42"/>
       <c r="G130" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>391</v>
       </c>
       <c r="H130" s="40" t="s">
@@ -13030,7 +13246,7 @@
         <v>920</v>
       </c>
       <c r="M130" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>16560</v>
       </c>
       <c r="N130" s="67">
@@ -13058,7 +13274,7 @@
         <v>255</v>
       </c>
       <c r="C131" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9413610953</v>
       </c>
       <c r="D131" s="83" t="s">
@@ -13071,7 +13287,7 @@
         <v>256</v>
       </c>
       <c r="G131" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3CA</v>
       </c>
       <c r="H131" s="40" t="s">
@@ -13090,7 +13306,7 @@
         <v>15.5</v>
       </c>
       <c r="M131" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>372</v>
       </c>
       <c r="N131" s="67">
@@ -13101,7 +13317,7 @@
         <v>418887.50000000006</v>
       </c>
       <c r="P131" s="93">
-        <f t="shared" ref="P131:P137" si="9">ROUND(L131*1.15*23500/0.85,-4)</f>
+        <f t="shared" ref="P131:P137" si="8">ROUND(L131*1.15*23500/0.85,-4)</f>
         <v>490000</v>
       </c>
       <c r="Q131" s="31"/>
@@ -13121,7 +13337,7 @@
         <v>195</v>
       </c>
       <c r="C132" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105017238</v>
       </c>
       <c r="D132" s="64">
@@ -13134,7 +13350,7 @@
         <v>196</v>
       </c>
       <c r="G132" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H132" s="40" t="s">
@@ -13153,7 +13369,7 @@
         <v>11.38</v>
       </c>
       <c r="M132" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>273.12</v>
       </c>
       <c r="N132" s="67">
@@ -13164,7 +13380,7 @@
         <v>307544.50000000006</v>
       </c>
       <c r="P132" s="93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>360000</v>
       </c>
       <c r="Q132" s="31"/>
@@ -13184,7 +13400,7 @@
         <v>422</v>
       </c>
       <c r="C133" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9443610704</v>
       </c>
       <c r="D133" s="83">
@@ -13197,7 +13413,7 @@
         <v>605</v>
       </c>
       <c r="G133" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3YL</v>
       </c>
       <c r="H133" s="40" t="s">
@@ -13216,7 +13432,7 @@
         <v>14.5</v>
       </c>
       <c r="M133" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>174</v>
       </c>
       <c r="N133" s="67">
@@ -13227,7 +13443,7 @@
         <v>391862.5</v>
       </c>
       <c r="P133" s="93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>460000</v>
       </c>
       <c r="Q133" s="31"/>
@@ -13247,7 +13463,7 @@
         <v>279</v>
       </c>
       <c r="C134" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105015718</v>
       </c>
       <c r="D134" s="64">
@@ -13260,7 +13476,7 @@
         <v>280</v>
       </c>
       <c r="G134" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H134" s="40" t="s">
@@ -13279,7 +13495,7 @@
         <v>19.420000000000002</v>
       </c>
       <c r="M134" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>233.04000000000002</v>
       </c>
       <c r="N134" s="67">
@@ -13290,7 +13506,7 @@
         <v>524825.50000000012</v>
       </c>
       <c r="P134" s="93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>620000</v>
       </c>
       <c r="Q134" s="31"/>
@@ -13310,7 +13526,7 @@
         <v>424</v>
       </c>
       <c r="C135" s="64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>H105017185</v>
       </c>
       <c r="D135" s="64">
@@ -13323,7 +13539,7 @@
         <v>607</v>
       </c>
       <c r="G135" s="65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>KMH</v>
       </c>
       <c r="H135" s="40" t="s">
@@ -13342,7 +13558,7 @@
         <v>15.36</v>
       </c>
       <c r="M135" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>184.32</v>
       </c>
       <c r="N135" s="67">
@@ -13353,7 +13569,7 @@
         <v>415104.00000000006</v>
       </c>
       <c r="P135" s="93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>490000</v>
       </c>
       <c r="Q135" s="31"/>
@@ -13373,7 +13589,7 @@
         <v>195</v>
       </c>
       <c r="C136" s="64" t="str">
-        <f t="shared" ref="C136:C199" si="10">LEFT(B136,10)</f>
+        <f t="shared" ref="C136:C199" si="9">LEFT(B136,10)</f>
         <v>H105017238</v>
       </c>
       <c r="D136" s="64">
@@ -13386,7 +13602,7 @@
         <v>196</v>
       </c>
       <c r="G136" s="65" t="str">
-        <f t="shared" ref="G136:G199" si="11">RIGHT(B136,3)</f>
+        <f t="shared" ref="G136:G199" si="10">RIGHT(B136,3)</f>
         <v>KMH</v>
       </c>
       <c r="H136" s="40" t="s">
@@ -13405,7 +13621,7 @@
         <v>11.38</v>
       </c>
       <c r="M136" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="M136:M199" si="11">L136*K136</f>
         <v>136.56</v>
       </c>
       <c r="N136" s="67">
@@ -13416,7 +13632,7 @@
         <v>307544.50000000006</v>
       </c>
       <c r="P136" s="93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>360000</v>
       </c>
       <c r="Q136" s="31"/>
@@ -13436,7 +13652,7 @@
         <v>253</v>
       </c>
       <c r="C137" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105025407</v>
       </c>
       <c r="D137" s="64">
@@ -13449,7 +13665,7 @@
         <v>254</v>
       </c>
       <c r="G137" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H137" s="40" t="s">
@@ -13468,7 +13684,7 @@
         <v>15.38</v>
       </c>
       <c r="M137" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>184.56</v>
       </c>
       <c r="N137" s="67">
@@ -13479,7 +13695,7 @@
         <v>415644.50000000012</v>
       </c>
       <c r="P137" s="93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>490000</v>
       </c>
       <c r="Q137" s="31"/>
@@ -13499,7 +13715,7 @@
         <v>422</v>
       </c>
       <c r="C138" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9443610704</v>
       </c>
       <c r="D138" s="83">
@@ -13512,7 +13728,7 @@
         <v>605</v>
       </c>
       <c r="G138" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3YL</v>
       </c>
       <c r="H138" s="40" t="s">
@@ -13531,7 +13747,7 @@
         <v>13.44</v>
       </c>
       <c r="M138" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>725.76</v>
       </c>
       <c r="N138" s="67">
@@ -13557,7 +13773,7 @@
         <v>61</v>
       </c>
       <c r="C139" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9443610210</v>
       </c>
       <c r="D139" s="83">
@@ -13570,7 +13786,7 @@
         <v>62</v>
       </c>
       <c r="G139" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3YL</v>
       </c>
       <c r="H139" s="40" t="s">
@@ -13589,7 +13805,7 @@
         <v>13.98</v>
       </c>
       <c r="M139" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>503.28000000000003</v>
       </c>
       <c r="N139" s="67">
@@ -13615,7 +13831,7 @@
         <v>116</v>
       </c>
       <c r="C140" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F00RJ02213</v>
       </c>
       <c r="D140" s="64" t="str">
@@ -13625,7 +13841,7 @@
       <c r="E140" s="63"/>
       <c r="F140" s="42"/>
       <c r="G140" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>751</v>
       </c>
       <c r="H140" s="96" t="s">
@@ -13644,7 +13860,7 @@
         <v>41.12</v>
       </c>
       <c r="M140" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1480.32</v>
       </c>
       <c r="N140" s="67">
@@ -13671,7 +13887,7 @@
         <v>219</v>
       </c>
       <c r="C141" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105025224</v>
       </c>
       <c r="D141" s="64">
@@ -13684,7 +13900,7 @@
         <v>220</v>
       </c>
       <c r="G141" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H141" s="40" t="s">
@@ -13703,7 +13919,7 @@
         <v>19.739999999999998</v>
       </c>
       <c r="M141" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>710.64</v>
       </c>
       <c r="N141" s="67">
@@ -13731,7 +13947,7 @@
         <v>65</v>
       </c>
       <c r="C142" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9443610218</v>
       </c>
       <c r="D142" s="64">
@@ -13744,7 +13960,7 @@
         <v>66</v>
       </c>
       <c r="G142" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3YL</v>
       </c>
       <c r="H142" s="40" t="s">
@@ -13763,7 +13979,7 @@
         <v>12.7</v>
       </c>
       <c r="M142" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>304.79999999999995</v>
       </c>
       <c r="N142" s="67">
@@ -13789,7 +14005,7 @@
         <v>261</v>
       </c>
       <c r="C143" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105015649</v>
       </c>
       <c r="D143" s="64">
@@ -13802,7 +14018,7 @@
         <v>262</v>
       </c>
       <c r="G143" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H143" s="66" t="s">
@@ -13821,7 +14037,7 @@
         <v>14.82</v>
       </c>
       <c r="M143" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>177.84</v>
       </c>
       <c r="N143" s="67">
@@ -13847,7 +14063,7 @@
         <v>426</v>
       </c>
       <c r="C144" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9443610188</v>
       </c>
       <c r="D144" s="83">
@@ -13860,7 +14076,7 @@
         <v>609</v>
       </c>
       <c r="G144" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3YL</v>
       </c>
       <c r="H144" s="40" t="s">
@@ -13879,7 +14095,7 @@
         <v>13.66</v>
       </c>
       <c r="M144" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>163.92000000000002</v>
       </c>
       <c r="N144" s="67">
@@ -13905,7 +14121,7 @@
         <v>239</v>
       </c>
       <c r="C145" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105025343</v>
       </c>
       <c r="D145" s="64">
@@ -13918,7 +14134,7 @@
         <v>240</v>
       </c>
       <c r="G145" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H145" s="40" t="s">
@@ -13937,7 +14153,7 @@
         <v>15.84</v>
       </c>
       <c r="M145" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1900.8</v>
       </c>
       <c r="N145" s="67">
@@ -13965,7 +14181,7 @@
         <v>198</v>
       </c>
       <c r="C146" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105017259</v>
       </c>
       <c r="D146" s="64">
@@ -13978,7 +14194,7 @@
         <v>199</v>
       </c>
       <c r="G146" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H146" s="40" t="s">
@@ -13997,7 +14213,7 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="M146" s="280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>338</v>
       </c>
       <c r="N146" s="67">
@@ -14025,7 +14241,7 @@
         <v>428</v>
       </c>
       <c r="C147" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433171776</v>
       </c>
       <c r="D147" s="64" t="s">
@@ -14036,7 +14252,7 @@
         <v>611</v>
       </c>
       <c r="G147" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8GA</v>
       </c>
       <c r="H147" s="40" t="s">
@@ -14055,7 +14271,7 @@
         <v>12.06</v>
       </c>
       <c r="M147" s="280">
-        <f t="shared" ref="M147:M210" si="13">L147*K147</f>
+        <f t="shared" si="11"/>
         <v>144.72</v>
       </c>
       <c r="N147" s="67">
@@ -14083,7 +14299,7 @@
         <v>38</v>
       </c>
       <c r="C148" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433175413</v>
       </c>
       <c r="D148" s="64" t="str">
@@ -14095,7 +14311,7 @@
         <v>39</v>
       </c>
       <c r="G148" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8GA</v>
       </c>
       <c r="H148" s="40" t="s">
@@ -14114,7 +14330,7 @@
         <v>23.24</v>
       </c>
       <c r="M148" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2788.7999999999997</v>
       </c>
       <c r="N148" s="67">
@@ -14142,7 +14358,7 @@
         <v>198</v>
       </c>
       <c r="C149" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105017259</v>
       </c>
       <c r="D149" s="64">
@@ -14155,7 +14371,7 @@
         <v>199</v>
       </c>
       <c r="G149" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H149" s="40" t="s">
@@ -14174,7 +14390,7 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="M149" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>101.39999999999999</v>
       </c>
       <c r="N149" s="67">
@@ -14204,7 +14420,7 @@
         <v>44</v>
       </c>
       <c r="C150" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0445020126</v>
       </c>
       <c r="D150" s="64" t="str">
@@ -14214,7 +14430,7 @@
       <c r="E150" s="99"/>
       <c r="F150" s="42"/>
       <c r="G150" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>391</v>
       </c>
       <c r="H150" s="33" t="s">
@@ -14233,7 +14449,7 @@
         <v>1203.04</v>
       </c>
       <c r="M150" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>24060.799999999999</v>
       </c>
       <c r="N150" s="67">
@@ -14263,7 +14479,7 @@
         <v>109</v>
       </c>
       <c r="C151" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F00RJ01727</v>
       </c>
       <c r="D151" s="64" t="str">
@@ -14273,7 +14489,7 @@
       <c r="E151" s="99"/>
       <c r="F151" s="42"/>
       <c r="G151" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>879</v>
       </c>
       <c r="H151" s="96" t="s">
@@ -14292,7 +14508,7 @@
         <v>23.87</v>
       </c>
       <c r="M151" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1432.2</v>
       </c>
       <c r="N151" s="67">
@@ -14320,7 +14536,7 @@
         <v>399</v>
       </c>
       <c r="C152" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F00RJ02130</v>
       </c>
       <c r="D152" s="64" t="s">
@@ -14329,7 +14545,7 @@
       <c r="E152" s="99"/>
       <c r="F152" s="42"/>
       <c r="G152" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>751</v>
       </c>
       <c r="H152" s="33" t="s">
@@ -14348,7 +14564,7 @@
         <v>28.67</v>
       </c>
       <c r="M152" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1376.16</v>
       </c>
       <c r="N152" s="67">
@@ -14376,7 +14592,7 @@
         <v>433</v>
       </c>
       <c r="C153" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F00RJ01657</v>
       </c>
       <c r="D153" s="64" t="s">
@@ -14385,7 +14601,7 @@
       <c r="E153" s="99"/>
       <c r="F153" s="42"/>
       <c r="G153" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>879</v>
       </c>
       <c r="H153" s="30" t="s">
@@ -14404,7 +14620,7 @@
         <v>25.66</v>
       </c>
       <c r="M153" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>307.92</v>
       </c>
       <c r="N153" s="67">
@@ -14432,7 +14648,7 @@
         <v>267</v>
       </c>
       <c r="C154" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F00RJ02035</v>
       </c>
       <c r="D154" s="64" t="s">
@@ -14441,7 +14657,7 @@
       <c r="E154" s="99"/>
       <c r="F154" s="42"/>
       <c r="G154" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>879</v>
       </c>
       <c r="H154" s="30" t="s">
@@ -14460,7 +14676,7 @@
         <v>26.69</v>
       </c>
       <c r="M154" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1281.1200000000001</v>
       </c>
       <c r="N154" s="67">
@@ -14490,7 +14706,7 @@
         <v>125</v>
       </c>
       <c r="C155" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F018B06804</v>
       </c>
       <c r="D155" s="64" t="s">
@@ -14499,7 +14715,7 @@
       <c r="E155" s="99"/>
       <c r="F155" s="42"/>
       <c r="G155" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>741</v>
       </c>
       <c r="H155" s="40" t="s">
@@ -14518,7 +14734,7 @@
         <v>8.19</v>
       </c>
       <c r="M155" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>245.7</v>
       </c>
       <c r="N155" s="67">
@@ -14548,7 +14764,7 @@
         <v>268</v>
       </c>
       <c r="C156" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433171768</v>
       </c>
       <c r="D156" s="64" t="s">
@@ -14559,7 +14775,7 @@
         <v>269</v>
       </c>
       <c r="G156" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8GA</v>
       </c>
       <c r="H156" s="40" t="s">
@@ -14578,7 +14794,7 @@
         <v>11.62</v>
       </c>
       <c r="M156" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>278.88</v>
       </c>
       <c r="N156" s="67">
@@ -14608,7 +14824,7 @@
         <v>440</v>
       </c>
       <c r="C157" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433171453</v>
       </c>
       <c r="D157" s="64" t="s">
@@ -14619,7 +14835,7 @@
         <v>614</v>
       </c>
       <c r="G157" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8GA</v>
       </c>
       <c r="H157" s="40" t="s">
@@ -14638,7 +14854,7 @@
         <v>14.53</v>
       </c>
       <c r="M157" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>174.35999999999999</v>
       </c>
       <c r="N157" s="67">
@@ -14668,7 +14884,7 @@
         <v>442</v>
       </c>
       <c r="C158" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F00RJ01683</v>
       </c>
       <c r="D158" s="64" t="s">
@@ -14677,7 +14893,7 @@
       <c r="E158" s="99"/>
       <c r="F158" s="42"/>
       <c r="G158" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>741</v>
       </c>
       <c r="H158" s="35" t="s">
@@ -14696,7 +14912,7 @@
         <v>39.68</v>
       </c>
       <c r="M158" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>476.15999999999997</v>
       </c>
       <c r="N158" s="67">
@@ -14726,7 +14942,7 @@
         <v>281</v>
       </c>
       <c r="C159" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0460426367</v>
       </c>
       <c r="D159" s="64" t="s">
@@ -14735,7 +14951,7 @@
       <c r="E159" s="99"/>
       <c r="F159" s="42"/>
       <c r="G159" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>770</v>
       </c>
       <c r="H159" s="33" t="s">
@@ -14754,7 +14970,7 @@
         <v>849.47</v>
       </c>
       <c r="M159" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>849.47</v>
       </c>
       <c r="N159" s="67">
@@ -14784,7 +15000,7 @@
         <v>447</v>
       </c>
       <c r="C160" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0460426385</v>
       </c>
       <c r="D160" s="83" t="s">
@@ -14793,7 +15009,7 @@
       <c r="E160" s="99"/>
       <c r="F160" s="99"/>
       <c r="G160" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>770</v>
       </c>
       <c r="H160" s="78" t="s">
@@ -14812,7 +15028,7 @@
         <v>812.08</v>
       </c>
       <c r="M160" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>812.08</v>
       </c>
       <c r="N160" s="67">
@@ -14842,7 +15058,7 @@
         <v>452</v>
       </c>
       <c r="C161" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F002D13641</v>
       </c>
       <c r="D161" s="64" t="s">
@@ -14851,7 +15067,7 @@
       <c r="E161" s="99"/>
       <c r="F161" s="99"/>
       <c r="G161" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>770</v>
       </c>
       <c r="H161" s="40"/>
@@ -14866,7 +15082,7 @@
         <v>5.73</v>
       </c>
       <c r="M161" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5.73</v>
       </c>
       <c r="N161" s="67">
@@ -14894,7 +15110,7 @@
         <v>282</v>
       </c>
       <c r="C162" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F002D20502</v>
       </c>
       <c r="D162" s="64" t="s">
@@ -14903,7 +15119,7 @@
       <c r="E162" s="99"/>
       <c r="F162" s="99"/>
       <c r="G162" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>770</v>
       </c>
       <c r="H162" s="40"/>
@@ -14918,7 +15134,7 @@
         <v>6.11</v>
       </c>
       <c r="M162" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6.11</v>
       </c>
       <c r="N162" s="67">
@@ -14946,7 +15162,7 @@
         <v>38</v>
       </c>
       <c r="C163" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433175413</v>
       </c>
       <c r="D163" s="64" t="str">
@@ -14958,7 +15174,7 @@
         <v>39</v>
       </c>
       <c r="G163" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8GA</v>
       </c>
       <c r="H163" s="38" t="s">
@@ -14977,7 +15193,7 @@
         <v>21.79</v>
       </c>
       <c r="M163" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6537</v>
       </c>
       <c r="N163" s="67">
@@ -15005,7 +15221,7 @@
         <v>109</v>
       </c>
       <c r="C164" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F00RJ01727</v>
       </c>
       <c r="D164" s="64" t="str">
@@ -15015,7 +15231,7 @@
       <c r="E164" s="102"/>
       <c r="F164" s="102"/>
       <c r="G164" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>879</v>
       </c>
       <c r="H164" s="96" t="s">
@@ -15034,7 +15250,7 @@
         <v>21.95</v>
       </c>
       <c r="M164" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>526.79999999999995</v>
       </c>
       <c r="N164" s="67">
@@ -15062,7 +15278,7 @@
         <v>457</v>
       </c>
       <c r="C165" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9443610234</v>
       </c>
       <c r="D165" s="101" t="s">
@@ -15075,7 +15291,7 @@
         <v>620</v>
       </c>
       <c r="G165" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3YL</v>
       </c>
       <c r="H165" s="38" t="s">
@@ -15094,7 +15310,7 @@
         <v>25.25</v>
       </c>
       <c r="M165" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>303</v>
       </c>
       <c r="N165" s="67">
@@ -15122,7 +15338,7 @@
         <v>459</v>
       </c>
       <c r="C166" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433171992</v>
       </c>
       <c r="D166" s="88" t="s">
@@ -15133,7 +15349,7 @@
         <v>622</v>
       </c>
       <c r="G166" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>75N</v>
       </c>
       <c r="H166" s="38" t="s">
@@ -15152,7 +15368,7 @@
         <v>27.42</v>
       </c>
       <c r="M166" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>548.40000000000009</v>
       </c>
       <c r="N166" s="67">
@@ -15182,7 +15398,7 @@
         <v>291</v>
       </c>
       <c r="C167" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9411038580</v>
       </c>
       <c r="D167" s="64">
@@ -15195,7 +15411,7 @@
         <v>292</v>
       </c>
       <c r="G167" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>41N</v>
       </c>
       <c r="H167" s="80" t="s">
@@ -15214,7 +15430,7 @@
         <v>2.08</v>
       </c>
       <c r="M167" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>124.80000000000001</v>
       </c>
       <c r="N167" s="67">
@@ -15244,7 +15460,7 @@
         <v>293</v>
       </c>
       <c r="C168" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9412038521</v>
       </c>
       <c r="D168" s="64">
@@ -15257,7 +15473,7 @@
         <v>294</v>
       </c>
       <c r="G168" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>41N</v>
       </c>
       <c r="H168" s="80" t="s">
@@ -15276,7 +15492,7 @@
         <v>1.41</v>
       </c>
       <c r="M168" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>84.6</v>
       </c>
       <c r="N168" s="67">
@@ -15306,7 +15522,7 @@
         <v>287</v>
       </c>
       <c r="C169" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9412038583</v>
       </c>
       <c r="D169" s="64">
@@ -15319,7 +15535,7 @@
         <v>288</v>
       </c>
       <c r="G169" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>41N</v>
       </c>
       <c r="H169" s="80" t="s">
@@ -15338,7 +15554,7 @@
         <v>1.54</v>
       </c>
       <c r="M169" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>92.4</v>
       </c>
       <c r="N169" s="67">
@@ -15368,7 +15584,7 @@
         <v>285</v>
       </c>
       <c r="C170" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9412038595</v>
       </c>
       <c r="D170" s="105" t="s">
@@ -15381,7 +15597,7 @@
         <v>286</v>
       </c>
       <c r="G170" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>41N</v>
       </c>
       <c r="H170" s="80" t="s">
@@ -15400,7 +15616,7 @@
         <v>2.37</v>
       </c>
       <c r="M170" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>142.20000000000002</v>
       </c>
       <c r="N170" s="67">
@@ -15430,7 +15646,7 @@
         <v>289</v>
       </c>
       <c r="C171" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F002B70036</v>
       </c>
       <c r="D171" s="84" t="s">
@@ -15441,7 +15657,7 @@
         <v>290</v>
       </c>
       <c r="G171" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>41N</v>
       </c>
       <c r="H171" s="80" t="s">
@@ -15460,7 +15676,7 @@
         <v>2.69</v>
       </c>
       <c r="M171" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>161.4</v>
       </c>
       <c r="N171" s="67">
@@ -15490,7 +15706,7 @@
         <v>283</v>
       </c>
       <c r="C172" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F002B70043</v>
       </c>
       <c r="D172" s="84" t="s">
@@ -15503,7 +15719,7 @@
         <v>284</v>
       </c>
       <c r="G172" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>41N</v>
       </c>
       <c r="H172" s="80" t="s">
@@ -15522,7 +15738,7 @@
         <v>2</v>
       </c>
       <c r="M172" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="N172" s="67">
@@ -15552,7 +15768,7 @@
         <v>295</v>
       </c>
       <c r="C173" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F002B70045</v>
       </c>
       <c r="D173" s="64" t="s">
@@ -15565,7 +15781,7 @@
         <v>296</v>
       </c>
       <c r="G173" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>41N</v>
       </c>
       <c r="H173" s="80" t="s">
@@ -15584,7 +15800,7 @@
         <v>2.78</v>
       </c>
       <c r="M173" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>166.79999999999998</v>
       </c>
       <c r="N173" s="67">
@@ -15614,7 +15830,7 @@
         <v>129</v>
       </c>
       <c r="C174" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F01G0V5000</v>
       </c>
       <c r="D174" s="64" t="str">
@@ -15626,7 +15842,7 @@
         <v>130</v>
       </c>
       <c r="G174" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H174" s="66" t="s">
@@ -15645,7 +15861,7 @@
         <v>11.39</v>
       </c>
       <c r="M174" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>273.36</v>
       </c>
       <c r="N174" s="67">
@@ -15673,7 +15889,7 @@
         <v>222</v>
       </c>
       <c r="C175" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105025303</v>
       </c>
       <c r="D175" s="64">
@@ -15686,7 +15902,7 @@
         <v>223</v>
       </c>
       <c r="G175" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H175" s="66" t="s">
@@ -15705,7 +15921,7 @@
         <v>17.25</v>
       </c>
       <c r="M175" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>414</v>
       </c>
       <c r="N175" s="67">
@@ -15733,7 +15949,7 @@
         <v>470</v>
       </c>
       <c r="C176" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9443610241</v>
       </c>
       <c r="D176" s="106">
@@ -15746,7 +15962,7 @@
         <v>634</v>
       </c>
       <c r="G176" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3YL</v>
       </c>
       <c r="H176" s="66" t="s">
@@ -15765,7 +15981,7 @@
         <v>13.09</v>
       </c>
       <c r="M176" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>157.07999999999998</v>
       </c>
       <c r="N176" s="67">
@@ -15793,7 +16009,7 @@
         <v>201</v>
       </c>
       <c r="C177" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105025012</v>
       </c>
       <c r="D177" s="64" t="s">
@@ -15806,7 +16022,7 @@
         <v>202</v>
       </c>
       <c r="G177" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H177" s="66" t="s">
@@ -15825,7 +16041,7 @@
         <v>17.57</v>
       </c>
       <c r="M177" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>210.84</v>
       </c>
       <c r="N177" s="67">
@@ -15853,7 +16069,7 @@
         <v>210</v>
       </c>
       <c r="C178" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105025080</v>
       </c>
       <c r="D178" s="64" t="str">
@@ -15867,7 +16083,7 @@
         <v>211</v>
       </c>
       <c r="G178" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H178" s="66" t="s">
@@ -15886,7 +16102,7 @@
         <v>22.84</v>
       </c>
       <c r="M178" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>274.08</v>
       </c>
       <c r="N178" s="67">
@@ -15914,7 +16130,7 @@
         <v>216</v>
       </c>
       <c r="C179" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105025190</v>
       </c>
       <c r="D179" s="64">
@@ -15927,7 +16143,7 @@
         <v>217</v>
       </c>
       <c r="G179" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H179" s="66" t="s">
@@ -15946,7 +16162,7 @@
         <v>15.61</v>
       </c>
       <c r="M179" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>187.32</v>
       </c>
       <c r="N179" s="67">
@@ -15974,7 +16190,7 @@
         <v>93</v>
       </c>
       <c r="C180" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F002H23520</v>
       </c>
       <c r="D180" s="108" t="s">
@@ -15983,7 +16199,7 @@
       <c r="E180" s="75"/>
       <c r="F180" s="69"/>
       <c r="G180" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>772</v>
       </c>
       <c r="H180" s="66" t="s">
@@ -16002,7 +16218,7 @@
         <v>3.33</v>
       </c>
       <c r="M180" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>399.6</v>
       </c>
       <c r="N180" s="67">
@@ -16032,7 +16248,7 @@
         <v>135</v>
       </c>
       <c r="C181" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105007121</v>
       </c>
       <c r="D181" s="109" t="s">
@@ -16045,7 +16261,7 @@
         <v>136</v>
       </c>
       <c r="G181" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H181" s="66" t="s">
@@ -16064,7 +16280,7 @@
         <v>5.15</v>
       </c>
       <c r="M181" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>618</v>
       </c>
       <c r="N181" s="67">
@@ -16094,7 +16310,7 @@
         <v>198</v>
       </c>
       <c r="C182" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105017259</v>
       </c>
       <c r="D182" s="64">
@@ -16107,7 +16323,7 @@
         <v>199</v>
       </c>
       <c r="G182" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H182" s="66" t="s">
@@ -16126,7 +16342,7 @@
         <v>8</v>
       </c>
       <c r="M182" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>960</v>
       </c>
       <c r="N182" s="67">
@@ -16156,7 +16372,7 @@
         <v>142</v>
       </c>
       <c r="C183" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105015413</v>
       </c>
       <c r="D183" s="106">
@@ -16169,7 +16385,7 @@
         <v>143</v>
       </c>
       <c r="G183" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H183" s="66" t="s">
@@ -16188,7 +16404,7 @@
         <v>12.96</v>
       </c>
       <c r="M183" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>466.56000000000006</v>
       </c>
       <c r="N183" s="67">
@@ -16218,7 +16434,7 @@
         <v>35</v>
       </c>
       <c r="C184" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433172080</v>
       </c>
       <c r="D184" s="64" t="str">
@@ -16230,7 +16446,7 @@
         <v>36</v>
       </c>
       <c r="G184" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>75N</v>
       </c>
       <c r="H184" s="66" t="s">
@@ -16249,7 +16465,7 @@
         <v>34.619999999999997</v>
       </c>
       <c r="M184" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1107.8399999999999</v>
       </c>
       <c r="N184" s="67">
@@ -16279,7 +16495,7 @@
         <v>481</v>
       </c>
       <c r="C185" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9412270043</v>
       </c>
       <c r="D185" s="63">
@@ -16288,7 +16504,7 @@
       <c r="E185" s="75"/>
       <c r="F185" s="69"/>
       <c r="G185" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>41N</v>
       </c>
       <c r="H185" s="66" t="s">
@@ -16307,7 +16523,7 @@
         <v>15.55</v>
       </c>
       <c r="M185" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>373.20000000000005</v>
       </c>
       <c r="N185" s="67">
@@ -16337,7 +16553,7 @@
         <v>69</v>
       </c>
       <c r="C186" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9443610373</v>
       </c>
       <c r="D186" s="86">
@@ -16350,7 +16566,7 @@
         <v>70</v>
       </c>
       <c r="G186" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3YL</v>
       </c>
       <c r="H186" s="66" t="s">
@@ -16369,7 +16585,7 @@
         <v>12.93</v>
       </c>
       <c r="M186" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>310.32</v>
       </c>
       <c r="N186" s="67">
@@ -16399,7 +16615,7 @@
         <v>268</v>
       </c>
       <c r="C187" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433171768</v>
       </c>
       <c r="D187" s="112" t="s">
@@ -16410,7 +16626,7 @@
         <v>269</v>
       </c>
       <c r="G187" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8GA</v>
       </c>
       <c r="H187" s="66" t="s">
@@ -16429,7 +16645,7 @@
         <v>11.62</v>
       </c>
       <c r="M187" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>139.44</v>
       </c>
       <c r="N187" s="67">
@@ -16459,7 +16675,7 @@
         <v>116</v>
       </c>
       <c r="C188" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>F00RJ02213</v>
       </c>
       <c r="D188" s="63" t="str">
@@ -16469,7 +16685,7 @@
       <c r="E188" s="75"/>
       <c r="F188" s="69"/>
       <c r="G188" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>751</v>
       </c>
       <c r="H188" s="81" t="s">
@@ -16488,7 +16704,7 @@
         <v>41.12</v>
       </c>
       <c r="M188" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>493.43999999999994</v>
       </c>
       <c r="N188" s="67">
@@ -16518,7 +16734,7 @@
         <v>484</v>
       </c>
       <c r="C189" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9413610030</v>
       </c>
       <c r="D189" s="89" t="s">
@@ -16531,7 +16747,7 @@
         <v>638</v>
       </c>
       <c r="G189" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3YL</v>
       </c>
       <c r="H189" s="66" t="s">
@@ -16550,7 +16766,7 @@
         <v>12.93</v>
       </c>
       <c r="M189" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1551.6</v>
       </c>
       <c r="N189" s="67">
@@ -16578,7 +16794,7 @@
         <v>44</v>
       </c>
       <c r="C190" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0445020126</v>
       </c>
       <c r="D190" s="64" t="str">
@@ -16588,7 +16804,7 @@
       <c r="E190" s="99"/>
       <c r="F190" s="42"/>
       <c r="G190" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>391</v>
       </c>
       <c r="H190" s="33" t="s">
@@ -16607,7 +16823,7 @@
         <v>1203.04</v>
       </c>
       <c r="M190" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>36091.199999999997</v>
       </c>
       <c r="N190" s="67">
@@ -16635,7 +16851,7 @@
         <v>488</v>
       </c>
       <c r="C191" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0928400617</v>
       </c>
       <c r="D191" s="89" t="s">
@@ -16644,7 +16860,7 @@
       <c r="E191" s="75"/>
       <c r="F191" s="115"/>
       <c r="G191" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>000</v>
       </c>
       <c r="H191" s="66" t="s">
@@ -16663,7 +16879,7 @@
         <v>34.619999999999997</v>
       </c>
       <c r="M191" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>173.1</v>
       </c>
       <c r="N191" s="67">
@@ -16693,7 +16909,7 @@
         <v>135</v>
       </c>
       <c r="C192" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105007121</v>
       </c>
       <c r="D192" s="84" t="s">
@@ -16706,7 +16922,7 @@
         <v>136</v>
       </c>
       <c r="G192" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H192" s="66" t="s">
@@ -16725,7 +16941,7 @@
         <v>5</v>
       </c>
       <c r="M192" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1500</v>
       </c>
       <c r="N192" s="67">
@@ -16753,7 +16969,7 @@
         <v>225</v>
       </c>
       <c r="C193" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105025304</v>
       </c>
       <c r="D193" s="84" t="s">
@@ -16766,7 +16982,7 @@
         <v>226</v>
       </c>
       <c r="G193" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H193" s="66" t="s">
@@ -16785,7 +17001,7 @@
         <v>15.84</v>
       </c>
       <c r="M193" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>760.31999999999994</v>
       </c>
       <c r="N193" s="67">
@@ -16813,7 +17029,7 @@
         <v>375</v>
       </c>
       <c r="C194" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433171454</v>
       </c>
       <c r="D194" s="84" t="s">
@@ -16824,7 +17040,7 @@
         <v>565</v>
       </c>
       <c r="G194" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>75Y</v>
       </c>
       <c r="H194" s="66" t="s">
@@ -16843,7 +17059,7 @@
         <v>11.58</v>
       </c>
       <c r="M194" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>416.88</v>
       </c>
       <c r="N194" s="67">
@@ -16871,7 +17087,7 @@
         <v>493</v>
       </c>
       <c r="C195" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433171779</v>
       </c>
       <c r="D195" s="84" t="s">
@@ -16882,7 +17098,7 @@
         <v>641</v>
       </c>
       <c r="G195" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8GA</v>
       </c>
       <c r="H195" s="66" t="s">
@@ -16901,7 +17117,7 @@
         <v>14.5</v>
       </c>
       <c r="M195" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>522</v>
       </c>
       <c r="N195" s="67">
@@ -16929,7 +17145,7 @@
         <v>495</v>
       </c>
       <c r="C196" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433172341</v>
       </c>
       <c r="D196" s="105" t="s">
@@ -16940,7 +17156,7 @@
         <v>643</v>
       </c>
       <c r="G196" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>41N</v>
       </c>
       <c r="H196" s="66" t="s">
@@ -16959,7 +17175,7 @@
         <v>6.44</v>
       </c>
       <c r="M196" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>231.84</v>
       </c>
       <c r="N196" s="67">
@@ -16987,7 +17203,7 @@
         <v>497</v>
       </c>
       <c r="C197" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433171435</v>
       </c>
       <c r="D197" s="105" t="s">
@@ -16998,7 +17214,7 @@
         <v>645</v>
       </c>
       <c r="G197" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8GA</v>
       </c>
       <c r="H197" s="66" t="s">
@@ -17017,7 +17233,7 @@
         <v>14.78</v>
       </c>
       <c r="M197" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>354.71999999999997</v>
       </c>
       <c r="N197" s="67">
@@ -17047,7 +17263,7 @@
         <v>499</v>
       </c>
       <c r="C198" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>H105017312</v>
       </c>
       <c r="D198" s="105">
@@ -17060,7 +17276,7 @@
         <v>646</v>
       </c>
       <c r="G198" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>KMH</v>
       </c>
       <c r="H198" s="66" t="s">
@@ -17079,7 +17295,7 @@
         <v>13.6</v>
       </c>
       <c r="M198" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>163.19999999999999</v>
       </c>
       <c r="N198" s="67">
@@ -17109,7 +17325,7 @@
         <v>502</v>
       </c>
       <c r="C199" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0433175348</v>
       </c>
       <c r="D199" s="105" t="s">
@@ -17120,7 +17336,7 @@
         <v>648</v>
       </c>
       <c r="G199" s="65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8GA</v>
       </c>
       <c r="H199" s="66" t="s">
@@ -17139,7 +17355,7 @@
         <v>17.920000000000002</v>
       </c>
       <c r="M199" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>215.04000000000002</v>
       </c>
       <c r="N199" s="67">
@@ -17169,7 +17385,7 @@
         <v>505</v>
       </c>
       <c r="C200" s="64" t="str">
-        <f t="shared" ref="C200:D239" si="14">LEFT(B200,10)</f>
+        <f t="shared" ref="C200:D239" si="13">LEFT(B200,10)</f>
         <v>0281002507</v>
       </c>
       <c r="D200" s="105" t="s">
@@ -17178,7 +17394,7 @@
       <c r="E200" s="99"/>
       <c r="F200" s="84"/>
       <c r="G200" s="65" t="str">
-        <f t="shared" ref="G200:G246" si="15">RIGHT(B200,3)</f>
+        <f t="shared" ref="G200:G246" si="14">RIGHT(B200,3)</f>
         <v>390</v>
       </c>
       <c r="H200" s="40" t="s">
@@ -17197,7 +17413,7 @@
         <v>56.48</v>
       </c>
       <c r="M200" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M200:M259" si="15">L200*K200</f>
         <v>282.39999999999998</v>
       </c>
       <c r="N200" s="67">
@@ -17225,7 +17441,7 @@
         <v>508</v>
       </c>
       <c r="C201" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9461610167</v>
       </c>
       <c r="D201" s="105">
@@ -17236,7 +17452,7 @@
       </c>
       <c r="F201" s="86"/>
       <c r="G201" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>HRV</v>
       </c>
       <c r="H201" s="40" t="s">
@@ -17251,7 +17467,7 @@
         <v>48.06</v>
       </c>
       <c r="M201" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>96.12</v>
       </c>
       <c r="N201" s="67">
@@ -17279,7 +17495,7 @@
         <v>511</v>
       </c>
       <c r="C202" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9461617872</v>
       </c>
       <c r="D202" s="105">
@@ -17290,7 +17506,7 @@
       </c>
       <c r="F202" s="86"/>
       <c r="G202" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>HRV</v>
       </c>
       <c r="H202" s="40" t="s">
@@ -17305,7 +17521,7 @@
         <v>52.77</v>
       </c>
       <c r="M202" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>105.54</v>
       </c>
       <c r="N202" s="67">
@@ -17333,7 +17549,7 @@
         <v>122</v>
       </c>
       <c r="C203" s="287" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F00VC01359</v>
       </c>
       <c r="D203" s="287" t="str">
@@ -17343,7 +17559,7 @@
       <c r="E203" s="288"/>
       <c r="F203" s="289"/>
       <c r="G203" s="290" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>770</v>
       </c>
       <c r="H203" s="291" t="s">
@@ -17362,7 +17578,7 @@
         <v>17.920000000000002</v>
       </c>
       <c r="M203" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4300.8</v>
       </c>
       <c r="N203" s="294">
@@ -17392,7 +17608,7 @@
         <v>513</v>
       </c>
       <c r="C204" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0433175449</v>
       </c>
       <c r="D204" s="64" t="str">
@@ -17404,7 +17620,7 @@
         <v>652</v>
       </c>
       <c r="G204" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8GA</v>
       </c>
       <c r="H204" s="36" t="s">
@@ -17423,7 +17639,7 @@
         <v>27.42</v>
       </c>
       <c r="M204" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1316.16</v>
       </c>
       <c r="N204" s="67">
@@ -17453,7 +17669,7 @@
         <v>447</v>
       </c>
       <c r="C205" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0460426385</v>
       </c>
       <c r="D205" s="64" t="str">
@@ -17463,7 +17679,7 @@
       <c r="E205" s="99"/>
       <c r="F205" s="42"/>
       <c r="G205" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>770</v>
       </c>
       <c r="H205" s="33" t="s">
@@ -17482,7 +17698,7 @@
         <v>802.16</v>
       </c>
       <c r="M205" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>802.16</v>
       </c>
       <c r="N205" s="67">
@@ -17512,7 +17728,7 @@
         <v>162</v>
       </c>
       <c r="C206" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105015615</v>
       </c>
       <c r="D206" s="64">
@@ -17525,7 +17741,7 @@
         <v>163</v>
       </c>
       <c r="G206" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H206" s="33" t="s">
@@ -17544,7 +17760,7 @@
         <v>14.02</v>
       </c>
       <c r="M206" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>168.24</v>
       </c>
       <c r="N206" s="67">
@@ -17574,7 +17790,7 @@
         <v>406</v>
       </c>
       <c r="C207" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105017203</v>
       </c>
       <c r="D207" s="64" t="s">
@@ -17587,7 +17803,7 @@
         <v>595</v>
       </c>
       <c r="G207" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H207" s="33" t="s">
@@ -17606,7 +17822,7 @@
         <v>11.81</v>
       </c>
       <c r="M207" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>141.72</v>
       </c>
       <c r="N207" s="67">
@@ -17636,7 +17852,7 @@
         <v>235</v>
       </c>
       <c r="C208" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105025329</v>
       </c>
       <c r="D208" s="84" t="s">
@@ -17649,7 +17865,7 @@
         <v>236</v>
       </c>
       <c r="G208" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H208" s="33" t="s">
@@ -17668,7 +17884,7 @@
         <v>16.45</v>
       </c>
       <c r="M208" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197.39999999999998</v>
       </c>
       <c r="N208" s="67">
@@ -17698,7 +17914,7 @@
         <v>520</v>
       </c>
       <c r="C209" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9413610130</v>
       </c>
       <c r="D209" s="84">
@@ -17711,7 +17927,7 @@
         <v>655</v>
       </c>
       <c r="G209" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3YL</v>
       </c>
       <c r="H209" s="33" t="s">
@@ -17730,7 +17946,7 @@
         <v>16.38</v>
       </c>
       <c r="M209" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>196.56</v>
       </c>
       <c r="N209" s="67">
@@ -17760,7 +17976,7 @@
         <v>522</v>
       </c>
       <c r="C210" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9443610220</v>
       </c>
       <c r="D210" s="121" t="s">
@@ -17773,7 +17989,7 @@
         <v>658</v>
       </c>
       <c r="G210" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3YL</v>
       </c>
       <c r="H210" s="33" t="s">
@@ -17792,7 +18008,7 @@
         <v>19.62</v>
       </c>
       <c r="M210" s="280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>235.44</v>
       </c>
       <c r="N210" s="67">
@@ -17822,7 +18038,7 @@
         <v>174</v>
       </c>
       <c r="C211" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105015869</v>
       </c>
       <c r="D211" s="64">
@@ -17835,7 +18051,7 @@
         <v>175</v>
       </c>
       <c r="G211" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H211" s="33" t="s">
@@ -17854,7 +18070,7 @@
         <v>15.33</v>
       </c>
       <c r="M211" s="280">
-        <f t="shared" ref="M211:M259" si="17">L211*K211</f>
+        <f t="shared" si="15"/>
         <v>367.92</v>
       </c>
       <c r="N211" s="67">
@@ -17884,7 +18100,7 @@
         <v>207</v>
       </c>
       <c r="C212" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105025029</v>
       </c>
       <c r="D212" s="64">
@@ -17897,7 +18113,7 @@
         <v>208</v>
       </c>
       <c r="G212" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H212" s="33" t="s">
@@ -17916,7 +18132,7 @@
         <v>16.29</v>
       </c>
       <c r="M212" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>586.43999999999994</v>
       </c>
       <c r="N212" s="67">
@@ -17946,7 +18162,7 @@
         <v>183</v>
       </c>
       <c r="C213" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105017010</v>
       </c>
       <c r="D213" s="64">
@@ -17959,7 +18175,7 @@
         <v>184</v>
       </c>
       <c r="G213" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H213" s="33" t="s">
@@ -17978,7 +18194,7 @@
         <v>15.33</v>
       </c>
       <c r="M213" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>735.84</v>
       </c>
       <c r="N213" s="67">
@@ -18008,7 +18224,7 @@
         <v>232</v>
       </c>
       <c r="C214" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105025327</v>
       </c>
       <c r="D214" s="64">
@@ -18021,7 +18237,7 @@
         <v>233</v>
       </c>
       <c r="G214" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H214" s="33" t="s">
@@ -18040,7 +18256,7 @@
         <v>17.440000000000001</v>
       </c>
       <c r="M214" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>209.28000000000003</v>
       </c>
       <c r="N214" s="67">
@@ -18070,7 +18286,7 @@
         <v>232</v>
       </c>
       <c r="C215" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105025327</v>
       </c>
       <c r="D215" s="64">
@@ -18083,7 +18299,7 @@
         <v>233</v>
       </c>
       <c r="G215" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H215" s="33" t="s">
@@ -18102,7 +18318,7 @@
         <v>17.7</v>
       </c>
       <c r="M215" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>212.39999999999998</v>
       </c>
       <c r="N215" s="67">
@@ -18132,7 +18348,7 @@
         <v>248</v>
       </c>
       <c r="C216" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9443610074</v>
       </c>
       <c r="D216" s="64">
@@ -18145,7 +18361,7 @@
         <v>249</v>
       </c>
       <c r="G216" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3YL</v>
       </c>
       <c r="H216" s="33" t="s">
@@ -18164,7 +18380,7 @@
         <v>13.82</v>
       </c>
       <c r="M216" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>331.68</v>
       </c>
       <c r="N216" s="67">
@@ -18194,7 +18410,7 @@
         <v>53</v>
       </c>
       <c r="C217" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9413610135</v>
       </c>
       <c r="D217" s="70" t="s">
@@ -18207,7 +18423,7 @@
         <v>54</v>
       </c>
       <c r="G217" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3YL</v>
       </c>
       <c r="H217" s="33" t="s">
@@ -18226,7 +18442,7 @@
         <v>13.76</v>
       </c>
       <c r="M217" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>165.12</v>
       </c>
       <c r="N217" s="67">
@@ -18256,7 +18472,7 @@
         <v>268</v>
       </c>
       <c r="C218" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0433171768</v>
       </c>
       <c r="D218" s="63" t="s">
@@ -18267,7 +18483,7 @@
         <v>269</v>
       </c>
       <c r="G218" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8GA</v>
       </c>
       <c r="H218" s="123" t="s">
@@ -18286,7 +18502,7 @@
         <v>11.62</v>
       </c>
       <c r="M218" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>139.44</v>
       </c>
       <c r="N218" s="67">
@@ -18316,7 +18532,7 @@
         <v>526</v>
       </c>
       <c r="C219" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105015871</v>
       </c>
       <c r="D219" s="63">
@@ -18329,7 +18545,7 @@
         <v>660</v>
       </c>
       <c r="G219" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H219" s="123" t="s">
@@ -18348,7 +18564,7 @@
         <v>19.68</v>
       </c>
       <c r="M219" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>236.16</v>
       </c>
       <c r="N219" s="67">
@@ -18378,7 +18594,7 @@
         <v>529</v>
       </c>
       <c r="C220" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105017090</v>
       </c>
       <c r="D220" s="63">
@@ -18391,7 +18607,7 @@
         <v>662</v>
       </c>
       <c r="G220" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H220" s="123" t="s">
@@ -18410,7 +18626,7 @@
         <v>19.739999999999998</v>
       </c>
       <c r="M220" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>473.76</v>
       </c>
       <c r="N220" s="67">
@@ -18440,7 +18656,7 @@
         <v>531</v>
       </c>
       <c r="C221" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105017118</v>
       </c>
       <c r="D221" s="63">
@@ -18453,7 +18669,7 @@
         <v>664</v>
       </c>
       <c r="G221" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H221" s="123" t="s">
@@ -18472,7 +18688,7 @@
         <v>12.93</v>
       </c>
       <c r="M221" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>310.32</v>
       </c>
       <c r="N221" s="67">
@@ -18502,7 +18718,7 @@
         <v>533</v>
       </c>
       <c r="C222" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105015564</v>
       </c>
       <c r="D222" s="63">
@@ -18515,7 +18731,7 @@
         <v>666</v>
       </c>
       <c r="G222" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H222" s="123" t="s">
@@ -18534,7 +18750,7 @@
         <v>15.07</v>
       </c>
       <c r="M222" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>361.68</v>
       </c>
       <c r="N222" s="67">
@@ -18564,7 +18780,7 @@
         <v>535</v>
       </c>
       <c r="C223" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105015567</v>
       </c>
       <c r="D223" s="63">
@@ -18577,7 +18793,7 @@
         <v>668</v>
       </c>
       <c r="G223" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H223" s="123" t="s">
@@ -18596,7 +18812,7 @@
         <v>12.54</v>
       </c>
       <c r="M223" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>300.95999999999998</v>
       </c>
       <c r="N223" s="67">
@@ -18626,7 +18842,7 @@
         <v>537</v>
       </c>
       <c r="C224" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9443610717</v>
       </c>
       <c r="D224" s="63" t="s">
@@ -18639,7 +18855,7 @@
         <v>671</v>
       </c>
       <c r="G224" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3YL</v>
       </c>
       <c r="H224" s="123" t="s">
@@ -18658,7 +18874,7 @@
         <v>13.86</v>
       </c>
       <c r="M224" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>332.64</v>
       </c>
       <c r="N224" s="67">
@@ -18688,7 +18904,7 @@
         <v>539</v>
       </c>
       <c r="C225" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9443611956</v>
       </c>
       <c r="D225" s="63" t="s">
@@ -18701,7 +18917,7 @@
         <v>674</v>
       </c>
       <c r="G225" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3YL</v>
       </c>
       <c r="H225" s="123" t="s">
@@ -18720,7 +18936,7 @@
         <v>13.22</v>
       </c>
       <c r="M225" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>317.28000000000003</v>
       </c>
       <c r="N225" s="67">
@@ -18750,7 +18966,7 @@
         <v>156</v>
       </c>
       <c r="C226" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105015569</v>
       </c>
       <c r="D226" s="63">
@@ -18763,7 +18979,7 @@
         <v>157</v>
       </c>
       <c r="G226" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H226" s="123" t="s">
@@ -18782,7 +18998,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="M226" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>220.79999999999998</v>
       </c>
       <c r="N226" s="67">
@@ -18812,7 +19028,7 @@
         <v>165</v>
       </c>
       <c r="C227" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105015783</v>
       </c>
       <c r="D227" s="63">
@@ -18825,7 +19041,7 @@
         <v>166</v>
       </c>
       <c r="G227" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H227" s="123" t="s">
@@ -18844,7 +19060,7 @@
         <v>20.32</v>
       </c>
       <c r="M227" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>243.84</v>
       </c>
       <c r="N227" s="67">
@@ -18874,7 +19090,7 @@
         <v>543</v>
       </c>
       <c r="C228" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105015474</v>
       </c>
       <c r="D228" s="63">
@@ -18887,7 +19103,7 @@
         <v>676</v>
       </c>
       <c r="G228" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H228" s="123" t="s">
@@ -18906,7 +19122,7 @@
         <v>13.57</v>
       </c>
       <c r="M228" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>325.68</v>
       </c>
       <c r="N228" s="67">
@@ -18936,7 +19152,7 @@
         <v>447</v>
       </c>
       <c r="C229" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0460426385</v>
       </c>
       <c r="D229" s="63" t="s">
@@ -18945,7 +19161,7 @@
       <c r="E229" s="42"/>
       <c r="F229" s="42"/>
       <c r="G229" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>770</v>
       </c>
       <c r="H229" s="40" t="s">
@@ -18964,7 +19180,7 @@
         <v>791.01</v>
       </c>
       <c r="M229" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>791.01</v>
       </c>
       <c r="N229" s="67">
@@ -18994,7 +19210,7 @@
         <v>204</v>
       </c>
       <c r="C230" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105025021</v>
       </c>
       <c r="D230" s="89"/>
@@ -19005,7 +19221,7 @@
         <v>205</v>
       </c>
       <c r="G230" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H230" s="40" t="s">
@@ -19024,7 +19240,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="M230" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>220.79999999999998</v>
       </c>
       <c r="N230" s="67">
@@ -19054,7 +19270,7 @@
         <v>159</v>
       </c>
       <c r="C231" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105015595</v>
       </c>
       <c r="D231" s="89"/>
@@ -19065,7 +19281,7 @@
         <v>160</v>
       </c>
       <c r="G231" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H231" s="40" t="s">
@@ -19084,7 +19300,7 @@
         <v>12.93</v>
       </c>
       <c r="M231" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>155.16</v>
       </c>
       <c r="N231" s="67">
@@ -19114,7 +19330,7 @@
         <v>242</v>
       </c>
       <c r="C232" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105025400</v>
       </c>
       <c r="D232" s="89"/>
@@ -19125,7 +19341,7 @@
         <v>243</v>
       </c>
       <c r="G232" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H232" s="40" t="s">
@@ -19144,7 +19360,7 @@
         <v>14.53</v>
       </c>
       <c r="M232" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>174.35999999999999</v>
       </c>
       <c r="N232" s="67">
@@ -19174,7 +19390,7 @@
         <v>245</v>
       </c>
       <c r="C233" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105025420</v>
       </c>
       <c r="D233" s="89"/>
@@ -19185,7 +19401,7 @@
         <v>246</v>
       </c>
       <c r="G233" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H233" s="40" t="s">
@@ -19204,7 +19420,7 @@
         <v>17.82</v>
       </c>
       <c r="M233" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>213.84</v>
       </c>
       <c r="N233" s="67">
@@ -19234,7 +19450,7 @@
         <v>548</v>
       </c>
       <c r="C234" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105015989</v>
       </c>
       <c r="D234" s="89"/>
@@ -19245,7 +19461,7 @@
         <v>682</v>
       </c>
       <c r="G234" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H234" s="40" t="s">
@@ -19264,7 +19480,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="M234" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>220.79999999999998</v>
       </c>
       <c r="N234" s="67">
@@ -19294,7 +19510,7 @@
         <v>57</v>
       </c>
       <c r="C235" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>9413614194</v>
       </c>
       <c r="D235" s="89"/>
@@ -19303,7 +19519,7 @@
         <v>58</v>
       </c>
       <c r="G235" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3YL</v>
       </c>
       <c r="H235" s="40" t="s">
@@ -19322,7 +19538,7 @@
         <v>13.22</v>
       </c>
       <c r="M235" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>158.64000000000001</v>
       </c>
       <c r="N235" s="67">
@@ -19352,7 +19568,7 @@
         <v>148</v>
       </c>
       <c r="C236" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>H105015485</v>
       </c>
       <c r="D236" s="89"/>
@@ -19363,7 +19579,7 @@
         <v>149</v>
       </c>
       <c r="G236" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H236" s="40" t="s">
@@ -19382,7 +19598,7 @@
         <v>12.64</v>
       </c>
       <c r="M236" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>151.68</v>
       </c>
       <c r="N236" s="67">
@@ -19412,14 +19628,14 @@
         <v>1466111630770</v>
       </c>
       <c r="C237" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1466111630</v>
       </c>
       <c r="D237" s="89"/>
       <c r="E237" s="42"/>
       <c r="F237" s="42"/>
       <c r="G237" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>770</v>
       </c>
       <c r="H237" s="40" t="s">
@@ -19438,7 +19654,7 @@
         <v>30.24</v>
       </c>
       <c r="M237" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>302.39999999999998</v>
       </c>
       <c r="N237" s="67">
@@ -19468,7 +19684,7 @@
         <v>513</v>
       </c>
       <c r="C238" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0433175449</v>
       </c>
       <c r="D238" s="89"/>
@@ -19477,7 +19693,7 @@
         <v>652</v>
       </c>
       <c r="G238" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8GA</v>
       </c>
       <c r="H238" s="40" t="s">
@@ -19496,7 +19712,7 @@
         <v>27.42</v>
       </c>
       <c r="M238" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>274.20000000000005</v>
       </c>
       <c r="N238" s="67">
@@ -19526,17 +19742,17 @@
         <v>399</v>
       </c>
       <c r="C239" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F00RJ02130</v>
       </c>
       <c r="D239" s="64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>F00RJ02130</v>
       </c>
       <c r="E239" s="42"/>
       <c r="F239" s="42"/>
       <c r="G239" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>751</v>
       </c>
       <c r="H239" s="40" t="s">
@@ -19555,7 +19771,7 @@
         <v>26.34</v>
       </c>
       <c r="M239" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>263.39999999999998</v>
       </c>
       <c r="N239" s="67">
@@ -19597,7 +19813,7 @@
         <v>682</v>
       </c>
       <c r="G240" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H240" s="40" t="s">
@@ -19616,7 +19832,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="M240" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>220.79999999999998</v>
       </c>
       <c r="N240" s="67">
@@ -19656,7 +19872,7 @@
         <v>697</v>
       </c>
       <c r="G241" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>41N</v>
       </c>
       <c r="H241" s="40" t="s">
@@ -19675,7 +19891,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="M241" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>241.20000000000002</v>
       </c>
       <c r="N241" s="67">
@@ -19717,7 +19933,7 @@
         <v>262</v>
       </c>
       <c r="G242" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H242" s="40" t="s">
@@ -19736,7 +19952,7 @@
         <v>14.82</v>
       </c>
       <c r="M242" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>177.84</v>
       </c>
       <c r="N242" s="67">
@@ -19778,7 +19994,7 @@
         <v>280</v>
       </c>
       <c r="G243" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H243" s="40" t="s">
@@ -19797,7 +20013,7 @@
         <v>17.82</v>
       </c>
       <c r="M243" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>213.84</v>
       </c>
       <c r="N243" s="67">
@@ -19837,7 +20053,7 @@
         <v>82</v>
       </c>
       <c r="G244" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3YL</v>
       </c>
       <c r="H244" s="40" t="s">
@@ -19856,7 +20072,7 @@
         <v>17.82</v>
       </c>
       <c r="M244" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>213.84</v>
       </c>
       <c r="N244" s="67">
@@ -19898,7 +20114,7 @@
         <v>252</v>
       </c>
       <c r="G245" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>KMH</v>
       </c>
       <c r="H245" s="40" t="s">
@@ -19917,7 +20133,7 @@
         <v>12.03</v>
       </c>
       <c r="M245" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>288.71999999999997</v>
       </c>
       <c r="N245" s="67">
@@ -19959,7 +20175,7 @@
         <v>39</v>
       </c>
       <c r="G246" s="120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8GA</v>
       </c>
       <c r="H246" s="40" t="s">
@@ -19978,7 +20194,7 @@
         <v>21.79</v>
       </c>
       <c r="M246" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1045.92</v>
       </c>
       <c r="N246" s="67">
@@ -20036,7 +20252,7 @@
         <v>17.920000000000002</v>
       </c>
       <c r="M247" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1433.6000000000001</v>
       </c>
       <c r="N247" s="67">
@@ -20075,7 +20291,7 @@
         <v>240</v>
       </c>
       <c r="G248" s="120" t="str">
-        <f t="shared" ref="G248:G259" si="18">RIGHT(B248,3)</f>
+        <f t="shared" ref="G248:G259" si="17">RIGHT(B248,3)</f>
         <v>KMH</v>
       </c>
       <c r="H248" s="40" t="s">
@@ -20094,7 +20310,7 @@
         <v>15.84</v>
       </c>
       <c r="M248" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1900.8</v>
       </c>
       <c r="N248" s="67">
@@ -20122,7 +20338,7 @@
         <v>222</v>
       </c>
       <c r="C249" s="64" t="str">
-        <f t="shared" ref="C249:D255" si="19">LEFT(B249,10)</f>
+        <f t="shared" ref="C249:D255" si="18">LEFT(B249,10)</f>
         <v>H105025303</v>
       </c>
       <c r="D249" s="64"/>
@@ -20133,7 +20349,7 @@
         <v>223</v>
       </c>
       <c r="G249" s="120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>KMH</v>
       </c>
       <c r="H249" s="40" t="s">
@@ -20152,7 +20368,7 @@
         <v>17.25</v>
       </c>
       <c r="M249" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>414</v>
       </c>
       <c r="N249" s="67">
@@ -20180,7 +20396,7 @@
         <v>225</v>
       </c>
       <c r="C250" s="64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>H105025304</v>
       </c>
       <c r="D250" s="64"/>
@@ -20191,7 +20407,7 @@
         <v>226</v>
       </c>
       <c r="G250" s="120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>KMH</v>
       </c>
       <c r="H250" s="40" t="s">
@@ -20210,7 +20426,7 @@
         <v>15.84</v>
       </c>
       <c r="M250" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>760.31999999999994</v>
       </c>
       <c r="N250" s="67">
@@ -20238,7 +20454,7 @@
         <v>142</v>
       </c>
       <c r="C251" s="64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>H105015413</v>
       </c>
       <c r="D251" s="64"/>
@@ -20249,7 +20465,7 @@
         <v>143</v>
       </c>
       <c r="G251" s="120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>KMH</v>
       </c>
       <c r="H251" s="40" t="s">
@@ -20268,7 +20484,7 @@
         <v>12.96</v>
       </c>
       <c r="M251" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>466.56000000000006</v>
       </c>
       <c r="N251" s="67">
@@ -20296,7 +20512,7 @@
         <v>145</v>
       </c>
       <c r="C252" s="64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>H105015419</v>
       </c>
       <c r="D252" s="64"/>
@@ -20307,7 +20523,7 @@
         <v>146</v>
       </c>
       <c r="G252" s="120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>KMH</v>
       </c>
       <c r="H252" s="40" t="s">
@@ -20326,7 +20542,7 @@
         <v>12.48</v>
       </c>
       <c r="M252" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>449.28000000000003</v>
       </c>
       <c r="N252" s="67">
@@ -20354,11 +20570,11 @@
         <v>47</v>
       </c>
       <c r="C253" s="64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9413610013</v>
       </c>
       <c r="D253" s="64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9413610013</v>
       </c>
       <c r="E253" s="42"/>
@@ -20366,7 +20582,7 @@
         <v>48</v>
       </c>
       <c r="G253" s="120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3YL</v>
       </c>
       <c r="H253" s="40" t="s">
@@ -20385,7 +20601,7 @@
         <v>14.3</v>
       </c>
       <c r="M253" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>514.80000000000007</v>
       </c>
       <c r="N253" s="67">
@@ -20413,11 +20629,11 @@
         <v>61</v>
       </c>
       <c r="C254" s="64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9443610210</v>
       </c>
       <c r="D254" s="64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9443610210</v>
       </c>
       <c r="E254" s="42"/>
@@ -20425,7 +20641,7 @@
         <v>62</v>
       </c>
       <c r="G254" s="120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3YL</v>
       </c>
       <c r="H254" s="40" t="s">
@@ -20444,7 +20660,7 @@
         <v>13.98</v>
       </c>
       <c r="M254" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>503.28000000000003</v>
       </c>
       <c r="N254" s="67">
@@ -20472,11 +20688,11 @@
         <v>77</v>
       </c>
       <c r="C255" s="64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9443610791</v>
       </c>
       <c r="D255" s="64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9443610791</v>
       </c>
       <c r="E255" s="42"/>
@@ -20484,7 +20700,7 @@
         <v>78</v>
       </c>
       <c r="G255" s="120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3YL</v>
       </c>
       <c r="H255" s="40" t="s">
@@ -20503,7 +20719,7 @@
         <v>14.88</v>
       </c>
       <c r="M255" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>535.68000000000006</v>
       </c>
       <c r="N255" s="67">
@@ -20543,7 +20759,7 @@
         <v>230</v>
       </c>
       <c r="G256" s="120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>KMH</v>
       </c>
       <c r="H256" s="40" t="s">
@@ -20562,7 +20778,7 @@
         <v>14.27</v>
       </c>
       <c r="M256" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>684.96</v>
       </c>
       <c r="N256" s="67">
@@ -20596,7 +20812,7 @@
       <c r="E257" s="42"/>
       <c r="F257" s="42"/>
       <c r="G257" s="120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>000</v>
       </c>
       <c r="H257" s="40" t="s">
@@ -20611,7 +20827,7 @@
         <v>320</v>
       </c>
       <c r="M257" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1920</v>
       </c>
       <c r="N257" s="67">
@@ -20647,7 +20863,7 @@
       <c r="E258" s="42"/>
       <c r="F258" s="42"/>
       <c r="G258" s="120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>751</v>
       </c>
       <c r="H258" s="40" t="s">
@@ -20666,7 +20882,7 @@
         <v>31.62</v>
       </c>
       <c r="M258" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>379.44</v>
       </c>
       <c r="N258" s="67">
@@ -20702,7 +20918,7 @@
       <c r="E259" s="42"/>
       <c r="F259" s="42"/>
       <c r="G259" s="120" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>770</v>
       </c>
       <c r="H259" s="40" t="s">
@@ -20721,7 +20937,7 @@
         <v>17.919999999999998</v>
       </c>
       <c r="M259" s="280">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3583.9999999999995</v>
       </c>
       <c r="N259" s="67">
@@ -20744,12 +20960,6 @@
   </sheetData>
   <autoFilter ref="A6:T239" xr:uid="{2F793BA1-D7F0-40D2-8D3B-CED77BBED12F}"/>
   <mergeCells count="17">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:J4"/>
@@ -20761,6 +20971,12 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="E115:E119">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
